--- a/JupyterNotebooks/AvgHW/Alpha2F-HW35.xlsx
+++ b/JupyterNotebooks/AvgHW/Alpha2F-HW35.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>HKL</t>
   </si>
@@ -58,6 +58,18 @@
     <t>OffsetATD</t>
   </si>
   <si>
+    <t>Holden2.5</t>
+  </si>
+  <si>
+    <t>Holden5</t>
+  </si>
+  <si>
+    <t>Holden10</t>
+  </si>
+  <si>
+    <t>Holden15</t>
+  </si>
+  <si>
     <t>HexGrid-90degTilt2.5degRes</t>
   </si>
   <si>
@@ -70,28 +82,28 @@
     <t>HexGrid-90degTilt15degRes</t>
   </si>
   <si>
+    <t>[4, 0, 0]</t>
+  </si>
+  <si>
+    <t>[2, 1, 1]</t>
+  </si>
+  <si>
+    <t>[2, 0, 0]</t>
+  </si>
+  <si>
+    <t>[2, 2, 0]</t>
+  </si>
+  <si>
+    <t>[3, 1, 0]</t>
+  </si>
+  <si>
+    <t>[2, 2, 2]</t>
+  </si>
+  <si>
     <t>[1, 1, 0]</t>
   </si>
   <si>
-    <t>[2, 0, 0]</t>
-  </si>
-  <si>
-    <t>[2, 1, 1]</t>
-  </si>
-  <si>
-    <t>[2, 2, 0]</t>
-  </si>
-  <si>
-    <t>[2, 2, 2]</t>
-  </si>
-  <si>
-    <t>[3, 1, 0]</t>
-  </si>
-  <si>
     <t>[3, 2, 1]</t>
-  </si>
-  <si>
-    <t>[4, 0, 0]</t>
   </si>
   <si>
     <t>1Pair-A</t>
@@ -479,13 +491,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AD19"/>
+  <dimension ref="A1:T23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:30">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -543,38 +555,8 @@
       <c r="T1" s="1">
         <v>18</v>
       </c>
-      <c r="U1" s="1">
-        <v>19</v>
-      </c>
-      <c r="V1" s="1">
-        <v>20</v>
-      </c>
-      <c r="W1" s="1">
-        <v>21</v>
-      </c>
-      <c r="X1" s="1">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="1">
-        <v>23</v>
-      </c>
-      <c r="Z1" s="1">
-        <v>24</v>
-      </c>
-      <c r="AA1" s="1">
-        <v>25</v>
-      </c>
-      <c r="AB1" s="1">
-        <v>26</v>
-      </c>
-      <c r="AC1" s="1">
-        <v>27</v>
-      </c>
-      <c r="AD1" s="1">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:30">
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -582,91 +564,61 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="M2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="N2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="O2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="P2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="Q2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="R2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="S2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="T2" t="s">
-        <v>35</v>
-      </c>
-      <c r="U2" t="s">
-        <v>26</v>
-      </c>
-      <c r="V2" t="s">
-        <v>27</v>
-      </c>
-      <c r="W2" t="s">
-        <v>28</v>
-      </c>
-      <c r="X2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:30">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -674,31 +626,31 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>0.999652158945037</v>
+        <v>1.001440656664685</v>
       </c>
       <c r="D3">
+        <v>0.9996329894146511</v>
+      </c>
+      <c r="E3">
         <v>1.001440656664685</v>
       </c>
-      <c r="E3">
-        <v>0.9996329894146511</v>
-      </c>
       <c r="F3">
-        <v>0.999652158945037</v>
+        <v>0.9996521589450369</v>
       </c>
       <c r="G3">
+        <v>1.000796798318786</v>
+      </c>
+      <c r="H3">
         <v>0.9990176526660738</v>
       </c>
-      <c r="H3">
-        <v>1.000796798318786</v>
-      </c>
       <c r="I3">
+        <v>0.9996521589450369</v>
+      </c>
+      <c r="J3">
         <v>0.999638578565057</v>
       </c>
-      <c r="J3">
-        <v>1.001440656664685</v>
-      </c>
       <c r="K3">
-        <v>0.999652158945037</v>
+        <v>0.9996521589450369</v>
       </c>
       <c r="L3">
         <v>0.9996329894146511</v>
@@ -710,7 +662,7 @@
         <v>1.000536823039668</v>
       </c>
       <c r="O3">
-        <v>1.000623481466041</v>
+        <v>1.00062348146604</v>
       </c>
       <c r="P3">
         <v>1.000241935008124</v>
@@ -719,16 +671,16 @@
         <v>1.000241935008124</v>
       </c>
       <c r="R3">
-        <v>1.000094490992353</v>
+        <v>1.000094490992352</v>
       </c>
       <c r="S3">
-        <v>1.000094490992353</v>
+        <v>1.000094490992352</v>
       </c>
       <c r="T3">
         <v>1.000029805762382</v>
       </c>
     </row>
-    <row r="4" spans="1:30">
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -736,31 +688,31 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>0.999331609761187</v>
+        <v>1.00277925569002</v>
       </c>
       <c r="D4">
+        <v>0.9992905048363873</v>
+      </c>
+      <c r="E4">
         <v>1.00277925569002</v>
       </c>
-      <c r="E4">
-        <v>0.9992905048363873</v>
-      </c>
       <c r="F4">
-        <v>0.999331609761187</v>
+        <v>0.9993316097611866</v>
       </c>
       <c r="G4">
+        <v>1.001538103974116</v>
+      </c>
+      <c r="H4">
         <v>0.9981001844087679</v>
       </c>
-      <c r="H4">
-        <v>1.001538103974116</v>
-      </c>
       <c r="I4">
+        <v>0.9993316097611866</v>
+      </c>
+      <c r="J4">
         <v>0.9993024888820127</v>
       </c>
-      <c r="J4">
-        <v>1.00277925569002</v>
-      </c>
       <c r="K4">
-        <v>0.999331609761187</v>
+        <v>0.9993316097611866</v>
       </c>
       <c r="L4">
         <v>0.9992905048363873</v>
@@ -790,7 +742,7 @@
         <v>1.000057024592082</v>
       </c>
     </row>
-    <row r="5" spans="1:30">
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -798,31 +750,31 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>0.998709596782976</v>
+        <v>1.005331959282125</v>
       </c>
       <c r="D5">
+        <v>0.9986433515599014</v>
+      </c>
+      <c r="E5">
         <v>1.005331959282125</v>
       </c>
-      <c r="E5">
-        <v>0.9986433515599014</v>
-      </c>
       <c r="F5">
-        <v>0.998709596782976</v>
+        <v>0.9987095967829761</v>
       </c>
       <c r="G5">
+        <v>1.002947910415362</v>
+      </c>
+      <c r="H5">
         <v>0.9963696544397603</v>
       </c>
-      <c r="H5">
-        <v>1.002947910415362</v>
-      </c>
       <c r="I5">
+        <v>0.9987095967829761</v>
+      </c>
+      <c r="J5">
         <v>0.9986626637146876</v>
       </c>
-      <c r="J5">
-        <v>1.005331959282125</v>
-      </c>
       <c r="K5">
-        <v>0.998709596782976</v>
+        <v>0.9987095967829761</v>
       </c>
       <c r="L5">
         <v>0.9986433515599014</v>
@@ -852,7 +804,7 @@
         <v>1.000110856032469</v>
       </c>
     </row>
-    <row r="6" spans="1:30">
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -860,28 +812,28 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>0.9981035948921796</v>
+        <v>1.007822615815993</v>
       </c>
       <c r="D6">
+        <v>0.9980114206304025</v>
+      </c>
+      <c r="E6">
         <v>1.007822615815993</v>
-      </c>
-      <c r="E6">
-        <v>0.9980114206304025</v>
       </c>
       <c r="F6">
         <v>0.9981035948921796</v>
       </c>
       <c r="G6">
-        <v>0.9946795793665034</v>
+        <v>1.004323773557547</v>
       </c>
       <c r="H6">
-        <v>1.004323773557547</v>
+        <v>0.9946795793665033</v>
       </c>
       <c r="I6">
+        <v>0.9981035948921796</v>
+      </c>
+      <c r="J6">
         <v>0.9980382994195934</v>
-      </c>
-      <c r="J6">
-        <v>1.007822615815993</v>
       </c>
       <c r="K6">
         <v>0.9981035948921796</v>
@@ -914,7 +866,7 @@
         <v>1.000163213947036</v>
       </c>
     </row>
-    <row r="7" spans="1:30">
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -922,28 +874,28 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0.9999798612152543</v>
+        <v>1.000082962137398</v>
       </c>
       <c r="D7">
+        <v>0.9999789251420766</v>
+      </c>
+      <c r="E7">
         <v>1.000082962137398</v>
-      </c>
-      <c r="E7">
-        <v>0.9999789251420766</v>
       </c>
       <c r="F7">
         <v>0.9999798612152543</v>
       </c>
       <c r="G7">
-        <v>0.999943621007699</v>
+        <v>1.000045846040292</v>
       </c>
       <c r="H7">
-        <v>1.000045846040291</v>
+        <v>0.9999436210076987</v>
       </c>
       <c r="I7">
-        <v>0.9999791983372877</v>
+        <v>0.9999798612152543</v>
       </c>
       <c r="J7">
-        <v>1.000082962137398</v>
+        <v>0.9999791983372874</v>
       </c>
       <c r="K7">
         <v>0.9999798612152543</v>
@@ -976,7 +928,7 @@
         <v>1.000001735646668</v>
       </c>
     </row>
-    <row r="8" spans="1:30">
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -984,34 +936,34 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>0.9999693137013419</v>
+        <v>1.000141160043223</v>
       </c>
       <c r="D8">
+        <v>0.9999621522372848</v>
+      </c>
+      <c r="E8">
         <v>1.000141160043223</v>
-      </c>
-      <c r="E8">
-        <v>0.9999621522372849</v>
       </c>
       <c r="F8">
         <v>0.9999693137013419</v>
       </c>
       <c r="G8">
-        <v>0.9998977074377305</v>
+        <v>1.000079295817327</v>
       </c>
       <c r="H8">
-        <v>1.000079295817327</v>
+        <v>0.9998977074377308</v>
       </c>
       <c r="I8">
-        <v>0.9999642403600156</v>
+        <v>0.9999693137013419</v>
       </c>
       <c r="J8">
-        <v>1.000141160043223</v>
+        <v>0.999964240360016</v>
       </c>
       <c r="K8">
         <v>0.9999693137013419</v>
       </c>
       <c r="L8">
-        <v>0.9999621522372849</v>
+        <v>0.9999621522372848</v>
       </c>
       <c r="M8">
         <v>1.000051656140254</v>
@@ -1038,7 +990,7 @@
         <v>1.000002311599487</v>
       </c>
     </row>
-    <row r="9" spans="1:30">
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1046,28 +998,28 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>0.999968720494125</v>
+        <v>1.000175932528203</v>
       </c>
       <c r="D9">
+        <v>0.9999489595445396</v>
+      </c>
+      <c r="E9">
         <v>1.000175932528203</v>
-      </c>
-      <c r="E9">
-        <v>0.9999489595445396</v>
       </c>
       <c r="F9">
         <v>0.999968720494125</v>
       </c>
       <c r="G9">
+        <v>1.000101337006856</v>
+      </c>
+      <c r="H9">
         <v>0.9998601257692979</v>
       </c>
-      <c r="H9">
-        <v>1.000101337006856</v>
-      </c>
       <c r="I9">
+        <v>0.999968720494125</v>
+      </c>
+      <c r="J9">
         <v>0.9999547206026016</v>
-      </c>
-      <c r="J9">
-        <v>1.000175932528203</v>
       </c>
       <c r="K9">
         <v>0.999968720494125</v>
@@ -1100,7 +1052,7 @@
         <v>1.000001632657604</v>
       </c>
     </row>
-    <row r="10" spans="1:30">
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1108,28 +1060,28 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.9999185149567772</v>
+        <v>1.00040542174895</v>
       </c>
       <c r="D10">
+        <v>0.9998876055947807</v>
+      </c>
+      <c r="E10">
         <v>1.00040542174895</v>
-      </c>
-      <c r="E10">
-        <v>0.9998876055947807</v>
       </c>
       <c r="F10">
         <v>0.9999185149567772</v>
       </c>
       <c r="G10">
+        <v>1.000230134531167</v>
+      </c>
+      <c r="H10">
         <v>0.9996943934415189</v>
       </c>
-      <c r="H10">
-        <v>1.000230134531167</v>
-      </c>
       <c r="I10">
+        <v>0.9999185149567772</v>
+      </c>
+      <c r="J10">
         <v>0.9998966187473555</v>
-      </c>
-      <c r="J10">
-        <v>1.00040542174895</v>
       </c>
       <c r="K10">
         <v>0.9999185149567772</v>
@@ -1162,7 +1114,7 @@
         <v>1.000005448170092</v>
       </c>
     </row>
-    <row r="11" spans="1:30">
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1170,40 +1122,40 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>0.9999100076221301</v>
+        <v>1.000576333919859</v>
       </c>
       <c r="D11">
-        <v>1.000576333919858</v>
+        <v>0.9998258651179543</v>
       </c>
       <c r="E11">
-        <v>0.9998258651179539</v>
+        <v>1.000576333919859</v>
       </c>
       <c r="F11">
         <v>0.9999100076221301</v>
       </c>
       <c r="G11">
-        <v>0.9995196102836081</v>
+        <v>1.000336457140164</v>
       </c>
       <c r="H11">
-        <v>1.000336457140164</v>
+        <v>0.9995196102836084</v>
       </c>
       <c r="I11">
-        <v>0.9998503969998305</v>
+        <v>0.9999100076221301</v>
       </c>
       <c r="J11">
-        <v>1.000576333919858</v>
+        <v>0.9998503969998302</v>
       </c>
       <c r="K11">
         <v>0.9999100076221301</v>
       </c>
       <c r="L11">
-        <v>0.9998258651179539</v>
+        <v>0.9998258651179543</v>
       </c>
       <c r="M11">
-        <v>1.000201099518906</v>
+        <v>1.000201099518907</v>
       </c>
       <c r="N11">
-        <v>1.000201099518906</v>
+        <v>1.000201099518907</v>
       </c>
       <c r="O11">
         <v>1.000246218725992</v>
@@ -1221,10 +1173,10 @@
         <v>1.000055553570518</v>
       </c>
       <c r="T11">
-        <v>1.000003111847257</v>
-      </c>
-    </row>
-    <row r="12" spans="1:30">
+        <v>1.000003111847258</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1232,34 +1184,34 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.9993872490284592</v>
+        <v>1.0052562732314</v>
       </c>
       <c r="D12">
+        <v>0.9982963136392016</v>
+      </c>
+      <c r="E12">
         <v>1.0052562732314</v>
-      </c>
-      <c r="E12">
-        <v>0.9982963136392012</v>
       </c>
       <c r="F12">
         <v>0.9993872490284592</v>
       </c>
       <c r="G12">
+        <v>1.003143426185144</v>
+      </c>
+      <c r="H12">
         <v>0.99524903541193</v>
       </c>
-      <c r="H12">
-        <v>1.003143426185144</v>
-      </c>
       <c r="I12">
+        <v>0.9993872490284592</v>
+      </c>
+      <c r="J12">
         <v>0.998614362427763</v>
-      </c>
-      <c r="J12">
-        <v>1.0052562732314</v>
       </c>
       <c r="K12">
         <v>0.9993872490284592</v>
       </c>
       <c r="L12">
-        <v>0.9982963136392012</v>
+        <v>0.9982963136392016</v>
       </c>
       <c r="M12">
         <v>1.001776293435301</v>
@@ -1283,10 +1235,10 @@
         <v>1.00058177123188</v>
       </c>
       <c r="T12">
-        <v>0.9999911099873162</v>
-      </c>
-    </row>
-    <row r="13" spans="1:30">
+        <v>0.9999911099873163</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1294,34 +1246,34 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.9992690280480535</v>
+        <v>1.001743561289196</v>
       </c>
       <c r="D13">
+        <v>0.9997280433451545</v>
+      </c>
+      <c r="E13">
         <v>1.001743561289196</v>
       </c>
-      <c r="E13">
-        <v>0.9997280433451544</v>
-      </c>
       <c r="F13">
-        <v>0.9992690280480535</v>
+        <v>0.9992690280480536</v>
       </c>
       <c r="G13">
+        <v>1.000852732511416</v>
+      </c>
+      <c r="H13">
         <v>0.999362208658366</v>
       </c>
-      <c r="H13">
-        <v>1.000852732511416</v>
-      </c>
       <c r="I13">
+        <v>0.9992690280480536</v>
+      </c>
+      <c r="J13">
         <v>0.9995942215377136</v>
       </c>
-      <c r="J13">
-        <v>1.001743561289196</v>
-      </c>
       <c r="K13">
-        <v>0.9992690280480535</v>
+        <v>0.9992690280480536</v>
       </c>
       <c r="L13">
-        <v>0.9997280433451544</v>
+        <v>0.9997280433451545</v>
       </c>
       <c r="M13">
         <v>1.000735802317175</v>
@@ -1348,7 +1300,7 @@
         <v>1.000091632564983</v>
       </c>
     </row>
-    <row r="14" spans="1:30">
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1356,34 +1308,34 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.9854696913620739</v>
+        <v>1.039289294417931</v>
       </c>
       <c r="D14">
+        <v>0.992793219491683</v>
+      </c>
+      <c r="E14">
         <v>1.039289294417931</v>
-      </c>
-      <c r="E14">
-        <v>0.9927932194916829</v>
       </c>
       <c r="F14">
         <v>0.9854696913620739</v>
       </c>
       <c r="G14">
+        <v>1.019914237773837</v>
+      </c>
+      <c r="H14">
         <v>0.9821768793969508</v>
       </c>
-      <c r="H14">
-        <v>1.019914237773837</v>
-      </c>
       <c r="I14">
+        <v>0.9854696913620739</v>
+      </c>
+      <c r="J14">
         <v>0.9906580803834244</v>
-      </c>
-      <c r="J14">
-        <v>1.039289294417931</v>
       </c>
       <c r="K14">
         <v>0.9854696913620739</v>
       </c>
       <c r="L14">
-        <v>0.9927932194916829</v>
+        <v>0.992793219491683</v>
       </c>
       <c r="M14">
         <v>1.016041256954807</v>
@@ -1410,7 +1362,7 @@
         <v>1.001716900470983</v>
       </c>
     </row>
-    <row r="15" spans="1:30">
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1418,28 +1370,28 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.9998289261027201</v>
+        <v>1.008413665126355</v>
       </c>
       <c r="D15">
+        <v>0.9968230549124885</v>
+      </c>
+      <c r="E15">
         <v>1.008413665126355</v>
-      </c>
-      <c r="E15">
-        <v>0.9968230549124885</v>
       </c>
       <c r="F15">
         <v>0.9998289261027201</v>
       </c>
       <c r="G15">
+        <v>1.00532315552624</v>
+      </c>
+      <c r="H15">
         <v>0.990955599828272</v>
       </c>
-      <c r="H15">
-        <v>1.00532315552624</v>
-      </c>
       <c r="I15">
+        <v>0.9998289261027201</v>
+      </c>
+      <c r="J15">
         <v>0.9976994048583242</v>
-      </c>
-      <c r="J15">
-        <v>1.008413665126355</v>
       </c>
       <c r="K15">
         <v>0.9998289261027201</v>
@@ -1472,7 +1424,7 @@
         <v>0.9998406343923999</v>
       </c>
     </row>
-    <row r="16" spans="1:30">
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1480,58 +1432,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.9999794886781379</v>
+        <v>1.028117370772411</v>
       </c>
       <c r="D16">
-        <v>1.00001768597576</v>
+        <v>0.9928603364892135</v>
       </c>
       <c r="E16">
-        <v>1.000004517227747</v>
+        <v>1.028117370772411</v>
       </c>
       <c r="F16">
-        <v>0.9999794886781379</v>
+        <v>0.9931692316187337</v>
       </c>
       <c r="G16">
-        <v>1.000016812046495</v>
+        <v>1.015536043098015</v>
       </c>
       <c r="H16">
-        <v>1.000003935496559</v>
+        <v>0.9809020600952463</v>
       </c>
       <c r="I16">
-        <v>0.9999972206472949</v>
+        <v>0.9931692316187337</v>
       </c>
       <c r="J16">
-        <v>1.00001768597576</v>
+        <v>0.9929503915757941</v>
       </c>
       <c r="K16">
-        <v>0.9999794886781379</v>
+        <v>0.9931692316187337</v>
       </c>
       <c r="L16">
-        <v>1.000004517227747</v>
+        <v>0.9928603364892135</v>
       </c>
       <c r="M16">
-        <v>1.000011101601754</v>
+        <v>1.010488853630812</v>
       </c>
       <c r="N16">
-        <v>1.000011101601754</v>
+        <v>1.010488853630812</v>
       </c>
       <c r="O16">
-        <v>1.000008712900022</v>
+        <v>1.01217125011988</v>
       </c>
       <c r="P16">
-        <v>1.000000563960548</v>
+        <v>1.004715646293453</v>
       </c>
       <c r="Q16">
-        <v>1.000000563960548</v>
+        <v>1.004715646293453</v>
       </c>
       <c r="R16">
-        <v>0.9999952951399458</v>
+        <v>1.001829042624773</v>
       </c>
       <c r="S16">
-        <v>0.9999952951399458</v>
+        <v>1.001829042624773</v>
       </c>
       <c r="T16">
-        <v>1.000003276678666</v>
+        <v>1.000589238941569</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1542,58 +1494,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.9999949364040704</v>
+        <v>1.023008222826314</v>
       </c>
       <c r="D17">
-        <v>1.000110383002925</v>
+        <v>0.9941895578608273</v>
       </c>
       <c r="E17">
-        <v>0.999959886099179</v>
+        <v>1.023008222826314</v>
       </c>
       <c r="F17">
-        <v>0.9999949364040704</v>
+        <v>0.9943530378129102</v>
       </c>
       <c r="G17">
-        <v>0.9998863527995148</v>
+        <v>1.012692357910362</v>
       </c>
       <c r="H17">
-        <v>1.000068822874185</v>
+        <v>0.9844743482337903</v>
       </c>
       <c r="I17">
-        <v>0.9999701053432549</v>
+        <v>0.9943530378129102</v>
       </c>
       <c r="J17">
-        <v>1.000110383002925</v>
+        <v>0.9942372184535461</v>
       </c>
       <c r="K17">
-        <v>0.9999949364040704</v>
+        <v>0.9943530378129102</v>
       </c>
       <c r="L17">
-        <v>0.999959886099179</v>
+        <v>0.9941895578608273</v>
       </c>
       <c r="M17">
-        <v>1.000035134551052</v>
+        <v>1.008598890343571</v>
       </c>
       <c r="N17">
-        <v>1.000035134551052</v>
+        <v>1.008598890343571</v>
       </c>
       <c r="O17">
-        <v>1.000046363992096</v>
+        <v>1.009963379532501</v>
       </c>
       <c r="P17">
-        <v>1.000021735168725</v>
+        <v>1.00385027283335</v>
       </c>
       <c r="Q17">
-        <v>1.000021735168725</v>
+        <v>1.00385027283335</v>
       </c>
       <c r="R17">
-        <v>1.000015035477561</v>
+        <v>1.00147596407824</v>
       </c>
       <c r="S17">
-        <v>1.000015035477561</v>
+        <v>1.00147596407824</v>
       </c>
       <c r="T17">
-        <v>0.9999984144205215</v>
+        <v>1.000492457182958</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1604,58 +1556,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>0.9998384456293257</v>
+        <v>1.012649245089462</v>
       </c>
       <c r="D18">
-        <v>1.000477078966855</v>
+        <v>0.996878504823501</v>
       </c>
       <c r="E18">
-        <v>0.9999042225068242</v>
+        <v>1.012649245089462</v>
       </c>
       <c r="F18">
-        <v>0.9998384456293257</v>
+        <v>0.9967642165013477</v>
       </c>
       <c r="G18">
-        <v>0.999757121420389</v>
+        <v>1.006930635176974</v>
       </c>
       <c r="H18">
-        <v>1.00024716973948</v>
+        <v>0.9916977856394769</v>
       </c>
       <c r="I18">
-        <v>0.9998850465441442</v>
+        <v>0.9967642165013477</v>
       </c>
       <c r="J18">
-        <v>1.000477078966855</v>
+        <v>0.9968451885174244</v>
       </c>
       <c r="K18">
-        <v>0.9998384456293257</v>
+        <v>0.9967642165013477</v>
       </c>
       <c r="L18">
-        <v>0.9999042225068242</v>
+        <v>0.996878504823501</v>
       </c>
       <c r="M18">
-        <v>1.00019065073684</v>
+        <v>1.004763874956481</v>
       </c>
       <c r="N18">
-        <v>1.00019065073684</v>
+        <v>1.004763874956481</v>
       </c>
       <c r="O18">
-        <v>1.000209490404387</v>
+        <v>1.005486128363312</v>
       </c>
       <c r="P18">
-        <v>1.000073249034335</v>
+        <v>1.002097322138104</v>
       </c>
       <c r="Q18">
-        <v>1.000073249034335</v>
+        <v>1.002097322138104</v>
       </c>
       <c r="R18">
-        <v>1.000014548183083</v>
+        <v>1.000764045728915</v>
       </c>
       <c r="S18">
-        <v>1.000014548183083</v>
+        <v>1.000764045728915</v>
       </c>
       <c r="T18">
-        <v>1.00001818080117</v>
+        <v>1.000294262624698</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1666,57 +1618,305 @@
         <v>17</v>
       </c>
       <c r="C19">
+        <v>1.013559006088905</v>
+      </c>
+      <c r="D19">
+        <v>0.9966930301088996</v>
+      </c>
+      <c r="E19">
+        <v>1.013559006088905</v>
+      </c>
+      <c r="F19">
+        <v>0.9964612385098743</v>
+      </c>
+      <c r="G19">
+        <v>1.00740381267364</v>
+      </c>
+      <c r="H19">
+        <v>0.9912255586327898</v>
+      </c>
+      <c r="I19">
+        <v>0.9964612385098743</v>
+      </c>
+      <c r="J19">
+        <v>0.9966254513305193</v>
+      </c>
+      <c r="K19">
+        <v>0.9964612385098743</v>
+      </c>
+      <c r="L19">
+        <v>0.9966930301088996</v>
+      </c>
+      <c r="M19">
+        <v>1.005126018098902</v>
+      </c>
+      <c r="N19">
+        <v>1.005126018098902</v>
+      </c>
+      <c r="O19">
+        <v>1.005885282957148</v>
+      </c>
+      <c r="P19">
+        <v>1.002237758235893</v>
+      </c>
+      <c r="Q19">
+        <v>1.002237758235893</v>
+      </c>
+      <c r="R19">
+        <v>1.000793628304388</v>
+      </c>
+      <c r="S19">
+        <v>1.000793628304388</v>
+      </c>
+      <c r="T19">
+        <v>1.000328016224105</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>1.00001768597576</v>
+      </c>
+      <c r="D20">
+        <v>1.000004517227747</v>
+      </c>
+      <c r="E20">
+        <v>1.00001768597576</v>
+      </c>
+      <c r="F20">
+        <v>0.9999794886781379</v>
+      </c>
+      <c r="G20">
+        <v>1.000003935496559</v>
+      </c>
+      <c r="H20">
+        <v>1.000016812046494</v>
+      </c>
+      <c r="I20">
+        <v>0.9999794886781379</v>
+      </c>
+      <c r="J20">
+        <v>0.9999972206472949</v>
+      </c>
+      <c r="K20">
+        <v>0.9999794886781379</v>
+      </c>
+      <c r="L20">
+        <v>1.000004517227747</v>
+      </c>
+      <c r="M20">
+        <v>1.000011101601754</v>
+      </c>
+      <c r="N20">
+        <v>1.000011101601754</v>
+      </c>
+      <c r="O20">
+        <v>1.000008712900022</v>
+      </c>
+      <c r="P20">
+        <v>1.000000563960548</v>
+      </c>
+      <c r="Q20">
+        <v>1.000000563960548</v>
+      </c>
+      <c r="R20">
+        <v>0.9999952951399458</v>
+      </c>
+      <c r="S20">
+        <v>0.9999952951399458</v>
+      </c>
+      <c r="T20">
+        <v>1.000003276678666</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <v>1.000110383002925</v>
+      </c>
+      <c r="D21">
+        <v>0.9999598860991789</v>
+      </c>
+      <c r="E21">
+        <v>1.000110383002925</v>
+      </c>
+      <c r="F21">
+        <v>0.9999949364040704</v>
+      </c>
+      <c r="G21">
+        <v>1.000068822874185</v>
+      </c>
+      <c r="H21">
+        <v>0.9998863527995148</v>
+      </c>
+      <c r="I21">
+        <v>0.9999949364040704</v>
+      </c>
+      <c r="J21">
+        <v>0.9999701053432549</v>
+      </c>
+      <c r="K21">
+        <v>0.9999949364040704</v>
+      </c>
+      <c r="L21">
+        <v>0.9999598860991789</v>
+      </c>
+      <c r="M21">
+        <v>1.000035134551052</v>
+      </c>
+      <c r="N21">
+        <v>1.000035134551052</v>
+      </c>
+      <c r="O21">
+        <v>1.000046363992096</v>
+      </c>
+      <c r="P21">
+        <v>1.000021735168725</v>
+      </c>
+      <c r="Q21">
+        <v>1.000021735168725</v>
+      </c>
+      <c r="R21">
+        <v>1.000015035477561</v>
+      </c>
+      <c r="S21">
+        <v>1.000015035477561</v>
+      </c>
+      <c r="T21">
+        <v>0.9999984144205216</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>1.000477078966855</v>
+      </c>
+      <c r="D22">
+        <v>0.9999042225068244</v>
+      </c>
+      <c r="E22">
+        <v>1.000477078966855</v>
+      </c>
+      <c r="F22">
+        <v>0.9998384456293257</v>
+      </c>
+      <c r="G22">
+        <v>1.00024716973948</v>
+      </c>
+      <c r="H22">
+        <v>0.999757121420389</v>
+      </c>
+      <c r="I22">
+        <v>0.9998384456293257</v>
+      </c>
+      <c r="J22">
+        <v>0.9998850465441442</v>
+      </c>
+      <c r="K22">
+        <v>0.9998384456293257</v>
+      </c>
+      <c r="L22">
+        <v>0.9999042225068244</v>
+      </c>
+      <c r="M22">
+        <v>1.00019065073684</v>
+      </c>
+      <c r="N22">
+        <v>1.00019065073684</v>
+      </c>
+      <c r="O22">
+        <v>1.000209490404387</v>
+      </c>
+      <c r="P22">
+        <v>1.000073249034335</v>
+      </c>
+      <c r="Q22">
+        <v>1.000073249034335</v>
+      </c>
+      <c r="R22">
+        <v>1.000014548183083</v>
+      </c>
+      <c r="S22">
+        <v>1.000014548183083</v>
+      </c>
+      <c r="T22">
+        <v>1.00001818080117</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23">
+        <v>1.001169417207979</v>
+      </c>
+      <c r="D23">
+        <v>0.9998022255468828</v>
+      </c>
+      <c r="E23">
+        <v>1.001169417207979</v>
+      </c>
+      <c r="F23">
         <v>0.9995374037412947</v>
       </c>
-      <c r="D19">
-        <v>1.00116941720798</v>
-      </c>
-      <c r="E19">
-        <v>0.9998022255468826</v>
-      </c>
-      <c r="F19">
+      <c r="G23">
+        <v>1.000581895104555</v>
+      </c>
+      <c r="H23">
+        <v>0.9995230419234286</v>
+      </c>
+      <c r="I23">
         <v>0.9995374037412947</v>
       </c>
-      <c r="G19">
-        <v>0.9995230419234286</v>
-      </c>
-      <c r="H19">
-        <v>1.000581895104555</v>
-      </c>
-      <c r="I19">
+      <c r="J23">
         <v>0.9997250170101267</v>
       </c>
-      <c r="J19">
-        <v>1.00116941720798</v>
-      </c>
-      <c r="K19">
+      <c r="K23">
         <v>0.9995374037412947</v>
       </c>
-      <c r="L19">
-        <v>0.9998022255468826</v>
-      </c>
-      <c r="M19">
+      <c r="L23">
+        <v>0.9998022255468828</v>
+      </c>
+      <c r="M23">
         <v>1.000485821377431</v>
       </c>
-      <c r="N19">
+      <c r="N23">
         <v>1.000485821377431</v>
       </c>
-      <c r="O19">
+      <c r="O23">
         <v>1.000517845953139</v>
       </c>
-      <c r="P19">
+      <c r="P23">
         <v>1.000169682165386</v>
       </c>
-      <c r="Q19">
+      <c r="Q23">
         <v>1.000169682165386</v>
       </c>
-      <c r="R19">
+      <c r="R23">
         <v>1.000011612559363</v>
       </c>
-      <c r="S19">
+      <c r="S23">
         <v>1.000011612559363</v>
       </c>
-      <c r="T19">
+      <c r="T23">
         <v>1.000056500089044</v>
       </c>
     </row>

--- a/JupyterNotebooks/AvgHW/Alpha2F-HW35.xlsx
+++ b/JupyterNotebooks/AvgHW/Alpha2F-HW35.xlsx
@@ -14,11 +14,47 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <si>
     <t>HKL</t>
   </si>
   <si>
+    <t>EA_5</t>
+  </si>
+  <si>
+    <t>EA_2.5</t>
+  </si>
+  <si>
+    <t>EA_10</t>
+  </si>
+  <si>
+    <t>EA_15</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_2.5</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_5</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_10</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_15</t>
+  </si>
+  <si>
+    <t>CLR_5</t>
+  </si>
+  <si>
+    <t>CLR_2.5</t>
+  </si>
+  <si>
+    <t>CLR_10</t>
+  </si>
+  <si>
+    <t>CLR_15</t>
+  </si>
+  <si>
     <t>BT8Hex_2.5</t>
   </si>
   <si>
@@ -70,6 +106,18 @@
     <t>Holden15</t>
   </si>
   <si>
+    <t>Ring Perpendicular to ND</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to RD</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to TD</t>
+  </si>
+  <si>
+    <t>Rotation-90detTilt</t>
+  </si>
+  <si>
     <t>HexGrid-90degTilt2.5degRes</t>
   </si>
   <si>
@@ -80,6 +128,15 @@
   </si>
   <si>
     <t>HexGrid-90degTilt15degRes</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-90</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-60 Weighted</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-30</t>
   </si>
   <si>
     <t>[4, 0, 0]</t>
@@ -491,7 +548,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T23"/>
+  <dimension ref="A1:T42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -564,58 +621,58 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="E2" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="F2" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="G2" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="H2" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="I2" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="J2" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="K2" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="L2" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="M2" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="N2" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="O2" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="P2" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="Q2" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="R2" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="S2" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="T2" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -626,58 +683,58 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>1.001440656664685</v>
+        <v>1.013830358753601</v>
       </c>
       <c r="D3">
-        <v>0.9996329894146511</v>
+        <v>0.9965784616426537</v>
       </c>
       <c r="E3">
-        <v>1.001440656664685</v>
+        <v>1.013830358753601</v>
       </c>
       <c r="F3">
-        <v>0.9996521589450369</v>
+        <v>0.9964775185878977</v>
       </c>
       <c r="G3">
-        <v>1.000796798318786</v>
+        <v>1.007583336685882</v>
       </c>
       <c r="H3">
-        <v>0.9990176526660738</v>
+        <v>0.9908951238184442</v>
       </c>
       <c r="I3">
-        <v>0.9996521589450369</v>
+        <v>0.9964775185878977</v>
       </c>
       <c r="J3">
-        <v>0.999638578565057</v>
+        <v>0.9965490322190189</v>
       </c>
       <c r="K3">
-        <v>0.9996521589450369</v>
+        <v>0.9964775185878977</v>
       </c>
       <c r="L3">
-        <v>0.9996329894146511</v>
+        <v>0.9965784616426537</v>
       </c>
       <c r="M3">
-        <v>1.000536823039668</v>
+        <v>1.005204410198127</v>
       </c>
       <c r="N3">
-        <v>1.000536823039668</v>
+        <v>1.005204410198127</v>
       </c>
       <c r="O3">
-        <v>1.00062348146604</v>
+        <v>1.005997385694045</v>
       </c>
       <c r="P3">
-        <v>1.000241935008124</v>
+        <v>1.002295446328051</v>
       </c>
       <c r="Q3">
-        <v>1.000241935008124</v>
+        <v>1.002295446328051</v>
       </c>
       <c r="R3">
-        <v>1.000094490992352</v>
+        <v>1.000840964393013</v>
       </c>
       <c r="S3">
-        <v>1.000094490992352</v>
+        <v>1.000840964393013</v>
       </c>
       <c r="T3">
-        <v>1.000029805762382</v>
+        <v>1.00031897195125</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -688,58 +745,58 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>1.00277925569002</v>
+        <v>1.013232818841797</v>
       </c>
       <c r="D4">
-        <v>0.9992905048363873</v>
+        <v>0.9967355309084991</v>
       </c>
       <c r="E4">
-        <v>1.00277925569002</v>
+        <v>1.013232818841797</v>
       </c>
       <c r="F4">
-        <v>0.9993316097611866</v>
+        <v>0.9966130715700701</v>
       </c>
       <c r="G4">
-        <v>1.001538103974116</v>
+        <v>1.007249710121133</v>
       </c>
       <c r="H4">
-        <v>0.9981001844087679</v>
+        <v>0.9913180736321275</v>
       </c>
       <c r="I4">
-        <v>0.9993316097611866</v>
+        <v>0.9966130715700701</v>
       </c>
       <c r="J4">
-        <v>0.9993024888820127</v>
+        <v>0.9966998285259007</v>
       </c>
       <c r="K4">
-        <v>0.9993316097611866</v>
+        <v>0.9966130715700701</v>
       </c>
       <c r="L4">
-        <v>0.9992905048363873</v>
+        <v>0.9967355309084991</v>
       </c>
       <c r="M4">
-        <v>1.001034880263203</v>
+        <v>1.004984174875148</v>
       </c>
       <c r="N4">
-        <v>1.001034880263203</v>
+        <v>1.004984174875148</v>
       </c>
       <c r="O4">
-        <v>1.001202621500174</v>
+        <v>1.005739353290476</v>
       </c>
       <c r="P4">
-        <v>1.000467123429198</v>
+        <v>1.002193807106789</v>
       </c>
       <c r="Q4">
-        <v>1.000467123429198</v>
+        <v>1.002193807106788</v>
       </c>
       <c r="R4">
-        <v>1.000183245012195</v>
+        <v>1.000798623222609</v>
       </c>
       <c r="S4">
-        <v>1.000183245012195</v>
+        <v>1.000798623222609</v>
       </c>
       <c r="T4">
-        <v>1.000057024592082</v>
+        <v>1.000308172266588</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -750,58 +807,58 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>1.005331959282125</v>
+        <v>1.01496232509434</v>
       </c>
       <c r="D5">
-        <v>0.9986433515599014</v>
+        <v>0.9962790533423166</v>
       </c>
       <c r="E5">
-        <v>1.005331959282125</v>
+        <v>1.01496232509434</v>
       </c>
       <c r="F5">
-        <v>0.9987095967829761</v>
+        <v>0.9962240771698104</v>
       </c>
       <c r="G5">
-        <v>1.002947910415362</v>
+        <v>1.008216553450136</v>
       </c>
       <c r="H5">
-        <v>0.9963696544397603</v>
+        <v>0.9900879462533698</v>
       </c>
       <c r="I5">
-        <v>0.9987095967829761</v>
+        <v>0.9962240771698104</v>
       </c>
       <c r="J5">
-        <v>0.9986626637146876</v>
+        <v>0.9962630283018865</v>
       </c>
       <c r="K5">
-        <v>0.9987095967829761</v>
+        <v>0.9962240771698104</v>
       </c>
       <c r="L5">
-        <v>0.9986433515599014</v>
+        <v>0.9962790533423166</v>
       </c>
       <c r="M5">
-        <v>1.001987655421013</v>
+        <v>1.005620689218328</v>
       </c>
       <c r="N5">
-        <v>1.001987655421013</v>
+        <v>1.005620689218328</v>
       </c>
       <c r="O5">
-        <v>1.002307740419129</v>
+        <v>1.006485977295597</v>
       </c>
       <c r="P5">
-        <v>1.000894969208334</v>
+        <v>1.002488485202156</v>
       </c>
       <c r="Q5">
-        <v>1.000894969208334</v>
+        <v>1.002488485202156</v>
       </c>
       <c r="R5">
-        <v>1.000348626101994</v>
+        <v>1.000922383194069</v>
       </c>
       <c r="S5">
-        <v>1.000348626101994</v>
+        <v>1.000922383194069</v>
       </c>
       <c r="T5">
-        <v>1.000110856032469</v>
+        <v>1.000338830601976</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -812,58 +869,58 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>1.007822615815993</v>
+        <v>1.016015871875</v>
       </c>
       <c r="D6">
-        <v>0.9980114206304025</v>
+        <v>0.9959981732954551</v>
       </c>
       <c r="E6">
-        <v>1.007822615815993</v>
+        <v>1.016015871875</v>
       </c>
       <c r="F6">
-        <v>0.9981035948921796</v>
+        <v>0.9959921828977274</v>
       </c>
       <c r="G6">
-        <v>1.004323773557547</v>
+        <v>1.008807348806818</v>
       </c>
       <c r="H6">
-        <v>0.9946795793665033</v>
+        <v>0.9893295902840914</v>
       </c>
       <c r="I6">
-        <v>0.9981035948921796</v>
+        <v>0.9959921828977274</v>
       </c>
       <c r="J6">
-        <v>0.9980382994195934</v>
+        <v>0.9959964253409092</v>
       </c>
       <c r="K6">
-        <v>0.9981035948921796</v>
+        <v>0.9959921828977274</v>
       </c>
       <c r="L6">
-        <v>0.9980114206304025</v>
+        <v>0.9959981732954551</v>
       </c>
       <c r="M6">
-        <v>1.002917018223198</v>
+        <v>1.006007022585228</v>
       </c>
       <c r="N6">
-        <v>1.002917018223198</v>
+        <v>1.006007022585228</v>
       </c>
       <c r="O6">
-        <v>1.003385936667981</v>
+        <v>1.006940464659091</v>
       </c>
       <c r="P6">
-        <v>1.001312543779525</v>
+        <v>1.002668742689394</v>
       </c>
       <c r="Q6">
-        <v>1.001312543779525</v>
+        <v>1.002668742689394</v>
       </c>
       <c r="R6">
-        <v>1.000510306557689</v>
+        <v>1.000999602741477</v>
       </c>
       <c r="S6">
-        <v>1.000510306557689</v>
+        <v>1.000999602741477</v>
       </c>
       <c r="T6">
-        <v>1.000163213947036</v>
+        <v>1.00035659875</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -874,58 +931,58 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>1.000082962137398</v>
+        <v>0.8976851637160492</v>
       </c>
       <c r="D7">
-        <v>0.9999789251420766</v>
+        <v>1.023995105717175</v>
       </c>
       <c r="E7">
-        <v>1.000082962137398</v>
+        <v>0.8976851637160492</v>
       </c>
       <c r="F7">
-        <v>0.9999798612152543</v>
+        <v>1.028429189475842</v>
       </c>
       <c r="G7">
-        <v>1.000045846040292</v>
+        <v>0.9447530180653304</v>
       </c>
       <c r="H7">
-        <v>0.9999436210076987</v>
+        <v>1.063142355389146</v>
       </c>
       <c r="I7">
-        <v>0.9999798612152543</v>
+        <v>1.028429189475842</v>
       </c>
       <c r="J7">
-        <v>0.9999791983372874</v>
+        <v>1.025287856176074</v>
       </c>
       <c r="K7">
-        <v>0.9999798612152543</v>
+        <v>1.028429189475842</v>
       </c>
       <c r="L7">
-        <v>0.9999789251420766</v>
+        <v>1.023995105717175</v>
       </c>
       <c r="M7">
-        <v>1.000030943639737</v>
+        <v>0.9608401347166122</v>
       </c>
       <c r="N7">
-        <v>1.000030943639737</v>
+        <v>0.9608401347166122</v>
       </c>
       <c r="O7">
-        <v>1.000035911106589</v>
+        <v>0.9554777624995183</v>
       </c>
       <c r="P7">
-        <v>1.00001391616491</v>
+        <v>0.9833698196363555</v>
       </c>
       <c r="Q7">
-        <v>1.00001391616491</v>
+        <v>0.9833698196363555</v>
       </c>
       <c r="R7">
-        <v>1.000005402427496</v>
+        <v>0.9946346620962272</v>
       </c>
       <c r="S7">
-        <v>1.000005402427496</v>
+        <v>0.9946346620962272</v>
       </c>
       <c r="T7">
-        <v>1.000001735646668</v>
+        <v>0.9972154480899361</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -936,58 +993,58 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>1.000141160043223</v>
+        <v>0.8983377732019843</v>
       </c>
       <c r="D8">
-        <v>0.9999621522372848</v>
+        <v>1.02383189597336</v>
       </c>
       <c r="E8">
-        <v>1.000141160043223</v>
+        <v>0.8983377732019843</v>
       </c>
       <c r="F8">
-        <v>0.9999693137013419</v>
+        <v>1.028266140371859</v>
       </c>
       <c r="G8">
-        <v>1.000079295817327</v>
+        <v>0.9451119904752066</v>
       </c>
       <c r="H8">
-        <v>0.9998977074377308</v>
+        <v>1.062707098774203</v>
       </c>
       <c r="I8">
-        <v>0.9999693137013419</v>
+        <v>1.028266140371859</v>
       </c>
       <c r="J8">
-        <v>0.999964240360016</v>
+        <v>1.025124693117545</v>
       </c>
       <c r="K8">
-        <v>0.9999693137013419</v>
+        <v>1.028266140371859</v>
       </c>
       <c r="L8">
-        <v>0.9999621522372848</v>
+        <v>1.02383189597336</v>
       </c>
       <c r="M8">
-        <v>1.000051656140254</v>
+        <v>0.9610848345876721</v>
       </c>
       <c r="N8">
-        <v>1.000051656140254</v>
+        <v>0.9610848345876721</v>
       </c>
       <c r="O8">
-        <v>1.000060869365945</v>
+        <v>0.9557605532168503</v>
       </c>
       <c r="P8">
-        <v>1.000024208660617</v>
+        <v>0.9834786031824012</v>
       </c>
       <c r="Q8">
-        <v>1.000024208660617</v>
+        <v>0.9834786031824013</v>
       </c>
       <c r="R8">
-        <v>1.000010484920798</v>
+        <v>0.9946754874797659</v>
       </c>
       <c r="S8">
-        <v>1.000010484920798</v>
+        <v>0.9946754874797659</v>
       </c>
       <c r="T8">
-        <v>1.000002311599487</v>
+        <v>0.997229931985693</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -998,58 +1055,58 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>1.000175932528203</v>
+        <v>0.8989636478074081</v>
       </c>
       <c r="D9">
-        <v>0.9999489595445396</v>
+        <v>1.023685857947906</v>
       </c>
       <c r="E9">
-        <v>1.000175932528203</v>
+        <v>0.8989636478074081</v>
       </c>
       <c r="F9">
-        <v>0.999968720494125</v>
+        <v>1.02809089670012</v>
       </c>
       <c r="G9">
-        <v>1.000101337006856</v>
+        <v>0.9454494624951897</v>
       </c>
       <c r="H9">
-        <v>0.9998601257692979</v>
+        <v>1.062323227021415</v>
       </c>
       <c r="I9">
-        <v>0.999968720494125</v>
+        <v>1.02809089670012</v>
       </c>
       <c r="J9">
-        <v>0.9999547206026016</v>
+        <v>1.024970140239478</v>
       </c>
       <c r="K9">
-        <v>0.999968720494125</v>
+        <v>1.02809089670012</v>
       </c>
       <c r="L9">
-        <v>0.9999489595445396</v>
+        <v>1.023685857947906</v>
       </c>
       <c r="M9">
-        <v>1.000062446036371</v>
+        <v>0.9613247528776572</v>
       </c>
       <c r="N9">
-        <v>1.000062446036371</v>
+        <v>0.9613247528776572</v>
       </c>
       <c r="O9">
-        <v>1.0000754096932</v>
+        <v>0.9560329894168347</v>
       </c>
       <c r="P9">
-        <v>1.000031204188956</v>
+        <v>0.9835801341518113</v>
       </c>
       <c r="Q9">
-        <v>1.000031204188956</v>
+        <v>0.9835801341518113</v>
       </c>
       <c r="R9">
-        <v>1.000015583265248</v>
+        <v>0.9947078247888885</v>
       </c>
       <c r="S9">
-        <v>1.000015583265248</v>
+        <v>0.9947078247888885</v>
       </c>
       <c r="T9">
-        <v>1.000001632657604</v>
+        <v>0.997247205368586</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1060,58 +1117,58 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>1.00040542174895</v>
+        <v>0.899876055248541</v>
       </c>
       <c r="D10">
-        <v>0.9998876055947807</v>
+        <v>1.02343498079533</v>
       </c>
       <c r="E10">
-        <v>1.00040542174895</v>
+        <v>0.899876055248541</v>
       </c>
       <c r="F10">
-        <v>0.9999185149567772</v>
+        <v>1.027903790378369</v>
       </c>
       <c r="G10">
-        <v>1.000230134531167</v>
+        <v>0.945966045007089</v>
       </c>
       <c r="H10">
-        <v>0.9996943934415189</v>
+        <v>1.061642074247854</v>
       </c>
       <c r="I10">
-        <v>0.9999185149567772</v>
+        <v>1.027903790378369</v>
       </c>
       <c r="J10">
-        <v>0.9998966187473555</v>
+        <v>1.024737854632206</v>
       </c>
       <c r="K10">
-        <v>0.9999185149567772</v>
+        <v>1.027903790378369</v>
       </c>
       <c r="L10">
-        <v>0.9998876055947807</v>
+        <v>1.02343498079533</v>
       </c>
       <c r="M10">
-        <v>1.000146513671865</v>
+        <v>0.9616555180219355</v>
       </c>
       <c r="N10">
-        <v>1.000146513671865</v>
+        <v>0.9616555180219355</v>
       </c>
       <c r="O10">
-        <v>1.000174387291633</v>
+        <v>0.9564256936836534</v>
       </c>
       <c r="P10">
-        <v>1.000070514100169</v>
+        <v>0.9837382754740801</v>
       </c>
       <c r="Q10">
-        <v>1.000070514100169</v>
+        <v>0.9837382754740801</v>
       </c>
       <c r="R10">
-        <v>1.000032514314321</v>
+        <v>0.9947796542001524</v>
       </c>
       <c r="S10">
-        <v>1.000032514314321</v>
+        <v>0.9947796542001524</v>
       </c>
       <c r="T10">
-        <v>1.000005448170092</v>
+        <v>0.9972601333848982</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1122,58 +1179,58 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>1.000576333919859</v>
+        <v>1.001125612393981</v>
       </c>
       <c r="D11">
-        <v>0.9998258651179543</v>
+        <v>0.9996942614253116</v>
       </c>
       <c r="E11">
-        <v>1.000576333919859</v>
+        <v>1.001125612393981</v>
       </c>
       <c r="F11">
-        <v>0.9999100076221301</v>
+        <v>0.999762400265704</v>
       </c>
       <c r="G11">
-        <v>1.000336457140164</v>
+        <v>1.000634856916818</v>
       </c>
       <c r="H11">
-        <v>0.9995196102836084</v>
+        <v>0.9991717164208076</v>
       </c>
       <c r="I11">
-        <v>0.9999100076221301</v>
+        <v>0.999762400265704</v>
       </c>
       <c r="J11">
-        <v>0.9998503969998302</v>
+        <v>0.999714127342574</v>
       </c>
       <c r="K11">
-        <v>0.9999100076221301</v>
+        <v>0.999762400265704</v>
       </c>
       <c r="L11">
-        <v>0.9998258651179543</v>
+        <v>0.9996942614253116</v>
       </c>
       <c r="M11">
-        <v>1.000201099518907</v>
+        <v>1.000409936909646</v>
       </c>
       <c r="N11">
-        <v>1.000201099518907</v>
+        <v>1.000409936909646</v>
       </c>
       <c r="O11">
-        <v>1.000246218725992</v>
+        <v>1.00048491024537</v>
       </c>
       <c r="P11">
-        <v>1.000104068886648</v>
+        <v>1.000194091361665</v>
       </c>
       <c r="Q11">
-        <v>1.000104068886648</v>
+        <v>1.000194091361665</v>
       </c>
       <c r="R11">
-        <v>1.000055553570518</v>
+        <v>1.000086168587675</v>
       </c>
       <c r="S11">
-        <v>1.000055553570518</v>
+        <v>1.000086168587675</v>
       </c>
       <c r="T11">
-        <v>1.000003111847258</v>
+        <v>1.000017162460866</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1184,58 +1241,58 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>1.0052562732314</v>
+        <v>1.000183588996898</v>
       </c>
       <c r="D12">
-        <v>0.9982963136392016</v>
+        <v>0.9999461066453011</v>
       </c>
       <c r="E12">
-        <v>1.0052562732314</v>
+        <v>1.000183588996898</v>
       </c>
       <c r="F12">
-        <v>0.9993872490284592</v>
+        <v>0.9999684956163325</v>
       </c>
       <c r="G12">
-        <v>1.003143426185144</v>
+        <v>1.000106155906127</v>
       </c>
       <c r="H12">
-        <v>0.99524903541193</v>
+        <v>0.9998520186003713</v>
       </c>
       <c r="I12">
-        <v>0.9993872490284592</v>
+        <v>0.9999684956163325</v>
       </c>
       <c r="J12">
-        <v>0.998614362427763</v>
+        <v>0.9999526342668186</v>
       </c>
       <c r="K12">
-        <v>0.9993872490284592</v>
+        <v>0.9999684956163325</v>
       </c>
       <c r="L12">
-        <v>0.9982963136392016</v>
+        <v>0.9999461066453011</v>
       </c>
       <c r="M12">
-        <v>1.001776293435301</v>
+        <v>1.0000648478211</v>
       </c>
       <c r="N12">
-        <v>1.001776293435301</v>
+        <v>1.0000648478211</v>
       </c>
       <c r="O12">
-        <v>1.002232004351915</v>
+        <v>1.000078617182775</v>
       </c>
       <c r="P12">
-        <v>1.000979945299687</v>
+        <v>1.000032730419511</v>
       </c>
       <c r="Q12">
-        <v>1.000979945299687</v>
+        <v>1.000032730419511</v>
       </c>
       <c r="R12">
-        <v>1.00058177123188</v>
+        <v>1.000016671718716</v>
       </c>
       <c r="S12">
-        <v>1.00058177123188</v>
+        <v>1.000016671718716</v>
       </c>
       <c r="T12">
-        <v>0.9999911099873163</v>
+        <v>1.000001500005308</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1246,58 +1303,58 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>1.001743561289196</v>
+        <v>1.000484840826781</v>
       </c>
       <c r="D13">
-        <v>0.9997280433451545</v>
+        <v>0.9998607671405804</v>
       </c>
       <c r="E13">
-        <v>1.001743561289196</v>
+        <v>1.000484840826781</v>
       </c>
       <c r="F13">
-        <v>0.9992690280480536</v>
+        <v>0.9999112298218467</v>
       </c>
       <c r="G13">
-        <v>1.000852732511416</v>
+        <v>1.000278337902893</v>
       </c>
       <c r="H13">
-        <v>0.999362208658366</v>
+        <v>0.9996190987365464</v>
       </c>
       <c r="I13">
-        <v>0.9992690280480536</v>
+        <v>0.9999112298218467</v>
       </c>
       <c r="J13">
-        <v>0.9995942215377136</v>
+        <v>0.9998754786801738</v>
       </c>
       <c r="K13">
-        <v>0.9992690280480536</v>
+        <v>0.9999112298218467</v>
       </c>
       <c r="L13">
-        <v>0.9997280433451545</v>
+        <v>0.9998607671405804</v>
       </c>
       <c r="M13">
-        <v>1.000735802317175</v>
+        <v>1.000172803983681</v>
       </c>
       <c r="N13">
-        <v>1.000735802317175</v>
+        <v>1.000172803983681</v>
       </c>
       <c r="O13">
-        <v>1.000774779048589</v>
+        <v>1.000207981956751</v>
       </c>
       <c r="P13">
-        <v>1.000246877560801</v>
+        <v>1.000085612596403</v>
       </c>
       <c r="Q13">
-        <v>1.000246877560801</v>
+        <v>1.000085612596403</v>
       </c>
       <c r="R13">
-        <v>1.000002415182614</v>
+        <v>1.000042016902764</v>
       </c>
       <c r="S13">
-        <v>1.000002415182614</v>
+        <v>1.000042016902764</v>
       </c>
       <c r="T13">
-        <v>1.000091632564983</v>
+        <v>1.00000495885147</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1308,58 +1365,58 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>1.039289294417931</v>
+        <v>1.003987387337519</v>
       </c>
       <c r="D14">
-        <v>0.992793219491683</v>
+        <v>0.9989857626643085</v>
       </c>
       <c r="E14">
-        <v>1.039289294417931</v>
+        <v>1.003987387337519</v>
       </c>
       <c r="F14">
-        <v>0.9854696913620739</v>
+        <v>0.9990344556094906</v>
       </c>
       <c r="G14">
-        <v>1.019914237773837</v>
+        <v>1.002204336773664</v>
       </c>
       <c r="H14">
-        <v>0.9821768793969508</v>
+        <v>0.9972860889651084</v>
       </c>
       <c r="I14">
-        <v>0.9854696913620739</v>
+        <v>0.9990344556094906</v>
       </c>
       <c r="J14">
-        <v>0.9906580803834244</v>
+        <v>0.9989999576058851</v>
       </c>
       <c r="K14">
-        <v>0.9854696913620739</v>
+        <v>0.9990344556094906</v>
       </c>
       <c r="L14">
-        <v>0.992793219491683</v>
+        <v>0.9989857626643085</v>
       </c>
       <c r="M14">
-        <v>1.016041256954807</v>
+        <v>1.001486575000914</v>
       </c>
       <c r="N14">
-        <v>1.016041256954807</v>
+        <v>1.001486575000914</v>
       </c>
       <c r="O14">
-        <v>1.01733225056115</v>
+        <v>1.001725828925164</v>
       </c>
       <c r="P14">
-        <v>1.005850735090563</v>
+        <v>1.00066920187044</v>
       </c>
       <c r="Q14">
-        <v>1.005850735090563</v>
+        <v>1.000669201870439</v>
       </c>
       <c r="R14">
-        <v>1.00075547415844</v>
+        <v>1.000260515305202</v>
       </c>
       <c r="S14">
-        <v>1.00075547415844</v>
+        <v>1.000260515305202</v>
       </c>
       <c r="T14">
-        <v>1.001716900470983</v>
+        <v>1.000082998159329</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1370,58 +1427,58 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>1.008413665126355</v>
+        <v>1.001440656664685</v>
       </c>
       <c r="D15">
-        <v>0.9968230549124885</v>
+        <v>0.9996329894146511</v>
       </c>
       <c r="E15">
-        <v>1.008413665126355</v>
+        <v>1.001440656664685</v>
       </c>
       <c r="F15">
-        <v>0.9998289261027201</v>
+        <v>0.9996521589450369</v>
       </c>
       <c r="G15">
-        <v>1.00532315552624</v>
+        <v>1.000796798318786</v>
       </c>
       <c r="H15">
-        <v>0.990955599828272</v>
+        <v>0.9990176526660738</v>
       </c>
       <c r="I15">
-        <v>0.9998289261027201</v>
+        <v>0.9996521589450369</v>
       </c>
       <c r="J15">
-        <v>0.9976994048583242</v>
+        <v>0.999638578565057</v>
       </c>
       <c r="K15">
-        <v>0.9998289261027201</v>
+        <v>0.9996521589450369</v>
       </c>
       <c r="L15">
-        <v>0.9968230549124885</v>
+        <v>0.9996329894146511</v>
       </c>
       <c r="M15">
-        <v>1.002618360019422</v>
+        <v>1.000536823039668</v>
       </c>
       <c r="N15">
-        <v>1.002618360019422</v>
+        <v>1.000536823039668</v>
       </c>
       <c r="O15">
-        <v>1.003519958521694</v>
+        <v>1.00062348146604</v>
       </c>
       <c r="P15">
-        <v>1.001688548713854</v>
+        <v>1.000241935008124</v>
       </c>
       <c r="Q15">
-        <v>1.001688548713854</v>
+        <v>1.000241935008124</v>
       </c>
       <c r="R15">
-        <v>1.001223643061071</v>
+        <v>1.000094490992352</v>
       </c>
       <c r="S15">
-        <v>1.001223643061071</v>
+        <v>1.000094490992352</v>
       </c>
       <c r="T15">
-        <v>0.9998406343923999</v>
+        <v>1.000029805762382</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1432,58 +1489,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.028117370772411</v>
+        <v>1.00277925569002</v>
       </c>
       <c r="D16">
-        <v>0.9928603364892135</v>
+        <v>0.9992905048363873</v>
       </c>
       <c r="E16">
-        <v>1.028117370772411</v>
+        <v>1.00277925569002</v>
       </c>
       <c r="F16">
-        <v>0.9931692316187337</v>
+        <v>0.9993316097611866</v>
       </c>
       <c r="G16">
-        <v>1.015536043098015</v>
+        <v>1.001538103974116</v>
       </c>
       <c r="H16">
-        <v>0.9809020600952463</v>
+        <v>0.9981001844087679</v>
       </c>
       <c r="I16">
-        <v>0.9931692316187337</v>
+        <v>0.9993316097611866</v>
       </c>
       <c r="J16">
-        <v>0.9929503915757941</v>
+        <v>0.9993024888820127</v>
       </c>
       <c r="K16">
-        <v>0.9931692316187337</v>
+        <v>0.9993316097611866</v>
       </c>
       <c r="L16">
-        <v>0.9928603364892135</v>
+        <v>0.9992905048363873</v>
       </c>
       <c r="M16">
-        <v>1.010488853630812</v>
+        <v>1.001034880263203</v>
       </c>
       <c r="N16">
-        <v>1.010488853630812</v>
+        <v>1.001034880263203</v>
       </c>
       <c r="O16">
-        <v>1.01217125011988</v>
+        <v>1.001202621500174</v>
       </c>
       <c r="P16">
-        <v>1.004715646293453</v>
+        <v>1.000467123429198</v>
       </c>
       <c r="Q16">
-        <v>1.004715646293453</v>
+        <v>1.000467123429198</v>
       </c>
       <c r="R16">
-        <v>1.001829042624773</v>
+        <v>1.000183245012195</v>
       </c>
       <c r="S16">
-        <v>1.001829042624773</v>
+        <v>1.000183245012195</v>
       </c>
       <c r="T16">
-        <v>1.000589238941569</v>
+        <v>1.000057024592082</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1494,58 +1551,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>1.023008222826314</v>
+        <v>1.005331959282125</v>
       </c>
       <c r="D17">
-        <v>0.9941895578608273</v>
+        <v>0.9986433515599014</v>
       </c>
       <c r="E17">
-        <v>1.023008222826314</v>
+        <v>1.005331959282125</v>
       </c>
       <c r="F17">
-        <v>0.9943530378129102</v>
+        <v>0.9987095967829761</v>
       </c>
       <c r="G17">
-        <v>1.012692357910362</v>
+        <v>1.002947910415362</v>
       </c>
       <c r="H17">
-        <v>0.9844743482337903</v>
+        <v>0.9963696544397603</v>
       </c>
       <c r="I17">
-        <v>0.9943530378129102</v>
+        <v>0.9987095967829761</v>
       </c>
       <c r="J17">
-        <v>0.9942372184535461</v>
+        <v>0.9986626637146876</v>
       </c>
       <c r="K17">
-        <v>0.9943530378129102</v>
+        <v>0.9987095967829761</v>
       </c>
       <c r="L17">
-        <v>0.9941895578608273</v>
+        <v>0.9986433515599014</v>
       </c>
       <c r="M17">
-        <v>1.008598890343571</v>
+        <v>1.001987655421013</v>
       </c>
       <c r="N17">
-        <v>1.008598890343571</v>
+        <v>1.001987655421013</v>
       </c>
       <c r="O17">
-        <v>1.009963379532501</v>
+        <v>1.002307740419129</v>
       </c>
       <c r="P17">
-        <v>1.00385027283335</v>
+        <v>1.000894969208334</v>
       </c>
       <c r="Q17">
-        <v>1.00385027283335</v>
+        <v>1.000894969208334</v>
       </c>
       <c r="R17">
-        <v>1.00147596407824</v>
+        <v>1.000348626101994</v>
       </c>
       <c r="S17">
-        <v>1.00147596407824</v>
+        <v>1.000348626101994</v>
       </c>
       <c r="T17">
-        <v>1.000492457182958</v>
+        <v>1.000110856032469</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1556,58 +1613,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1.012649245089462</v>
+        <v>1.007822615815993</v>
       </c>
       <c r="D18">
-        <v>0.996878504823501</v>
+        <v>0.9980114206304025</v>
       </c>
       <c r="E18">
-        <v>1.012649245089462</v>
+        <v>1.007822615815993</v>
       </c>
       <c r="F18">
-        <v>0.9967642165013477</v>
+        <v>0.9981035948921796</v>
       </c>
       <c r="G18">
-        <v>1.006930635176974</v>
+        <v>1.004323773557547</v>
       </c>
       <c r="H18">
-        <v>0.9916977856394769</v>
+        <v>0.9946795793665033</v>
       </c>
       <c r="I18">
-        <v>0.9967642165013477</v>
+        <v>0.9981035948921796</v>
       </c>
       <c r="J18">
-        <v>0.9968451885174244</v>
+        <v>0.9980382994195934</v>
       </c>
       <c r="K18">
-        <v>0.9967642165013477</v>
+        <v>0.9981035948921796</v>
       </c>
       <c r="L18">
-        <v>0.996878504823501</v>
+        <v>0.9980114206304025</v>
       </c>
       <c r="M18">
-        <v>1.004763874956481</v>
+        <v>1.002917018223198</v>
       </c>
       <c r="N18">
-        <v>1.004763874956481</v>
+        <v>1.002917018223198</v>
       </c>
       <c r="O18">
-        <v>1.005486128363312</v>
+        <v>1.003385936667981</v>
       </c>
       <c r="P18">
-        <v>1.002097322138104</v>
+        <v>1.001312543779525</v>
       </c>
       <c r="Q18">
-        <v>1.002097322138104</v>
+        <v>1.001312543779525</v>
       </c>
       <c r="R18">
-        <v>1.000764045728915</v>
+        <v>1.000510306557689</v>
       </c>
       <c r="S18">
-        <v>1.000764045728915</v>
+        <v>1.000510306557689</v>
       </c>
       <c r="T18">
-        <v>1.000294262624698</v>
+        <v>1.000163213947036</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1618,58 +1675,58 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>1.013559006088905</v>
+        <v>1.000082962137398</v>
       </c>
       <c r="D19">
-        <v>0.9966930301088996</v>
+        <v>0.9999789251420766</v>
       </c>
       <c r="E19">
-        <v>1.013559006088905</v>
+        <v>1.000082962137398</v>
       </c>
       <c r="F19">
-        <v>0.9964612385098743</v>
+        <v>0.9999798612152543</v>
       </c>
       <c r="G19">
-        <v>1.00740381267364</v>
+        <v>1.000045846040292</v>
       </c>
       <c r="H19">
-        <v>0.9912255586327898</v>
+        <v>0.9999436210076987</v>
       </c>
       <c r="I19">
-        <v>0.9964612385098743</v>
+        <v>0.9999798612152543</v>
       </c>
       <c r="J19">
-        <v>0.9966254513305193</v>
+        <v>0.9999791983372874</v>
       </c>
       <c r="K19">
-        <v>0.9964612385098743</v>
+        <v>0.9999798612152543</v>
       </c>
       <c r="L19">
-        <v>0.9966930301088996</v>
+        <v>0.9999789251420766</v>
       </c>
       <c r="M19">
-        <v>1.005126018098902</v>
+        <v>1.000030943639737</v>
       </c>
       <c r="N19">
-        <v>1.005126018098902</v>
+        <v>1.000030943639737</v>
       </c>
       <c r="O19">
-        <v>1.005885282957148</v>
+        <v>1.000035911106589</v>
       </c>
       <c r="P19">
-        <v>1.002237758235893</v>
+        <v>1.00001391616491</v>
       </c>
       <c r="Q19">
-        <v>1.002237758235893</v>
+        <v>1.00001391616491</v>
       </c>
       <c r="R19">
-        <v>1.000793628304388</v>
+        <v>1.000005402427496</v>
       </c>
       <c r="S19">
-        <v>1.000793628304388</v>
+        <v>1.000005402427496</v>
       </c>
       <c r="T19">
-        <v>1.000328016224105</v>
+        <v>1.000001735646668</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1680,58 +1737,58 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>1.00001768597576</v>
+        <v>1.000141160043223</v>
       </c>
       <c r="D20">
-        <v>1.000004517227747</v>
+        <v>0.9999621522372848</v>
       </c>
       <c r="E20">
-        <v>1.00001768597576</v>
+        <v>1.000141160043223</v>
       </c>
       <c r="F20">
-        <v>0.9999794886781379</v>
+        <v>0.9999693137013419</v>
       </c>
       <c r="G20">
-        <v>1.000003935496559</v>
+        <v>1.000079295817327</v>
       </c>
       <c r="H20">
-        <v>1.000016812046494</v>
+        <v>0.9998977074377308</v>
       </c>
       <c r="I20">
-        <v>0.9999794886781379</v>
+        <v>0.9999693137013419</v>
       </c>
       <c r="J20">
-        <v>0.9999972206472949</v>
+        <v>0.999964240360016</v>
       </c>
       <c r="K20">
-        <v>0.9999794886781379</v>
+        <v>0.9999693137013419</v>
       </c>
       <c r="L20">
-        <v>1.000004517227747</v>
+        <v>0.9999621522372848</v>
       </c>
       <c r="M20">
-        <v>1.000011101601754</v>
+        <v>1.000051656140254</v>
       </c>
       <c r="N20">
-        <v>1.000011101601754</v>
+        <v>1.000051656140254</v>
       </c>
       <c r="O20">
-        <v>1.000008712900022</v>
+        <v>1.000060869365945</v>
       </c>
       <c r="P20">
-        <v>1.000000563960548</v>
+        <v>1.000024208660617</v>
       </c>
       <c r="Q20">
-        <v>1.000000563960548</v>
+        <v>1.000024208660617</v>
       </c>
       <c r="R20">
-        <v>0.9999952951399458</v>
+        <v>1.000010484920798</v>
       </c>
       <c r="S20">
-        <v>0.9999952951399458</v>
+        <v>1.000010484920798</v>
       </c>
       <c r="T20">
-        <v>1.000003276678666</v>
+        <v>1.000002311599487</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1742,58 +1799,58 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>1.000110383002925</v>
+        <v>1.000175932528203</v>
       </c>
       <c r="D21">
-        <v>0.9999598860991789</v>
+        <v>0.9999489595445396</v>
       </c>
       <c r="E21">
-        <v>1.000110383002925</v>
+        <v>1.000175932528203</v>
       </c>
       <c r="F21">
-        <v>0.9999949364040704</v>
+        <v>0.999968720494125</v>
       </c>
       <c r="G21">
-        <v>1.000068822874185</v>
+        <v>1.000101337006856</v>
       </c>
       <c r="H21">
-        <v>0.9998863527995148</v>
+        <v>0.9998601257692979</v>
       </c>
       <c r="I21">
-        <v>0.9999949364040704</v>
+        <v>0.999968720494125</v>
       </c>
       <c r="J21">
-        <v>0.9999701053432549</v>
+        <v>0.9999547206026016</v>
       </c>
       <c r="K21">
-        <v>0.9999949364040704</v>
+        <v>0.999968720494125</v>
       </c>
       <c r="L21">
-        <v>0.9999598860991789</v>
+        <v>0.9999489595445396</v>
       </c>
       <c r="M21">
-        <v>1.000035134551052</v>
+        <v>1.000062446036371</v>
       </c>
       <c r="N21">
-        <v>1.000035134551052</v>
+        <v>1.000062446036371</v>
       </c>
       <c r="O21">
-        <v>1.000046363992096</v>
+        <v>1.0000754096932</v>
       </c>
       <c r="P21">
-        <v>1.000021735168725</v>
+        <v>1.000031204188956</v>
       </c>
       <c r="Q21">
-        <v>1.000021735168725</v>
+        <v>1.000031204188956</v>
       </c>
       <c r="R21">
-        <v>1.000015035477561</v>
+        <v>1.000015583265248</v>
       </c>
       <c r="S21">
-        <v>1.000015035477561</v>
+        <v>1.000015583265248</v>
       </c>
       <c r="T21">
-        <v>0.9999984144205216</v>
+        <v>1.000001632657604</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1804,58 +1861,58 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>1.000477078966855</v>
+        <v>1.00040542174895</v>
       </c>
       <c r="D22">
-        <v>0.9999042225068244</v>
+        <v>0.9998876055947807</v>
       </c>
       <c r="E22">
-        <v>1.000477078966855</v>
+        <v>1.00040542174895</v>
       </c>
       <c r="F22">
-        <v>0.9998384456293257</v>
+        <v>0.9999185149567772</v>
       </c>
       <c r="G22">
-        <v>1.00024716973948</v>
+        <v>1.000230134531167</v>
       </c>
       <c r="H22">
-        <v>0.999757121420389</v>
+        <v>0.9996943934415189</v>
       </c>
       <c r="I22">
-        <v>0.9998384456293257</v>
+        <v>0.9999185149567772</v>
       </c>
       <c r="J22">
-        <v>0.9998850465441442</v>
+        <v>0.9998966187473555</v>
       </c>
       <c r="K22">
-        <v>0.9998384456293257</v>
+        <v>0.9999185149567772</v>
       </c>
       <c r="L22">
-        <v>0.9999042225068244</v>
+        <v>0.9998876055947807</v>
       </c>
       <c r="M22">
-        <v>1.00019065073684</v>
+        <v>1.000146513671865</v>
       </c>
       <c r="N22">
-        <v>1.00019065073684</v>
+        <v>1.000146513671865</v>
       </c>
       <c r="O22">
-        <v>1.000209490404387</v>
+        <v>1.000174387291633</v>
       </c>
       <c r="P22">
-        <v>1.000073249034335</v>
+        <v>1.000070514100169</v>
       </c>
       <c r="Q22">
-        <v>1.000073249034335</v>
+        <v>1.000070514100169</v>
       </c>
       <c r="R22">
-        <v>1.000014548183083</v>
+        <v>1.000032514314321</v>
       </c>
       <c r="S22">
-        <v>1.000014548183083</v>
+        <v>1.000032514314321</v>
       </c>
       <c r="T22">
-        <v>1.00001818080117</v>
+        <v>1.000005448170092</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1866,58 +1923,1236 @@
         <v>21</v>
       </c>
       <c r="C23">
+        <v>1.000576333919859</v>
+      </c>
+      <c r="D23">
+        <v>0.9998258651179543</v>
+      </c>
+      <c r="E23">
+        <v>1.000576333919859</v>
+      </c>
+      <c r="F23">
+        <v>0.9999100076221301</v>
+      </c>
+      <c r="G23">
+        <v>1.000336457140164</v>
+      </c>
+      <c r="H23">
+        <v>0.9995196102836084</v>
+      </c>
+      <c r="I23">
+        <v>0.9999100076221301</v>
+      </c>
+      <c r="J23">
+        <v>0.9998503969998302</v>
+      </c>
+      <c r="K23">
+        <v>0.9999100076221301</v>
+      </c>
+      <c r="L23">
+        <v>0.9998258651179543</v>
+      </c>
+      <c r="M23">
+        <v>1.000201099518907</v>
+      </c>
+      <c r="N23">
+        <v>1.000201099518907</v>
+      </c>
+      <c r="O23">
+        <v>1.000246218725992</v>
+      </c>
+      <c r="P23">
+        <v>1.000104068886648</v>
+      </c>
+      <c r="Q23">
+        <v>1.000104068886648</v>
+      </c>
+      <c r="R23">
+        <v>1.000055553570518</v>
+      </c>
+      <c r="S23">
+        <v>1.000055553570518</v>
+      </c>
+      <c r="T23">
+        <v>1.000003111847258</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24">
+        <v>1.0052562732314</v>
+      </c>
+      <c r="D24">
+        <v>0.9982963136392016</v>
+      </c>
+      <c r="E24">
+        <v>1.0052562732314</v>
+      </c>
+      <c r="F24">
+        <v>0.9993872490284592</v>
+      </c>
+      <c r="G24">
+        <v>1.003143426185144</v>
+      </c>
+      <c r="H24">
+        <v>0.99524903541193</v>
+      </c>
+      <c r="I24">
+        <v>0.9993872490284592</v>
+      </c>
+      <c r="J24">
+        <v>0.998614362427763</v>
+      </c>
+      <c r="K24">
+        <v>0.9993872490284592</v>
+      </c>
+      <c r="L24">
+        <v>0.9982963136392016</v>
+      </c>
+      <c r="M24">
+        <v>1.001776293435301</v>
+      </c>
+      <c r="N24">
+        <v>1.001776293435301</v>
+      </c>
+      <c r="O24">
+        <v>1.002232004351915</v>
+      </c>
+      <c r="P24">
+        <v>1.000979945299687</v>
+      </c>
+      <c r="Q24">
+        <v>1.000979945299687</v>
+      </c>
+      <c r="R24">
+        <v>1.00058177123188</v>
+      </c>
+      <c r="S24">
+        <v>1.00058177123188</v>
+      </c>
+      <c r="T24">
+        <v>0.9999911099873163</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <v>1.001743561289196</v>
+      </c>
+      <c r="D25">
+        <v>0.9997280433451545</v>
+      </c>
+      <c r="E25">
+        <v>1.001743561289196</v>
+      </c>
+      <c r="F25">
+        <v>0.9992690280480536</v>
+      </c>
+      <c r="G25">
+        <v>1.000852732511416</v>
+      </c>
+      <c r="H25">
+        <v>0.999362208658366</v>
+      </c>
+      <c r="I25">
+        <v>0.9992690280480536</v>
+      </c>
+      <c r="J25">
+        <v>0.9995942215377136</v>
+      </c>
+      <c r="K25">
+        <v>0.9992690280480536</v>
+      </c>
+      <c r="L25">
+        <v>0.9997280433451545</v>
+      </c>
+      <c r="M25">
+        <v>1.000735802317175</v>
+      </c>
+      <c r="N25">
+        <v>1.000735802317175</v>
+      </c>
+      <c r="O25">
+        <v>1.000774779048589</v>
+      </c>
+      <c r="P25">
+        <v>1.000246877560801</v>
+      </c>
+      <c r="Q25">
+        <v>1.000246877560801</v>
+      </c>
+      <c r="R25">
+        <v>1.000002415182614</v>
+      </c>
+      <c r="S25">
+        <v>1.000002415182614</v>
+      </c>
+      <c r="T25">
+        <v>1.000091632564983</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <v>1.039289294417931</v>
+      </c>
+      <c r="D26">
+        <v>0.992793219491683</v>
+      </c>
+      <c r="E26">
+        <v>1.039289294417931</v>
+      </c>
+      <c r="F26">
+        <v>0.9854696913620739</v>
+      </c>
+      <c r="G26">
+        <v>1.019914237773837</v>
+      </c>
+      <c r="H26">
+        <v>0.9821768793969508</v>
+      </c>
+      <c r="I26">
+        <v>0.9854696913620739</v>
+      </c>
+      <c r="J26">
+        <v>0.9906580803834244</v>
+      </c>
+      <c r="K26">
+        <v>0.9854696913620739</v>
+      </c>
+      <c r="L26">
+        <v>0.992793219491683</v>
+      </c>
+      <c r="M26">
+        <v>1.016041256954807</v>
+      </c>
+      <c r="N26">
+        <v>1.016041256954807</v>
+      </c>
+      <c r="O26">
+        <v>1.01733225056115</v>
+      </c>
+      <c r="P26">
+        <v>1.005850735090563</v>
+      </c>
+      <c r="Q26">
+        <v>1.005850735090563</v>
+      </c>
+      <c r="R26">
+        <v>1.00075547415844</v>
+      </c>
+      <c r="S26">
+        <v>1.00075547415844</v>
+      </c>
+      <c r="T26">
+        <v>1.001716900470983</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27">
+        <v>1.008413665126355</v>
+      </c>
+      <c r="D27">
+        <v>0.9968230549124885</v>
+      </c>
+      <c r="E27">
+        <v>1.008413665126355</v>
+      </c>
+      <c r="F27">
+        <v>0.9998289261027201</v>
+      </c>
+      <c r="G27">
+        <v>1.00532315552624</v>
+      </c>
+      <c r="H27">
+        <v>0.990955599828272</v>
+      </c>
+      <c r="I27">
+        <v>0.9998289261027201</v>
+      </c>
+      <c r="J27">
+        <v>0.9976994048583242</v>
+      </c>
+      <c r="K27">
+        <v>0.9998289261027201</v>
+      </c>
+      <c r="L27">
+        <v>0.9968230549124885</v>
+      </c>
+      <c r="M27">
+        <v>1.002618360019422</v>
+      </c>
+      <c r="N27">
+        <v>1.002618360019422</v>
+      </c>
+      <c r="O27">
+        <v>1.003519958521694</v>
+      </c>
+      <c r="P27">
+        <v>1.001688548713854</v>
+      </c>
+      <c r="Q27">
+        <v>1.001688548713854</v>
+      </c>
+      <c r="R27">
+        <v>1.001223643061071</v>
+      </c>
+      <c r="S27">
+        <v>1.001223643061071</v>
+      </c>
+      <c r="T27">
+        <v>0.9998406343923999</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28">
+        <v>1.028117370772411</v>
+      </c>
+      <c r="D28">
+        <v>0.9928603364892135</v>
+      </c>
+      <c r="E28">
+        <v>1.028117370772411</v>
+      </c>
+      <c r="F28">
+        <v>0.9931692316187337</v>
+      </c>
+      <c r="G28">
+        <v>1.015536043098015</v>
+      </c>
+      <c r="H28">
+        <v>0.9809020600952463</v>
+      </c>
+      <c r="I28">
+        <v>0.9931692316187337</v>
+      </c>
+      <c r="J28">
+        <v>0.9929503915757941</v>
+      </c>
+      <c r="K28">
+        <v>0.9931692316187337</v>
+      </c>
+      <c r="L28">
+        <v>0.9928603364892135</v>
+      </c>
+      <c r="M28">
+        <v>1.010488853630812</v>
+      </c>
+      <c r="N28">
+        <v>1.010488853630812</v>
+      </c>
+      <c r="O28">
+        <v>1.01217125011988</v>
+      </c>
+      <c r="P28">
+        <v>1.004715646293453</v>
+      </c>
+      <c r="Q28">
+        <v>1.004715646293453</v>
+      </c>
+      <c r="R28">
+        <v>1.001829042624773</v>
+      </c>
+      <c r="S28">
+        <v>1.001829042624773</v>
+      </c>
+      <c r="T28">
+        <v>1.000589238941569</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29">
+        <v>1.023008222826314</v>
+      </c>
+      <c r="D29">
+        <v>0.9941895578608273</v>
+      </c>
+      <c r="E29">
+        <v>1.023008222826314</v>
+      </c>
+      <c r="F29">
+        <v>0.9943530378129102</v>
+      </c>
+      <c r="G29">
+        <v>1.012692357910362</v>
+      </c>
+      <c r="H29">
+        <v>0.9844743482337903</v>
+      </c>
+      <c r="I29">
+        <v>0.9943530378129102</v>
+      </c>
+      <c r="J29">
+        <v>0.9942372184535461</v>
+      </c>
+      <c r="K29">
+        <v>0.9943530378129102</v>
+      </c>
+      <c r="L29">
+        <v>0.9941895578608273</v>
+      </c>
+      <c r="M29">
+        <v>1.008598890343571</v>
+      </c>
+      <c r="N29">
+        <v>1.008598890343571</v>
+      </c>
+      <c r="O29">
+        <v>1.009963379532501</v>
+      </c>
+      <c r="P29">
+        <v>1.00385027283335</v>
+      </c>
+      <c r="Q29">
+        <v>1.00385027283335</v>
+      </c>
+      <c r="R29">
+        <v>1.00147596407824</v>
+      </c>
+      <c r="S29">
+        <v>1.00147596407824</v>
+      </c>
+      <c r="T29">
+        <v>1.000492457182958</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30">
+        <v>1.012649245089462</v>
+      </c>
+      <c r="D30">
+        <v>0.996878504823501</v>
+      </c>
+      <c r="E30">
+        <v>1.012649245089462</v>
+      </c>
+      <c r="F30">
+        <v>0.9967642165013477</v>
+      </c>
+      <c r="G30">
+        <v>1.006930635176974</v>
+      </c>
+      <c r="H30">
+        <v>0.9916977856394769</v>
+      </c>
+      <c r="I30">
+        <v>0.9967642165013477</v>
+      </c>
+      <c r="J30">
+        <v>0.9968451885174244</v>
+      </c>
+      <c r="K30">
+        <v>0.9967642165013477</v>
+      </c>
+      <c r="L30">
+        <v>0.996878504823501</v>
+      </c>
+      <c r="M30">
+        <v>1.004763874956481</v>
+      </c>
+      <c r="N30">
+        <v>1.004763874956481</v>
+      </c>
+      <c r="O30">
+        <v>1.005486128363312</v>
+      </c>
+      <c r="P30">
+        <v>1.002097322138104</v>
+      </c>
+      <c r="Q30">
+        <v>1.002097322138104</v>
+      </c>
+      <c r="R30">
+        <v>1.000764045728915</v>
+      </c>
+      <c r="S30">
+        <v>1.000764045728915</v>
+      </c>
+      <c r="T30">
+        <v>1.000294262624698</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31">
+        <v>1.013559006088905</v>
+      </c>
+      <c r="D31">
+        <v>0.9966930301088996</v>
+      </c>
+      <c r="E31">
+        <v>1.013559006088905</v>
+      </c>
+      <c r="F31">
+        <v>0.9964612385098743</v>
+      </c>
+      <c r="G31">
+        <v>1.00740381267364</v>
+      </c>
+      <c r="H31">
+        <v>0.9912255586327898</v>
+      </c>
+      <c r="I31">
+        <v>0.9964612385098743</v>
+      </c>
+      <c r="J31">
+        <v>0.9966254513305193</v>
+      </c>
+      <c r="K31">
+        <v>0.9964612385098743</v>
+      </c>
+      <c r="L31">
+        <v>0.9966930301088996</v>
+      </c>
+      <c r="M31">
+        <v>1.005126018098902</v>
+      </c>
+      <c r="N31">
+        <v>1.005126018098902</v>
+      </c>
+      <c r="O31">
+        <v>1.005885282957148</v>
+      </c>
+      <c r="P31">
+        <v>1.002237758235893</v>
+      </c>
+      <c r="Q31">
+        <v>1.002237758235893</v>
+      </c>
+      <c r="R31">
+        <v>1.000793628304388</v>
+      </c>
+      <c r="S31">
+        <v>1.000793628304388</v>
+      </c>
+      <c r="T31">
+        <v>1.000328016224105</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>30</v>
+      </c>
+      <c r="C32">
+        <v>1.031250700958904</v>
+      </c>
+      <c r="D32">
+        <v>0.9919384654794521</v>
+      </c>
+      <c r="E32">
+        <v>1.031250700958904</v>
+      </c>
+      <c r="F32">
+        <v>0.9926352668493147</v>
+      </c>
+      <c r="G32">
+        <v>1.017349147945206</v>
+      </c>
+      <c r="H32">
+        <v>0.9783698504109586</v>
+      </c>
+      <c r="I32">
+        <v>0.9926352668493147</v>
+      </c>
+      <c r="J32">
+        <v>0.9921416117808219</v>
+      </c>
+      <c r="K32">
+        <v>0.9926352668493147</v>
+      </c>
+      <c r="L32">
+        <v>0.9919384654794521</v>
+      </c>
+      <c r="M32">
+        <v>1.011594583219178</v>
+      </c>
+      <c r="N32">
+        <v>1.011594583219178</v>
+      </c>
+      <c r="O32">
+        <v>1.013512771461188</v>
+      </c>
+      <c r="P32">
+        <v>1.00527481109589</v>
+      </c>
+      <c r="Q32">
+        <v>1.00527481109589</v>
+      </c>
+      <c r="R32">
+        <v>1.002114925034246</v>
+      </c>
+      <c r="S32">
+        <v>1.002114925034246</v>
+      </c>
+      <c r="T32">
+        <v>1.000614173904109</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>31</v>
+      </c>
+      <c r="C33">
+        <v>0.9617949389473682</v>
+      </c>
+      <c r="D33">
+        <v>1.011589086842105</v>
+      </c>
+      <c r="E33">
+        <v>0.9617949389473682</v>
+      </c>
+      <c r="F33">
+        <v>1.005883181052632</v>
+      </c>
+      <c r="G33">
+        <v>0.9776667047368423</v>
+      </c>
+      <c r="H33">
+        <v>1.031991082631579</v>
+      </c>
+      <c r="I33">
+        <v>1.005883181052632</v>
+      </c>
+      <c r="J33">
+        <v>1.009925559473684</v>
+      </c>
+      <c r="K33">
+        <v>1.005883181052632</v>
+      </c>
+      <c r="L33">
+        <v>1.011589086842105</v>
+      </c>
+      <c r="M33">
+        <v>0.9866920128947367</v>
+      </c>
+      <c r="N33">
+        <v>0.9866920128947367</v>
+      </c>
+      <c r="O33">
+        <v>0.9836835768421053</v>
+      </c>
+      <c r="P33">
+        <v>0.9930890689473685</v>
+      </c>
+      <c r="Q33">
+        <v>0.9930890689473685</v>
+      </c>
+      <c r="R33">
+        <v>0.9962875969736843</v>
+      </c>
+      <c r="S33">
+        <v>0.9962875969736843</v>
+      </c>
+      <c r="T33">
+        <v>0.999808425614035</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>32</v>
+      </c>
+      <c r="C34">
+        <v>0.911944017368421</v>
+      </c>
+      <c r="D34">
+        <v>1.020461439473684</v>
+      </c>
+      <c r="E34">
+        <v>0.911944017368421</v>
+      </c>
+      <c r="F34">
+        <v>1.024808592105263</v>
+      </c>
+      <c r="G34">
+        <v>0.9525752694736843</v>
+      </c>
+      <c r="H34">
+        <v>1.053735803157895</v>
+      </c>
+      <c r="I34">
+        <v>1.024808592105263</v>
+      </c>
+      <c r="J34">
+        <v>1.021728843157895</v>
+      </c>
+      <c r="K34">
+        <v>1.024808592105263</v>
+      </c>
+      <c r="L34">
+        <v>1.020461439473684</v>
+      </c>
+      <c r="M34">
+        <v>0.9662027284210526</v>
+      </c>
+      <c r="N34">
+        <v>0.9662027284210526</v>
+      </c>
+      <c r="O34">
+        <v>0.9616602421052631</v>
+      </c>
+      <c r="P34">
+        <v>0.9857380163157895</v>
+      </c>
+      <c r="Q34">
+        <v>0.9857380163157895</v>
+      </c>
+      <c r="R34">
+        <v>0.9955056602631579</v>
+      </c>
+      <c r="S34">
+        <v>0.9955056602631579</v>
+      </c>
+      <c r="T34">
+        <v>0.9975423274561402</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>33</v>
+      </c>
+      <c r="C35">
+        <v>1.051254836535188</v>
+      </c>
+      <c r="D35">
+        <v>0.9874728754740056</v>
+      </c>
+      <c r="E35">
+        <v>1.051254836535188</v>
+      </c>
+      <c r="F35">
+        <v>0.986670452657166</v>
+      </c>
+      <c r="G35">
+        <v>1.028004459646739</v>
+      </c>
+      <c r="H35">
+        <v>0.966747172701952</v>
+      </c>
+      <c r="I35">
+        <v>0.986670452657166</v>
+      </c>
+      <c r="J35">
+        <v>0.9872389306106817</v>
+      </c>
+      <c r="K35">
+        <v>0.986670452657166</v>
+      </c>
+      <c r="L35">
+        <v>0.9874728754740056</v>
+      </c>
+      <c r="M35">
+        <v>1.019363856004597</v>
+      </c>
+      <c r="N35">
+        <v>1.019363856004597</v>
+      </c>
+      <c r="O35">
+        <v>1.022244057218644</v>
+      </c>
+      <c r="P35">
+        <v>1.008466054888786</v>
+      </c>
+      <c r="Q35">
+        <v>1.008466054888786</v>
+      </c>
+      <c r="R35">
+        <v>1.003017154330881</v>
+      </c>
+      <c r="S35">
+        <v>1.003017154330881</v>
+      </c>
+      <c r="T35">
+        <v>1.001231454604289</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>34</v>
+      </c>
+      <c r="C36">
+        <v>1.00001768597576</v>
+      </c>
+      <c r="D36">
+        <v>1.000004517227747</v>
+      </c>
+      <c r="E36">
+        <v>1.00001768597576</v>
+      </c>
+      <c r="F36">
+        <v>0.9999794886781379</v>
+      </c>
+      <c r="G36">
+        <v>1.000003935496559</v>
+      </c>
+      <c r="H36">
+        <v>1.000016812046494</v>
+      </c>
+      <c r="I36">
+        <v>0.9999794886781379</v>
+      </c>
+      <c r="J36">
+        <v>0.9999972206472949</v>
+      </c>
+      <c r="K36">
+        <v>0.9999794886781379</v>
+      </c>
+      <c r="L36">
+        <v>1.000004517227747</v>
+      </c>
+      <c r="M36">
+        <v>1.000011101601754</v>
+      </c>
+      <c r="N36">
+        <v>1.000011101601754</v>
+      </c>
+      <c r="O36">
+        <v>1.000008712900022</v>
+      </c>
+      <c r="P36">
+        <v>1.000000563960548</v>
+      </c>
+      <c r="Q36">
+        <v>1.000000563960548</v>
+      </c>
+      <c r="R36">
+        <v>0.9999952951399458</v>
+      </c>
+      <c r="S36">
+        <v>0.9999952951399458</v>
+      </c>
+      <c r="T36">
+        <v>1.000003276678666</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>35</v>
+      </c>
+      <c r="C37">
+        <v>1.000110383002925</v>
+      </c>
+      <c r="D37">
+        <v>0.9999598860991789</v>
+      </c>
+      <c r="E37">
+        <v>1.000110383002925</v>
+      </c>
+      <c r="F37">
+        <v>0.9999949364040704</v>
+      </c>
+      <c r="G37">
+        <v>1.000068822874185</v>
+      </c>
+      <c r="H37">
+        <v>0.9998863527995148</v>
+      </c>
+      <c r="I37">
+        <v>0.9999949364040704</v>
+      </c>
+      <c r="J37">
+        <v>0.9999701053432549</v>
+      </c>
+      <c r="K37">
+        <v>0.9999949364040704</v>
+      </c>
+      <c r="L37">
+        <v>0.9999598860991789</v>
+      </c>
+      <c r="M37">
+        <v>1.000035134551052</v>
+      </c>
+      <c r="N37">
+        <v>1.000035134551052</v>
+      </c>
+      <c r="O37">
+        <v>1.000046363992096</v>
+      </c>
+      <c r="P37">
+        <v>1.000021735168725</v>
+      </c>
+      <c r="Q37">
+        <v>1.000021735168725</v>
+      </c>
+      <c r="R37">
+        <v>1.000015035477561</v>
+      </c>
+      <c r="S37">
+        <v>1.000015035477561</v>
+      </c>
+      <c r="T37">
+        <v>0.9999984144205216</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>36</v>
+      </c>
+      <c r="C38">
+        <v>1.000477078966855</v>
+      </c>
+      <c r="D38">
+        <v>0.9999042225068244</v>
+      </c>
+      <c r="E38">
+        <v>1.000477078966855</v>
+      </c>
+      <c r="F38">
+        <v>0.9998384456293257</v>
+      </c>
+      <c r="G38">
+        <v>1.00024716973948</v>
+      </c>
+      <c r="H38">
+        <v>0.999757121420389</v>
+      </c>
+      <c r="I38">
+        <v>0.9998384456293257</v>
+      </c>
+      <c r="J38">
+        <v>0.9998850465441442</v>
+      </c>
+      <c r="K38">
+        <v>0.9998384456293257</v>
+      </c>
+      <c r="L38">
+        <v>0.9999042225068244</v>
+      </c>
+      <c r="M38">
+        <v>1.00019065073684</v>
+      </c>
+      <c r="N38">
+        <v>1.00019065073684</v>
+      </c>
+      <c r="O38">
+        <v>1.000209490404387</v>
+      </c>
+      <c r="P38">
+        <v>1.000073249034335</v>
+      </c>
+      <c r="Q38">
+        <v>1.000073249034335</v>
+      </c>
+      <c r="R38">
+        <v>1.000014548183083</v>
+      </c>
+      <c r="S38">
+        <v>1.000014548183083</v>
+      </c>
+      <c r="T38">
+        <v>1.00001818080117</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>37</v>
+      </c>
+      <c r="C39">
         <v>1.001169417207979</v>
       </c>
-      <c r="D23">
+      <c r="D39">
         <v>0.9998022255468828</v>
       </c>
-      <c r="E23">
+      <c r="E39">
         <v>1.001169417207979</v>
       </c>
-      <c r="F23">
+      <c r="F39">
         <v>0.9995374037412947</v>
       </c>
-      <c r="G23">
+      <c r="G39">
         <v>1.000581895104555</v>
       </c>
-      <c r="H23">
+      <c r="H39">
         <v>0.9995230419234286</v>
       </c>
-      <c r="I23">
+      <c r="I39">
         <v>0.9995374037412947</v>
       </c>
-      <c r="J23">
+      <c r="J39">
         <v>0.9997250170101267</v>
       </c>
-      <c r="K23">
+      <c r="K39">
         <v>0.9995374037412947</v>
       </c>
-      <c r="L23">
+      <c r="L39">
         <v>0.9998022255468828</v>
       </c>
-      <c r="M23">
+      <c r="M39">
         <v>1.000485821377431</v>
       </c>
-      <c r="N23">
+      <c r="N39">
         <v>1.000485821377431</v>
       </c>
-      <c r="O23">
+      <c r="O39">
         <v>1.000517845953139</v>
       </c>
-      <c r="P23">
+      <c r="P39">
         <v>1.000169682165386</v>
       </c>
-      <c r="Q23">
+      <c r="Q39">
         <v>1.000169682165386</v>
       </c>
-      <c r="R23">
+      <c r="R39">
         <v>1.000011612559363</v>
       </c>
-      <c r="S23">
+      <c r="S39">
         <v>1.000011612559363</v>
       </c>
-      <c r="T23">
+      <c r="T39">
         <v>1.000056500089044</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>38</v>
+      </c>
+      <c r="C40">
+        <v>0.9678268680459725</v>
+      </c>
+      <c r="D40">
+        <v>1.008507717233318</v>
+      </c>
+      <c r="E40">
+        <v>0.9678268680459725</v>
+      </c>
+      <c r="F40">
+        <v>1.007207301255327</v>
+      </c>
+      <c r="G40">
+        <v>0.9820038248559663</v>
+      </c>
+      <c r="H40">
+        <v>1.022934940892523</v>
+      </c>
+      <c r="I40">
+        <v>1.007207301255327</v>
+      </c>
+      <c r="J40">
+        <v>1.008128589823047</v>
+      </c>
+      <c r="K40">
+        <v>1.007207301255327</v>
+      </c>
+      <c r="L40">
+        <v>1.008507717233318</v>
+      </c>
+      <c r="M40">
+        <v>0.9881672926396452</v>
+      </c>
+      <c r="N40">
+        <v>0.9881672926396452</v>
+      </c>
+      <c r="O40">
+        <v>0.9861128033784189</v>
+      </c>
+      <c r="P40">
+        <v>0.9945139621782056</v>
+      </c>
+      <c r="Q40">
+        <v>0.9945139621782056</v>
+      </c>
+      <c r="R40">
+        <v>0.9976872969474859</v>
+      </c>
+      <c r="S40">
+        <v>0.9976872969474859</v>
+      </c>
+      <c r="T40">
+        <v>0.9994348736843587</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>39</v>
+      </c>
+      <c r="C41">
+        <v>1.000190306628354</v>
+      </c>
+      <c r="D41">
+        <v>0.999814326038434</v>
+      </c>
+      <c r="E41">
+        <v>1.000190306628354</v>
+      </c>
+      <c r="F41">
+        <v>1.000200999983367</v>
+      </c>
+      <c r="G41">
+        <v>1.00019415649229</v>
+      </c>
+      <c r="H41">
+        <v>0.9994312152842604</v>
+      </c>
+      <c r="I41">
+        <v>1.000200999983367</v>
+      </c>
+      <c r="J41">
+        <v>0.9999270595012278</v>
+      </c>
+      <c r="K41">
+        <v>1.000200999983367</v>
+      </c>
+      <c r="L41">
+        <v>0.999814326038434</v>
+      </c>
+      <c r="M41">
+        <v>1.000002316333394</v>
+      </c>
+      <c r="N41">
+        <v>1.000002316333394</v>
+      </c>
+      <c r="O41">
+        <v>1.000066263053026</v>
+      </c>
+      <c r="P41">
+        <v>1.000068544216718</v>
+      </c>
+      <c r="Q41">
+        <v>1.000068544216718</v>
+      </c>
+      <c r="R41">
+        <v>1.00010165815838</v>
+      </c>
+      <c r="S41">
+        <v>1.00010165815838</v>
+      </c>
+      <c r="T41">
+        <v>0.9999596773213221</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>40</v>
+      </c>
+      <c r="C42">
+        <v>1.006306753484065</v>
+      </c>
+      <c r="D42">
+        <v>0.9992217108622956</v>
+      </c>
+      <c r="E42">
+        <v>1.006306753484065</v>
+      </c>
+      <c r="F42">
+        <v>0.9969861956346426</v>
+      </c>
+      <c r="G42">
+        <v>1.002951352208867</v>
+      </c>
+      <c r="H42">
+        <v>0.9983503717864169</v>
+      </c>
+      <c r="I42">
+        <v>0.9969861956346426</v>
+      </c>
+      <c r="J42">
+        <v>0.9985699600936607</v>
+      </c>
+      <c r="K42">
+        <v>0.9969861956346426</v>
+      </c>
+      <c r="L42">
+        <v>0.9992217108622956</v>
+      </c>
+      <c r="M42">
+        <v>1.00276423217318</v>
+      </c>
+      <c r="N42">
+        <v>1.00276423217318</v>
+      </c>
+      <c r="O42">
+        <v>1.002826605518409</v>
+      </c>
+      <c r="P42">
+        <v>1.000838219993668</v>
+      </c>
+      <c r="Q42">
+        <v>1.000838219993668</v>
+      </c>
+      <c r="R42">
+        <v>0.9998752139039115</v>
+      </c>
+      <c r="S42">
+        <v>0.9998752139039115</v>
+      </c>
+      <c r="T42">
+        <v>1.000397724011658</v>
       </c>
     </row>
   </sheetData>

--- a/JupyterNotebooks/AvgHW/Alpha2F-HW35.xlsx
+++ b/JupyterNotebooks/AvgHW/Alpha2F-HW35.xlsx
@@ -14,36 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>HKL</t>
   </si>
   <si>
-    <t>BT8Hex_2.5</t>
-  </si>
-  <si>
-    <t>BT8Hex_5</t>
-  </si>
-  <si>
-    <t>BT8Hex_10</t>
-  </si>
-  <si>
-    <t>BT8Hex_15</t>
-  </si>
-  <si>
-    <t>Spiral2.5</t>
-  </si>
-  <si>
     <t>Spiral5</t>
   </si>
   <si>
-    <t>Spiral7.5</t>
-  </si>
-  <si>
-    <t>Spiral10</t>
-  </si>
-  <si>
-    <t>Spiral15</t>
+    <t>RotRing OmegaMax-90</t>
+  </si>
+  <si>
+    <t>Equal Angle</t>
+  </si>
+  <si>
+    <t>Tilt Rotate</t>
+  </si>
+  <si>
+    <t>CLR</t>
+  </si>
+  <si>
+    <t>Rizzie Hex</t>
+  </si>
+  <si>
+    <t>Thomas Hex</t>
+  </si>
+  <si>
+    <t>Tilt Rotate_Partial</t>
+  </si>
+  <si>
+    <t>RotRing OmegaMax-60</t>
+  </si>
+  <si>
+    <t>Equal Angle_Partial</t>
+  </si>
+  <si>
+    <t>Rizzie Hex_Partial</t>
+  </si>
+  <si>
+    <t>ND Single</t>
+  </si>
+  <si>
+    <t>RD Single</t>
+  </si>
+  <si>
+    <t>TD Single</t>
+  </si>
+  <si>
+    <t>Morris Single</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to ND</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to RD</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to TD</t>
+  </si>
+  <si>
+    <t>OffsetFTD</t>
+  </si>
+  <si>
+    <t>OffsetATD</t>
   </si>
   <si>
     <t>OffsetF45</t>
@@ -52,46 +85,43 @@
     <t>OffsetA45</t>
   </si>
   <si>
-    <t>OffsetFTD</t>
-  </si>
-  <si>
-    <t>OffsetATD</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt2.5degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt5degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt10degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt15degRes</t>
+    <t>OffsetFRD</t>
+  </si>
+  <si>
+    <t>OffsetARD</t>
+  </si>
+  <si>
+    <t>Gaussian Quadrature</t>
+  </si>
+  <si>
+    <t>Michael-CCHex</t>
+  </si>
+  <si>
+    <t>Michael-SNHex</t>
+  </si>
+  <si>
+    <t>[4, 0, 0]</t>
+  </si>
+  <si>
+    <t>[2, 1, 1]</t>
+  </si>
+  <si>
+    <t>[2, 0, 0]</t>
+  </si>
+  <si>
+    <t>[2, 2, 0]</t>
+  </si>
+  <si>
+    <t>[3, 1, 0]</t>
+  </si>
+  <si>
+    <t>[2, 2, 2]</t>
   </si>
   <si>
     <t>[1, 1, 0]</t>
   </si>
   <si>
-    <t>[2, 0, 0]</t>
-  </si>
-  <si>
-    <t>[2, 1, 1]</t>
-  </si>
-  <si>
-    <t>[2, 2, 0]</t>
-  </si>
-  <si>
-    <t>[2, 2, 2]</t>
-  </si>
-  <si>
-    <t>[3, 1, 0]</t>
-  </si>
-  <si>
     <t>[3, 2, 1]</t>
-  </si>
-  <si>
-    <t>[4, 0, 0]</t>
   </si>
   <si>
     <t>1Pair-A</t>
@@ -479,13 +509,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AD19"/>
+  <dimension ref="A1:T29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:30">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -543,38 +573,8 @@
       <c r="T1" s="1">
         <v>18</v>
       </c>
-      <c r="U1" s="1">
-        <v>19</v>
-      </c>
-      <c r="V1" s="1">
-        <v>20</v>
-      </c>
-      <c r="W1" s="1">
-        <v>21</v>
-      </c>
-      <c r="X1" s="1">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="1">
-        <v>23</v>
-      </c>
-      <c r="Z1" s="1">
-        <v>24</v>
-      </c>
-      <c r="AA1" s="1">
-        <v>25</v>
-      </c>
-      <c r="AB1" s="1">
-        <v>26</v>
-      </c>
-      <c r="AC1" s="1">
-        <v>27</v>
-      </c>
-      <c r="AD1" s="1">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:30">
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -582,91 +582,61 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="M2" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="N2" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="O2" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="P2" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="Q2" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="R2" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="S2" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="T2" t="s">
-        <v>35</v>
-      </c>
-      <c r="U2" t="s">
-        <v>26</v>
-      </c>
-      <c r="V2" t="s">
-        <v>27</v>
-      </c>
-      <c r="W2" t="s">
-        <v>28</v>
-      </c>
-      <c r="X2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:30">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -674,61 +644,61 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>0.999652158945037</v>
+        <v>1.000141160043223</v>
       </c>
       <c r="D3">
-        <v>1.001440656664685</v>
+        <v>0.9999621522372848</v>
       </c>
       <c r="E3">
-        <v>0.9996329894146511</v>
+        <v>1.000141160043223</v>
       </c>
       <c r="F3">
-        <v>0.999652158945037</v>
+        <v>0.9999693137013419</v>
       </c>
       <c r="G3">
-        <v>0.9990176526660738</v>
+        <v>1.000079295817327</v>
       </c>
       <c r="H3">
-        <v>1.000796798318786</v>
+        <v>0.9998977074377308</v>
       </c>
       <c r="I3">
-        <v>0.999638578565057</v>
+        <v>0.9999693137013419</v>
       </c>
       <c r="J3">
-        <v>1.001440656664685</v>
+        <v>0.999964240360016</v>
       </c>
       <c r="K3">
-        <v>0.999652158945037</v>
+        <v>0.9999693137013419</v>
       </c>
       <c r="L3">
-        <v>0.9996329894146511</v>
+        <v>0.9999621522372848</v>
       </c>
       <c r="M3">
-        <v>1.000536823039668</v>
+        <v>1.000051656140254</v>
       </c>
       <c r="N3">
-        <v>1.000536823039668</v>
+        <v>1.000051656140254</v>
       </c>
       <c r="O3">
-        <v>1.000623481466041</v>
+        <v>1.000060869365945</v>
       </c>
       <c r="P3">
-        <v>1.000241935008124</v>
+        <v>1.000024208660617</v>
       </c>
       <c r="Q3">
-        <v>1.000241935008124</v>
+        <v>1.000024208660617</v>
       </c>
       <c r="R3">
-        <v>1.000094490992353</v>
+        <v>1.000010484920798</v>
       </c>
       <c r="S3">
-        <v>1.000094490992353</v>
+        <v>1.000010484920798</v>
       </c>
       <c r="T3">
-        <v>1.000029805762382</v>
-      </c>
-    </row>
-    <row r="4" spans="1:30">
+        <v>1.000002311599487</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -736,61 +706,61 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>0.999331609761187</v>
+        <v>0.9678268680459725</v>
       </c>
       <c r="D4">
-        <v>1.00277925569002</v>
+        <v>1.008507717233318</v>
       </c>
       <c r="E4">
-        <v>0.9992905048363873</v>
+        <v>0.9678268680459725</v>
       </c>
       <c r="F4">
-        <v>0.999331609761187</v>
+        <v>1.007207301255327</v>
       </c>
       <c r="G4">
-        <v>0.9981001844087679</v>
+        <v>0.9820038248559663</v>
       </c>
       <c r="H4">
-        <v>1.001538103974116</v>
+        <v>1.022934940892523</v>
       </c>
       <c r="I4">
-        <v>0.9993024888820127</v>
+        <v>1.007207301255327</v>
       </c>
       <c r="J4">
-        <v>1.00277925569002</v>
+        <v>1.008128589823047</v>
       </c>
       <c r="K4">
-        <v>0.999331609761187</v>
+        <v>1.007207301255327</v>
       </c>
       <c r="L4">
-        <v>0.9992905048363873</v>
+        <v>1.008507717233318</v>
       </c>
       <c r="M4">
-        <v>1.001034880263203</v>
+        <v>0.9881672926396452</v>
       </c>
       <c r="N4">
-        <v>1.001034880263203</v>
+        <v>0.9881672926396452</v>
       </c>
       <c r="O4">
-        <v>1.001202621500174</v>
+        <v>0.9861128033784189</v>
       </c>
       <c r="P4">
-        <v>1.000467123429198</v>
+        <v>0.9945139621782056</v>
       </c>
       <c r="Q4">
-        <v>1.000467123429198</v>
+        <v>0.9945139621782056</v>
       </c>
       <c r="R4">
-        <v>1.000183245012195</v>
+        <v>0.9976872969474859</v>
       </c>
       <c r="S4">
-        <v>1.000183245012195</v>
+        <v>0.9976872969474859</v>
       </c>
       <c r="T4">
-        <v>1.000057024592082</v>
-      </c>
-    </row>
-    <row r="5" spans="1:30">
+        <v>0.9994348736843587</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -798,61 +768,61 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>0.998709596782976</v>
+        <v>1.013830358753601</v>
       </c>
       <c r="D5">
-        <v>1.005331959282125</v>
+        <v>0.9965784616426537</v>
       </c>
       <c r="E5">
-        <v>0.9986433515599014</v>
+        <v>1.013830358753601</v>
       </c>
       <c r="F5">
-        <v>0.998709596782976</v>
+        <v>0.9964775185878977</v>
       </c>
       <c r="G5">
-        <v>0.9963696544397603</v>
+        <v>1.007583336685882</v>
       </c>
       <c r="H5">
-        <v>1.002947910415362</v>
+        <v>0.9908951238184442</v>
       </c>
       <c r="I5">
-        <v>0.9986626637146876</v>
+        <v>0.9964775185878977</v>
       </c>
       <c r="J5">
-        <v>1.005331959282125</v>
+        <v>0.9965490322190189</v>
       </c>
       <c r="K5">
-        <v>0.998709596782976</v>
+        <v>0.9964775185878977</v>
       </c>
       <c r="L5">
-        <v>0.9986433515599014</v>
+        <v>0.9965784616426537</v>
       </c>
       <c r="M5">
-        <v>1.001987655421013</v>
+        <v>1.005204410198127</v>
       </c>
       <c r="N5">
-        <v>1.001987655421013</v>
+        <v>1.005204410198127</v>
       </c>
       <c r="O5">
-        <v>1.002307740419129</v>
+        <v>1.005997385694045</v>
       </c>
       <c r="P5">
-        <v>1.000894969208334</v>
+        <v>1.002295446328051</v>
       </c>
       <c r="Q5">
-        <v>1.000894969208334</v>
+        <v>1.002295446328051</v>
       </c>
       <c r="R5">
-        <v>1.000348626101994</v>
+        <v>1.000840964393013</v>
       </c>
       <c r="S5">
-        <v>1.000348626101994</v>
+        <v>1.000840964393013</v>
       </c>
       <c r="T5">
-        <v>1.000110856032469</v>
-      </c>
-    </row>
-    <row r="6" spans="1:30">
+        <v>1.00031897195125</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -860,61 +830,61 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>0.9981035948921796</v>
+        <v>1.051254836535188</v>
       </c>
       <c r="D6">
-        <v>1.007822615815993</v>
+        <v>0.9874728754740056</v>
       </c>
       <c r="E6">
-        <v>0.9980114206304025</v>
+        <v>1.051254836535188</v>
       </c>
       <c r="F6">
-        <v>0.9981035948921796</v>
+        <v>0.986670452657166</v>
       </c>
       <c r="G6">
-        <v>0.9946795793665034</v>
+        <v>1.028004459646739</v>
       </c>
       <c r="H6">
-        <v>1.004323773557547</v>
+        <v>0.966747172701952</v>
       </c>
       <c r="I6">
-        <v>0.9980382994195934</v>
+        <v>0.986670452657166</v>
       </c>
       <c r="J6">
-        <v>1.007822615815993</v>
+        <v>0.9872389306106817</v>
       </c>
       <c r="K6">
-        <v>0.9981035948921796</v>
+        <v>0.986670452657166</v>
       </c>
       <c r="L6">
-        <v>0.9980114206304025</v>
+        <v>0.9874728754740056</v>
       </c>
       <c r="M6">
-        <v>1.002917018223198</v>
+        <v>1.019363856004597</v>
       </c>
       <c r="N6">
-        <v>1.002917018223198</v>
+        <v>1.019363856004597</v>
       </c>
       <c r="O6">
-        <v>1.003385936667981</v>
+        <v>1.022244057218644</v>
       </c>
       <c r="P6">
-        <v>1.001312543779525</v>
+        <v>1.008466054888786</v>
       </c>
       <c r="Q6">
-        <v>1.001312543779525</v>
+        <v>1.008466054888786</v>
       </c>
       <c r="R6">
-        <v>1.000510306557689</v>
+        <v>1.003017154330881</v>
       </c>
       <c r="S6">
-        <v>1.000510306557689</v>
+        <v>1.003017154330881</v>
       </c>
       <c r="T6">
-        <v>1.000163213947036</v>
-      </c>
-    </row>
-    <row r="7" spans="1:30">
+        <v>1.001231454604289</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -922,61 +892,61 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0.9999798612152543</v>
+        <v>1.001125612393981</v>
       </c>
       <c r="D7">
-        <v>1.000082962137398</v>
+        <v>0.9996942614253116</v>
       </c>
       <c r="E7">
-        <v>0.9999789251420766</v>
+        <v>1.001125612393981</v>
       </c>
       <c r="F7">
-        <v>0.9999798612152543</v>
+        <v>0.999762400265704</v>
       </c>
       <c r="G7">
-        <v>0.999943621007699</v>
+        <v>1.000634856916818</v>
       </c>
       <c r="H7">
-        <v>1.000045846040291</v>
+        <v>0.9991717164208076</v>
       </c>
       <c r="I7">
-        <v>0.9999791983372877</v>
+        <v>0.999762400265704</v>
       </c>
       <c r="J7">
-        <v>1.000082962137398</v>
+        <v>0.999714127342574</v>
       </c>
       <c r="K7">
-        <v>0.9999798612152543</v>
+        <v>0.999762400265704</v>
       </c>
       <c r="L7">
-        <v>0.9999789251420766</v>
+        <v>0.9996942614253116</v>
       </c>
       <c r="M7">
-        <v>1.000030943639737</v>
+        <v>1.000409936909646</v>
       </c>
       <c r="N7">
-        <v>1.000030943639737</v>
+        <v>1.000409936909646</v>
       </c>
       <c r="O7">
-        <v>1.000035911106589</v>
+        <v>1.00048491024537</v>
       </c>
       <c r="P7">
-        <v>1.00001391616491</v>
+        <v>1.000194091361665</v>
       </c>
       <c r="Q7">
-        <v>1.00001391616491</v>
+        <v>1.000194091361665</v>
       </c>
       <c r="R7">
-        <v>1.000005402427496</v>
+        <v>1.000086168587675</v>
       </c>
       <c r="S7">
-        <v>1.000005402427496</v>
+        <v>1.000086168587675</v>
       </c>
       <c r="T7">
-        <v>1.000001735646668</v>
-      </c>
-    </row>
-    <row r="8" spans="1:30">
+        <v>1.000017162460866</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -984,61 +954,61 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>0.9999693137013419</v>
+        <v>1.000110383002925</v>
       </c>
       <c r="D8">
-        <v>1.000141160043223</v>
+        <v>0.9999598860991789</v>
       </c>
       <c r="E8">
-        <v>0.9999621522372849</v>
+        <v>1.000110383002925</v>
       </c>
       <c r="F8">
-        <v>0.9999693137013419</v>
+        <v>0.9999949364040704</v>
       </c>
       <c r="G8">
-        <v>0.9998977074377305</v>
+        <v>1.000068822874185</v>
       </c>
       <c r="H8">
-        <v>1.000079295817327</v>
+        <v>0.9998863527995148</v>
       </c>
       <c r="I8">
-        <v>0.9999642403600156</v>
+        <v>0.9999949364040704</v>
       </c>
       <c r="J8">
-        <v>1.000141160043223</v>
+        <v>0.9999701053432549</v>
       </c>
       <c r="K8">
-        <v>0.9999693137013419</v>
+        <v>0.9999949364040704</v>
       </c>
       <c r="L8">
-        <v>0.9999621522372849</v>
+        <v>0.9999598860991789</v>
       </c>
       <c r="M8">
-        <v>1.000051656140254</v>
+        <v>1.000035134551052</v>
       </c>
       <c r="N8">
-        <v>1.000051656140254</v>
+        <v>1.000035134551052</v>
       </c>
       <c r="O8">
-        <v>1.000060869365945</v>
+        <v>1.000046363992096</v>
       </c>
       <c r="P8">
-        <v>1.000024208660617</v>
+        <v>1.000021735168725</v>
       </c>
       <c r="Q8">
-        <v>1.000024208660617</v>
+        <v>1.000021735168725</v>
       </c>
       <c r="R8">
-        <v>1.000010484920798</v>
+        <v>1.000015035477561</v>
       </c>
       <c r="S8">
-        <v>1.000010484920798</v>
+        <v>1.000015035477561</v>
       </c>
       <c r="T8">
-        <v>1.000002311599487</v>
-      </c>
-    </row>
-    <row r="9" spans="1:30">
+        <v>0.9999984144205216</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1046,61 +1016,61 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>0.999968720494125</v>
+        <v>1.00277925569002</v>
       </c>
       <c r="D9">
-        <v>1.000175932528203</v>
+        <v>0.9992905048363873</v>
       </c>
       <c r="E9">
-        <v>0.9999489595445396</v>
+        <v>1.00277925569002</v>
       </c>
       <c r="F9">
-        <v>0.999968720494125</v>
+        <v>0.9993316097611866</v>
       </c>
       <c r="G9">
-        <v>0.9998601257692979</v>
+        <v>1.001538103974116</v>
       </c>
       <c r="H9">
-        <v>1.000101337006856</v>
+        <v>0.9981001844087679</v>
       </c>
       <c r="I9">
-        <v>0.9999547206026016</v>
+        <v>0.9993316097611866</v>
       </c>
       <c r="J9">
-        <v>1.000175932528203</v>
+        <v>0.9993024888820127</v>
       </c>
       <c r="K9">
-        <v>0.999968720494125</v>
+        <v>0.9993316097611866</v>
       </c>
       <c r="L9">
-        <v>0.9999489595445396</v>
+        <v>0.9992905048363873</v>
       </c>
       <c r="M9">
-        <v>1.000062446036371</v>
+        <v>1.001034880263203</v>
       </c>
       <c r="N9">
-        <v>1.000062446036371</v>
+        <v>1.001034880263203</v>
       </c>
       <c r="O9">
-        <v>1.0000754096932</v>
+        <v>1.001202621500174</v>
       </c>
       <c r="P9">
-        <v>1.000031204188956</v>
+        <v>1.000467123429198</v>
       </c>
       <c r="Q9">
-        <v>1.000031204188956</v>
+        <v>1.000467123429198</v>
       </c>
       <c r="R9">
-        <v>1.000015583265248</v>
+        <v>1.000183245012195</v>
       </c>
       <c r="S9">
-        <v>1.000015583265248</v>
+        <v>1.000183245012195</v>
       </c>
       <c r="T9">
-        <v>1.000001632657604</v>
-      </c>
-    </row>
-    <row r="10" spans="1:30">
+        <v>1.000057024592082</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1108,61 +1078,61 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.9999185149567772</v>
+        <v>1.052026388198939</v>
       </c>
       <c r="D10">
-        <v>1.00040542174895</v>
+        <v>0.9872889493575842</v>
       </c>
       <c r="E10">
-        <v>0.9998876055947807</v>
+        <v>1.052026388198939</v>
       </c>
       <c r="F10">
-        <v>0.9999185149567772</v>
+        <v>0.986461433806001</v>
       </c>
       <c r="G10">
-        <v>0.9996943934415189</v>
+        <v>1.028423005821537</v>
       </c>
       <c r="H10">
-        <v>1.000230134531167</v>
+        <v>0.9662614826151651</v>
       </c>
       <c r="I10">
-        <v>0.9998966187473555</v>
+        <v>0.986461433806001</v>
       </c>
       <c r="J10">
-        <v>1.00040542174895</v>
+        <v>0.9870476887653156</v>
       </c>
       <c r="K10">
-        <v>0.9999185149567772</v>
+        <v>0.986461433806001</v>
       </c>
       <c r="L10">
-        <v>0.9998876055947807</v>
+        <v>0.9872889493575842</v>
       </c>
       <c r="M10">
-        <v>1.000146513671865</v>
+        <v>1.019657668778261</v>
       </c>
       <c r="N10">
-        <v>1.000146513671865</v>
+        <v>1.019657668778261</v>
       </c>
       <c r="O10">
-        <v>1.000174387291633</v>
+        <v>1.022579447792687</v>
       </c>
       <c r="P10">
-        <v>1.000070514100169</v>
+        <v>1.008592257120841</v>
       </c>
       <c r="Q10">
-        <v>1.000070514100169</v>
+        <v>1.008592257120841</v>
       </c>
       <c r="R10">
-        <v>1.000032514314321</v>
+        <v>1.003059551292131</v>
       </c>
       <c r="S10">
-        <v>1.000032514314321</v>
+        <v>1.003059551292131</v>
       </c>
       <c r="T10">
-        <v>1.000005448170092</v>
-      </c>
-    </row>
-    <row r="11" spans="1:30">
+        <v>1.001251491427424</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1170,61 +1140,61 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>0.9999100076221301</v>
+        <v>0.9743363209120774</v>
       </c>
       <c r="D11">
-        <v>1.000576333919858</v>
+        <v>1.006765087494148</v>
       </c>
       <c r="E11">
-        <v>0.9998258651179539</v>
+        <v>0.9743363209120774</v>
       </c>
       <c r="F11">
-        <v>0.9999100076221301</v>
+        <v>1.00578741962373</v>
       </c>
       <c r="G11">
-        <v>0.9995196102836081</v>
+        <v>0.9856587170142364</v>
       </c>
       <c r="H11">
-        <v>1.000336457140164</v>
+        <v>1.018226452601121</v>
       </c>
       <c r="I11">
-        <v>0.9998503969998305</v>
+        <v>1.00578741962373</v>
       </c>
       <c r="J11">
-        <v>1.000576333919858</v>
+        <v>1.00648005611671</v>
       </c>
       <c r="K11">
-        <v>0.9999100076221301</v>
+        <v>1.00578741962373</v>
       </c>
       <c r="L11">
-        <v>0.9998258651179539</v>
+        <v>1.006765087494148</v>
       </c>
       <c r="M11">
-        <v>1.000201099518906</v>
+        <v>0.9905507042031128</v>
       </c>
       <c r="N11">
-        <v>1.000201099518906</v>
+        <v>0.9905507042031128</v>
       </c>
       <c r="O11">
-        <v>1.000246218725992</v>
+        <v>0.9889200418068206</v>
       </c>
       <c r="P11">
-        <v>1.000104068886648</v>
+        <v>0.9956296093433185</v>
       </c>
       <c r="Q11">
-        <v>1.000104068886648</v>
+        <v>0.9956296093433185</v>
       </c>
       <c r="R11">
-        <v>1.000055553570518</v>
+        <v>0.9981690619134214</v>
       </c>
       <c r="S11">
-        <v>1.000055553570518</v>
+        <v>0.9981690619134214</v>
       </c>
       <c r="T11">
-        <v>1.000003111847257</v>
-      </c>
-    </row>
-    <row r="12" spans="1:30">
+        <v>0.9995423422936702</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1232,61 +1202,61 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.9993872490284592</v>
+        <v>1.014479911621051</v>
       </c>
       <c r="D12">
-        <v>1.0052562732314</v>
+        <v>0.9964536134736858</v>
       </c>
       <c r="E12">
-        <v>0.9982963136392012</v>
+        <v>1.014479911621051</v>
       </c>
       <c r="F12">
-        <v>0.9993872490284592</v>
+        <v>0.9962475592210522</v>
       </c>
       <c r="G12">
-        <v>0.99524903541193</v>
+        <v>1.007916265800001</v>
       </c>
       <c r="H12">
-        <v>1.003143426185144</v>
+        <v>0.9905822149894725</v>
       </c>
       <c r="I12">
-        <v>0.998614362427763</v>
+        <v>0.9962475592210522</v>
       </c>
       <c r="J12">
-        <v>1.0052562732314</v>
+        <v>0.9963935388631585</v>
       </c>
       <c r="K12">
-        <v>0.9993872490284592</v>
+        <v>0.9962475592210522</v>
       </c>
       <c r="L12">
-        <v>0.9982963136392012</v>
+        <v>0.9964536134736858</v>
       </c>
       <c r="M12">
-        <v>1.001776293435301</v>
+        <v>1.005466762547368</v>
       </c>
       <c r="N12">
-        <v>1.001776293435301</v>
+        <v>1.005466762547368</v>
       </c>
       <c r="O12">
-        <v>1.002232004351915</v>
+        <v>1.006283263631579</v>
       </c>
       <c r="P12">
-        <v>1.000979945299687</v>
+        <v>1.00239369477193</v>
       </c>
       <c r="Q12">
-        <v>1.000979945299687</v>
+        <v>1.00239369477193</v>
       </c>
       <c r="R12">
-        <v>1.00058177123188</v>
+        <v>1.00085716088421</v>
       </c>
       <c r="S12">
-        <v>1.00058177123188</v>
+        <v>1.00085716088421</v>
       </c>
       <c r="T12">
-        <v>0.9999911099873162</v>
-      </c>
-    </row>
-    <row r="13" spans="1:30">
+        <v>1.00034551732807</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1294,61 +1264,61 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.9992690280480535</v>
+        <v>0.9898505006392723</v>
       </c>
       <c r="D13">
-        <v>1.001743561289196</v>
+        <v>1.002542442438144</v>
       </c>
       <c r="E13">
-        <v>0.9997280433451544</v>
+        <v>0.9898505006392723</v>
       </c>
       <c r="F13">
-        <v>0.9992690280480535</v>
+        <v>1.002528252519415</v>
       </c>
       <c r="G13">
-        <v>0.999362208658366</v>
+        <v>0.9944144931968109</v>
       </c>
       <c r="H13">
-        <v>1.000852732511416</v>
+        <v>1.006782547611529</v>
       </c>
       <c r="I13">
-        <v>0.9995942215377136</v>
+        <v>1.002528252519415</v>
       </c>
       <c r="J13">
-        <v>1.001743561289196</v>
+        <v>1.002538304967924</v>
       </c>
       <c r="K13">
-        <v>0.9992690280480535</v>
+        <v>1.002528252519415</v>
       </c>
       <c r="L13">
-        <v>0.9997280433451544</v>
+        <v>1.002542442438144</v>
       </c>
       <c r="M13">
-        <v>1.000735802317175</v>
+        <v>0.9961964715387084</v>
       </c>
       <c r="N13">
-        <v>1.000735802317175</v>
+        <v>0.9961964715387084</v>
       </c>
       <c r="O13">
-        <v>1.000774779048589</v>
+        <v>0.9956024787580758</v>
       </c>
       <c r="P13">
-        <v>1.000246877560801</v>
+        <v>0.998307065198944</v>
       </c>
       <c r="Q13">
-        <v>1.000246877560801</v>
+        <v>0.998307065198944</v>
       </c>
       <c r="R13">
-        <v>1.000002415182614</v>
+        <v>0.9993623620290617</v>
       </c>
       <c r="S13">
-        <v>1.000002415182614</v>
+        <v>0.9993623620290617</v>
       </c>
       <c r="T13">
-        <v>1.000091632564983</v>
-      </c>
-    </row>
-    <row r="14" spans="1:30">
+        <v>0.9997760902288494</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1356,61 +1326,61 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.9854696913620739</v>
+        <v>1.0899016</v>
       </c>
       <c r="D14">
-        <v>1.039289294417931</v>
+        <v>0.9780468100000005</v>
       </c>
       <c r="E14">
-        <v>0.9927932194916829</v>
+        <v>1.0899016</v>
       </c>
       <c r="F14">
-        <v>0.9854696913620739</v>
+        <v>0.9765846500000002</v>
       </c>
       <c r="G14">
-        <v>0.9821768793969508</v>
+        <v>1.0491075</v>
       </c>
       <c r="H14">
-        <v>1.019914237773837</v>
+        <v>0.9417366599999986</v>
       </c>
       <c r="I14">
-        <v>0.9906580803834244</v>
+        <v>0.9765846500000002</v>
       </c>
       <c r="J14">
-        <v>1.039289294417931</v>
+        <v>0.9776205200000008</v>
       </c>
       <c r="K14">
-        <v>0.9854696913620739</v>
+        <v>0.9765846500000002</v>
       </c>
       <c r="L14">
-        <v>0.9927932194916829</v>
+        <v>0.9780468100000005</v>
       </c>
       <c r="M14">
-        <v>1.016041256954807</v>
+        <v>1.033974205</v>
       </c>
       <c r="N14">
-        <v>1.016041256954807</v>
+        <v>1.033974205</v>
       </c>
       <c r="O14">
-        <v>1.01733225056115</v>
+        <v>1.039018636666667</v>
       </c>
       <c r="P14">
-        <v>1.005850735090563</v>
+        <v>1.014844353333334</v>
       </c>
       <c r="Q14">
-        <v>1.005850735090563</v>
+        <v>1.014844353333334</v>
       </c>
       <c r="R14">
-        <v>1.00075547415844</v>
+        <v>1.0052794275</v>
       </c>
       <c r="S14">
-        <v>1.00075547415844</v>
+        <v>1.0052794275</v>
       </c>
       <c r="T14">
-        <v>1.001716900470983</v>
-      </c>
-    </row>
-    <row r="15" spans="1:30">
+        <v>1.00216629</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1418,61 +1388,61 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.9998289261027201</v>
+        <v>0.88779747</v>
       </c>
       <c r="D15">
-        <v>1.008413665126355</v>
+        <v>1.0216333</v>
       </c>
       <c r="E15">
-        <v>0.9968230549124885</v>
+        <v>0.88779747</v>
       </c>
       <c r="F15">
-        <v>0.9998289261027201</v>
+        <v>1.0396018</v>
       </c>
       <c r="G15">
-        <v>0.990955599828272</v>
+        <v>0.94244704</v>
       </c>
       <c r="H15">
-        <v>1.00532315552624</v>
+        <v>1.0542662</v>
       </c>
       <c r="I15">
-        <v>0.9976994048583242</v>
+        <v>1.0396018</v>
       </c>
       <c r="J15">
-        <v>1.008413665126355</v>
+        <v>1.0268719</v>
       </c>
       <c r="K15">
-        <v>0.9998289261027201</v>
+        <v>1.0396018</v>
       </c>
       <c r="L15">
-        <v>0.9968230549124885</v>
+        <v>1.0216333</v>
       </c>
       <c r="M15">
-        <v>1.002618360019422</v>
+        <v>0.954715385</v>
       </c>
       <c r="N15">
-        <v>1.002618360019422</v>
+        <v>0.954715385</v>
       </c>
       <c r="O15">
-        <v>1.003519958521694</v>
+        <v>0.9506259366666666</v>
       </c>
       <c r="P15">
-        <v>1.001688548713854</v>
+        <v>0.9830108566666667</v>
       </c>
       <c r="Q15">
-        <v>1.001688548713854</v>
+        <v>0.9830108566666667</v>
       </c>
       <c r="R15">
-        <v>1.001223643061071</v>
+        <v>0.9971585924999999</v>
       </c>
       <c r="S15">
-        <v>1.001223643061071</v>
+        <v>0.9971585924999999</v>
       </c>
       <c r="T15">
-        <v>0.9998406343923999</v>
-      </c>
-    </row>
-    <row r="16" spans="1:30">
+        <v>0.9954362849999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1480,58 +1450,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.9999794886781379</v>
+        <v>0.76511908</v>
       </c>
       <c r="D16">
-        <v>1.00001768597576</v>
+        <v>1.0634404</v>
       </c>
       <c r="E16">
-        <v>1.000004517227747</v>
+        <v>0.76511908</v>
       </c>
       <c r="F16">
-        <v>0.9999794886781379</v>
+        <v>1.0502239</v>
       </c>
       <c r="G16">
-        <v>1.000016812046495</v>
+        <v>0.86775682</v>
       </c>
       <c r="H16">
-        <v>1.000003935496559</v>
+        <v>1.1716919</v>
       </c>
       <c r="I16">
-        <v>0.9999972206472949</v>
+        <v>1.0502239</v>
       </c>
       <c r="J16">
-        <v>1.00001768597576</v>
+        <v>1.0595872</v>
       </c>
       <c r="K16">
-        <v>0.9999794886781379</v>
+        <v>1.0502239</v>
       </c>
       <c r="L16">
-        <v>1.000004517227747</v>
+        <v>1.0634404</v>
       </c>
       <c r="M16">
-        <v>1.000011101601754</v>
+        <v>0.91427974</v>
       </c>
       <c r="N16">
-        <v>1.000011101601754</v>
+        <v>0.91427974</v>
       </c>
       <c r="O16">
-        <v>1.000008712900022</v>
+        <v>0.8987721</v>
       </c>
       <c r="P16">
-        <v>1.000000563960548</v>
+        <v>0.9595944599999999</v>
       </c>
       <c r="Q16">
-        <v>1.000000563960548</v>
+        <v>0.9595944599999999</v>
       </c>
       <c r="R16">
-        <v>0.9999952951399458</v>
+        <v>0.9822518199999999</v>
       </c>
       <c r="S16">
-        <v>0.9999952951399458</v>
+        <v>0.9822518199999999</v>
       </c>
       <c r="T16">
-        <v>1.000003276678666</v>
+        <v>0.9963032166666665</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1542,58 +1512,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.9999949364040704</v>
+        <v>0.8944530000000001</v>
       </c>
       <c r="D17">
-        <v>1.000110383002925</v>
+        <v>1.0244392</v>
       </c>
       <c r="E17">
-        <v>0.999959886099179</v>
+        <v>0.8944530000000001</v>
       </c>
       <c r="F17">
-        <v>0.9999949364040704</v>
+        <v>1.0298924</v>
       </c>
       <c r="G17">
-        <v>0.9998863527995148</v>
+        <v>0.94321119</v>
       </c>
       <c r="H17">
-        <v>1.000068822874185</v>
+        <v>1.0641324</v>
       </c>
       <c r="I17">
-        <v>0.9999701053432549</v>
+        <v>1.0298924</v>
       </c>
       <c r="J17">
-        <v>1.000110383002925</v>
+        <v>1.026029</v>
       </c>
       <c r="K17">
-        <v>0.9999949364040704</v>
+        <v>1.0298924</v>
       </c>
       <c r="L17">
-        <v>0.999959886099179</v>
+        <v>1.0244392</v>
       </c>
       <c r="M17">
-        <v>1.000035134551052</v>
+        <v>0.9594461000000001</v>
       </c>
       <c r="N17">
-        <v>1.000035134551052</v>
+        <v>0.9594461000000001</v>
       </c>
       <c r="O17">
-        <v>1.000046363992096</v>
+        <v>0.9540344633333334</v>
       </c>
       <c r="P17">
-        <v>1.000021735168725</v>
+        <v>0.9829282</v>
       </c>
       <c r="Q17">
-        <v>1.000021735168725</v>
+        <v>0.9829281999999999</v>
       </c>
       <c r="R17">
-        <v>1.000015035477561</v>
+        <v>0.9946692499999999</v>
       </c>
       <c r="S17">
-        <v>1.000015035477561</v>
+        <v>0.9946692499999999</v>
       </c>
       <c r="T17">
-        <v>0.9999984144205215</v>
+        <v>0.9970261983333333</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1604,58 +1574,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>0.9998384456293257</v>
+        <v>1.031250700958904</v>
       </c>
       <c r="D18">
-        <v>1.000477078966855</v>
+        <v>0.9919384654794521</v>
       </c>
       <c r="E18">
-        <v>0.9999042225068242</v>
+        <v>1.031250700958904</v>
       </c>
       <c r="F18">
-        <v>0.9998384456293257</v>
+        <v>0.9926352668493147</v>
       </c>
       <c r="G18">
-        <v>0.999757121420389</v>
+        <v>1.017349147945206</v>
       </c>
       <c r="H18">
-        <v>1.00024716973948</v>
+        <v>0.9783698504109586</v>
       </c>
       <c r="I18">
-        <v>0.9998850465441442</v>
+        <v>0.9926352668493147</v>
       </c>
       <c r="J18">
-        <v>1.000477078966855</v>
+        <v>0.9921416117808219</v>
       </c>
       <c r="K18">
-        <v>0.9998384456293257</v>
+        <v>0.9926352668493147</v>
       </c>
       <c r="L18">
-        <v>0.9999042225068242</v>
+        <v>0.9919384654794521</v>
       </c>
       <c r="M18">
-        <v>1.00019065073684</v>
+        <v>1.011594583219178</v>
       </c>
       <c r="N18">
-        <v>1.00019065073684</v>
+        <v>1.011594583219178</v>
       </c>
       <c r="O18">
-        <v>1.000209490404387</v>
+        <v>1.013512771461188</v>
       </c>
       <c r="P18">
-        <v>1.000073249034335</v>
+        <v>1.00527481109589</v>
       </c>
       <c r="Q18">
-        <v>1.000073249034335</v>
+        <v>1.00527481109589</v>
       </c>
       <c r="R18">
-        <v>1.000014548183083</v>
+        <v>1.002114925034246</v>
       </c>
       <c r="S18">
-        <v>1.000014548183083</v>
+        <v>1.002114925034246</v>
       </c>
       <c r="T18">
-        <v>1.00001818080117</v>
+        <v>1.000614173904109</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1666,58 +1636,678 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>0.9995374037412947</v>
+        <v>0.9617949389473682</v>
       </c>
       <c r="D19">
-        <v>1.00116941720798</v>
+        <v>1.011589086842105</v>
       </c>
       <c r="E19">
-        <v>0.9998022255468826</v>
+        <v>0.9617949389473682</v>
       </c>
       <c r="F19">
-        <v>0.9995374037412947</v>
+        <v>1.005883181052632</v>
       </c>
       <c r="G19">
-        <v>0.9995230419234286</v>
+        <v>0.9776667047368423</v>
       </c>
       <c r="H19">
-        <v>1.000581895104555</v>
+        <v>1.031991082631579</v>
       </c>
       <c r="I19">
-        <v>0.9997250170101267</v>
+        <v>1.005883181052632</v>
       </c>
       <c r="J19">
-        <v>1.00116941720798</v>
+        <v>1.009925559473684</v>
       </c>
       <c r="K19">
-        <v>0.9995374037412947</v>
+        <v>1.005883181052632</v>
       </c>
       <c r="L19">
-        <v>0.9998022255468826</v>
+        <v>1.011589086842105</v>
       </c>
       <c r="M19">
-        <v>1.000485821377431</v>
+        <v>0.9866920128947367</v>
       </c>
       <c r="N19">
-        <v>1.000485821377431</v>
+        <v>0.9866920128947367</v>
       </c>
       <c r="O19">
-        <v>1.000517845953139</v>
+        <v>0.9836835768421053</v>
       </c>
       <c r="P19">
-        <v>1.000169682165386</v>
+        <v>0.9930890689473685</v>
       </c>
       <c r="Q19">
-        <v>1.000169682165386</v>
+        <v>0.9930890689473685</v>
       </c>
       <c r="R19">
-        <v>1.000011612559363</v>
+        <v>0.9962875969736843</v>
       </c>
       <c r="S19">
-        <v>1.000011612559363</v>
+        <v>0.9962875969736843</v>
       </c>
       <c r="T19">
-        <v>1.000056500089044</v>
+        <v>0.999808425614035</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>0.911944017368421</v>
+      </c>
+      <c r="D20">
+        <v>1.020461439473684</v>
+      </c>
+      <c r="E20">
+        <v>0.911944017368421</v>
+      </c>
+      <c r="F20">
+        <v>1.024808592105263</v>
+      </c>
+      <c r="G20">
+        <v>0.9525752694736843</v>
+      </c>
+      <c r="H20">
+        <v>1.053735803157895</v>
+      </c>
+      <c r="I20">
+        <v>1.024808592105263</v>
+      </c>
+      <c r="J20">
+        <v>1.021728843157895</v>
+      </c>
+      <c r="K20">
+        <v>1.024808592105263</v>
+      </c>
+      <c r="L20">
+        <v>1.020461439473684</v>
+      </c>
+      <c r="M20">
+        <v>0.9662027284210526</v>
+      </c>
+      <c r="N20">
+        <v>0.9662027284210526</v>
+      </c>
+      <c r="O20">
+        <v>0.9616602421052631</v>
+      </c>
+      <c r="P20">
+        <v>0.9857380163157895</v>
+      </c>
+      <c r="Q20">
+        <v>0.9857380163157895</v>
+      </c>
+      <c r="R20">
+        <v>0.9955056602631579</v>
+      </c>
+      <c r="S20">
+        <v>0.9955056602631579</v>
+      </c>
+      <c r="T20">
+        <v>0.9975423274561402</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <v>1.039289294417931</v>
+      </c>
+      <c r="D21">
+        <v>0.992793219491683</v>
+      </c>
+      <c r="E21">
+        <v>1.039289294417931</v>
+      </c>
+      <c r="F21">
+        <v>0.9854696913620739</v>
+      </c>
+      <c r="G21">
+        <v>1.019914237773837</v>
+      </c>
+      <c r="H21">
+        <v>0.9821768793969508</v>
+      </c>
+      <c r="I21">
+        <v>0.9854696913620739</v>
+      </c>
+      <c r="J21">
+        <v>0.9906580803834244</v>
+      </c>
+      <c r="K21">
+        <v>0.9854696913620739</v>
+      </c>
+      <c r="L21">
+        <v>0.992793219491683</v>
+      </c>
+      <c r="M21">
+        <v>1.016041256954807</v>
+      </c>
+      <c r="N21">
+        <v>1.016041256954807</v>
+      </c>
+      <c r="O21">
+        <v>1.01733225056115</v>
+      </c>
+      <c r="P21">
+        <v>1.005850735090563</v>
+      </c>
+      <c r="Q21">
+        <v>1.005850735090563</v>
+      </c>
+      <c r="R21">
+        <v>1.00075547415844</v>
+      </c>
+      <c r="S21">
+        <v>1.00075547415844</v>
+      </c>
+      <c r="T21">
+        <v>1.001716900470983</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>1.008413665126355</v>
+      </c>
+      <c r="D22">
+        <v>0.9968230549124885</v>
+      </c>
+      <c r="E22">
+        <v>1.008413665126355</v>
+      </c>
+      <c r="F22">
+        <v>0.9998289261027201</v>
+      </c>
+      <c r="G22">
+        <v>1.00532315552624</v>
+      </c>
+      <c r="H22">
+        <v>0.990955599828272</v>
+      </c>
+      <c r="I22">
+        <v>0.9998289261027201</v>
+      </c>
+      <c r="J22">
+        <v>0.9976994048583242</v>
+      </c>
+      <c r="K22">
+        <v>0.9998289261027201</v>
+      </c>
+      <c r="L22">
+        <v>0.9968230549124885</v>
+      </c>
+      <c r="M22">
+        <v>1.002618360019422</v>
+      </c>
+      <c r="N22">
+        <v>1.002618360019422</v>
+      </c>
+      <c r="O22">
+        <v>1.003519958521694</v>
+      </c>
+      <c r="P22">
+        <v>1.001688548713854</v>
+      </c>
+      <c r="Q22">
+        <v>1.001688548713854</v>
+      </c>
+      <c r="R22">
+        <v>1.001223643061071</v>
+      </c>
+      <c r="S22">
+        <v>1.001223643061071</v>
+      </c>
+      <c r="T22">
+        <v>0.9998406343923999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23">
+        <v>1.0052562732314</v>
+      </c>
+      <c r="D23">
+        <v>0.9982963136392016</v>
+      </c>
+      <c r="E23">
+        <v>1.0052562732314</v>
+      </c>
+      <c r="F23">
+        <v>0.9993872490284592</v>
+      </c>
+      <c r="G23">
+        <v>1.003143426185144</v>
+      </c>
+      <c r="H23">
+        <v>0.99524903541193</v>
+      </c>
+      <c r="I23">
+        <v>0.9993872490284592</v>
+      </c>
+      <c r="J23">
+        <v>0.998614362427763</v>
+      </c>
+      <c r="K23">
+        <v>0.9993872490284592</v>
+      </c>
+      <c r="L23">
+        <v>0.9982963136392016</v>
+      </c>
+      <c r="M23">
+        <v>1.001776293435301</v>
+      </c>
+      <c r="N23">
+        <v>1.001776293435301</v>
+      </c>
+      <c r="O23">
+        <v>1.002232004351915</v>
+      </c>
+      <c r="P23">
+        <v>1.000979945299687</v>
+      </c>
+      <c r="Q23">
+        <v>1.000979945299687</v>
+      </c>
+      <c r="R23">
+        <v>1.00058177123188</v>
+      </c>
+      <c r="S23">
+        <v>1.00058177123188</v>
+      </c>
+      <c r="T23">
+        <v>0.9999911099873163</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24">
+        <v>1.001743561289196</v>
+      </c>
+      <c r="D24">
+        <v>0.9997280433451545</v>
+      </c>
+      <c r="E24">
+        <v>1.001743561289196</v>
+      </c>
+      <c r="F24">
+        <v>0.9992690280480536</v>
+      </c>
+      <c r="G24">
+        <v>1.000852732511416</v>
+      </c>
+      <c r="H24">
+        <v>0.999362208658366</v>
+      </c>
+      <c r="I24">
+        <v>0.9992690280480536</v>
+      </c>
+      <c r="J24">
+        <v>0.9995942215377136</v>
+      </c>
+      <c r="K24">
+        <v>0.9992690280480536</v>
+      </c>
+      <c r="L24">
+        <v>0.9997280433451545</v>
+      </c>
+      <c r="M24">
+        <v>1.000735802317175</v>
+      </c>
+      <c r="N24">
+        <v>1.000735802317175</v>
+      </c>
+      <c r="O24">
+        <v>1.000774779048589</v>
+      </c>
+      <c r="P24">
+        <v>1.000246877560801</v>
+      </c>
+      <c r="Q24">
+        <v>1.000246877560801</v>
+      </c>
+      <c r="R24">
+        <v>1.000002415182614</v>
+      </c>
+      <c r="S24">
+        <v>1.000002415182614</v>
+      </c>
+      <c r="T24">
+        <v>1.000091632564983</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <v>0.902800191232748</v>
+      </c>
+      <c r="D25">
+        <v>1.021981818722695</v>
+      </c>
+      <c r="E25">
+        <v>0.902800191232748</v>
+      </c>
+      <c r="F25">
+        <v>1.028472587266019</v>
+      </c>
+      <c r="G25">
+        <v>0.948042254967064</v>
+      </c>
+      <c r="H25">
+        <v>1.05738184969474</v>
+      </c>
+      <c r="I25">
+        <v>1.028472587266019</v>
+      </c>
+      <c r="J25">
+        <v>1.023874178930763</v>
+      </c>
+      <c r="K25">
+        <v>1.028472587266019</v>
+      </c>
+      <c r="L25">
+        <v>1.021981818722695</v>
+      </c>
+      <c r="M25">
+        <v>0.9623910049777216</v>
+      </c>
+      <c r="N25">
+        <v>0.9623910049777216</v>
+      </c>
+      <c r="O25">
+        <v>0.9576080883075023</v>
+      </c>
+      <c r="P25">
+        <v>0.9844181990738208</v>
+      </c>
+      <c r="Q25">
+        <v>0.9844181990738208</v>
+      </c>
+      <c r="R25">
+        <v>0.9954317961218704</v>
+      </c>
+      <c r="S25">
+        <v>0.9954317961218704</v>
+      </c>
+      <c r="T25">
+        <v>0.9970921468023385</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <v>0.9762938184594367</v>
+      </c>
+      <c r="D26">
+        <v>1.006877960221159</v>
+      </c>
+      <c r="E26">
+        <v>0.9762938184594367</v>
+      </c>
+      <c r="F26">
+        <v>1.004214012425665</v>
+      </c>
+      <c r="G26">
+        <v>0.9863450898815773</v>
+      </c>
+      <c r="H26">
+        <v>1.01884861084529</v>
+      </c>
+      <c r="I26">
+        <v>1.004214012425665</v>
+      </c>
+      <c r="J26">
+        <v>1.006101290492295</v>
+      </c>
+      <c r="K26">
+        <v>1.004214012425665</v>
+      </c>
+      <c r="L26">
+        <v>1.006877960221159</v>
+      </c>
+      <c r="M26">
+        <v>0.9915858893402979</v>
+      </c>
+      <c r="N26">
+        <v>0.9915858893402979</v>
+      </c>
+      <c r="O26">
+        <v>0.9898389561873909</v>
+      </c>
+      <c r="P26">
+        <v>0.9957952637020869</v>
+      </c>
+      <c r="Q26">
+        <v>0.9957952637020869</v>
+      </c>
+      <c r="R26">
+        <v>0.9978999508829813</v>
+      </c>
+      <c r="S26">
+        <v>0.9978999508829813</v>
+      </c>
+      <c r="T26">
+        <v>0.9997801303875705</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27">
+        <v>1.005301821828063</v>
+      </c>
+      <c r="D27">
+        <v>0.9986626425446766</v>
+      </c>
+      <c r="E27">
+        <v>1.005301821828063</v>
+      </c>
+      <c r="F27">
+        <v>0.998695960545821</v>
+      </c>
+      <c r="G27">
+        <v>1.002923710417932</v>
+      </c>
+      <c r="H27">
+        <v>0.9964273764467469</v>
+      </c>
+      <c r="I27">
+        <v>0.998695960545821</v>
+      </c>
+      <c r="J27">
+        <v>0.9986723670496989</v>
+      </c>
+      <c r="K27">
+        <v>0.998695960545821</v>
+      </c>
+      <c r="L27">
+        <v>0.9986626425446766</v>
+      </c>
+      <c r="M27">
+        <v>1.00198223218637</v>
+      </c>
+      <c r="N27">
+        <v>1.00198223218637</v>
+      </c>
+      <c r="O27">
+        <v>1.002296058263558</v>
+      </c>
+      <c r="P27">
+        <v>1.000886808306187</v>
+      </c>
+      <c r="Q27">
+        <v>1.000886808306187</v>
+      </c>
+      <c r="R27">
+        <v>1.000339096366095</v>
+      </c>
+      <c r="S27">
+        <v>1.000339096366095</v>
+      </c>
+      <c r="T27">
+        <v>1.00011397980549</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28">
+        <v>0.9843169883790203</v>
+      </c>
+      <c r="D28">
+        <v>1.003904332087002</v>
+      </c>
+      <c r="E28">
+        <v>0.9843169883790203</v>
+      </c>
+      <c r="F28">
+        <v>1.003950314884864</v>
+      </c>
+      <c r="G28">
+        <v>0.9913849832119821</v>
+      </c>
+      <c r="H28">
+        <v>1.010402791400715</v>
+      </c>
+      <c r="I28">
+        <v>1.003950314884864</v>
+      </c>
+      <c r="J28">
+        <v>1.003917746441096</v>
+      </c>
+      <c r="K28">
+        <v>1.003950314884864</v>
+      </c>
+      <c r="L28">
+        <v>1.003904332087002</v>
+      </c>
+      <c r="M28">
+        <v>0.9941106602330112</v>
+      </c>
+      <c r="N28">
+        <v>0.9941106602330112</v>
+      </c>
+      <c r="O28">
+        <v>0.9932021012260015</v>
+      </c>
+      <c r="P28">
+        <v>0.9973905451169621</v>
+      </c>
+      <c r="Q28">
+        <v>0.9973905451169623</v>
+      </c>
+      <c r="R28">
+        <v>0.9990304875589378</v>
+      </c>
+      <c r="S28">
+        <v>0.9990304875589378</v>
+      </c>
+      <c r="T28">
+        <v>0.9996461927341133</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29">
+        <v>0.9680701104107865</v>
+      </c>
+      <c r="D29">
+        <v>1.007369589176563</v>
+      </c>
+      <c r="E29">
+        <v>0.9680701104107865</v>
+      </c>
+      <c r="F29">
+        <v>1.009085670263854</v>
+      </c>
+      <c r="G29">
+        <v>0.9828357096743074</v>
+      </c>
+      <c r="H29">
+        <v>1.019325367069342</v>
+      </c>
+      <c r="I29">
+        <v>1.009085670263854</v>
+      </c>
+      <c r="J29">
+        <v>1.007869917390843</v>
+      </c>
+      <c r="K29">
+        <v>1.009085670263854</v>
+      </c>
+      <c r="L29">
+        <v>1.007369589176563</v>
+      </c>
+      <c r="M29">
+        <v>0.9877198497936748</v>
+      </c>
+      <c r="N29">
+        <v>0.9877198497936748</v>
+      </c>
+      <c r="O29">
+        <v>0.986091803087219</v>
+      </c>
+      <c r="P29">
+        <v>0.9948417899504012</v>
+      </c>
+      <c r="Q29">
+        <v>0.9948417899504012</v>
+      </c>
+      <c r="R29">
+        <v>0.9984027600287644</v>
+      </c>
+      <c r="S29">
+        <v>0.9984027600287644</v>
+      </c>
+      <c r="T29">
+        <v>0.9990927273309493</v>
       </c>
     </row>
   </sheetData>

--- a/JupyterNotebooks/AvgHW/Alpha2F-HW35.xlsx
+++ b/JupyterNotebooks/AvgHW/Alpha2F-HW35.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>HKL</t>
   </si>
@@ -22,6 +22,12 @@
     <t>Spiral5</t>
   </si>
   <si>
+    <t>Holden</t>
+  </si>
+  <si>
+    <t>Rizzie Spiral</t>
+  </si>
+  <si>
     <t>RotRing OmegaMax-90</t>
   </si>
   <si>
@@ -37,7 +43,7 @@
     <t>Rizzie Hex</t>
   </si>
   <si>
-    <t>Thomas Hex</t>
+    <t>Matthies Hex</t>
   </si>
   <si>
     <t>Tilt Rotate_Partial</t>
@@ -509,7 +515,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T29"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -582,58 +588,58 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="L2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="M2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="N2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="O2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="P2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="Q2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="R2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="S2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="T2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -706,58 +712,58 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>0.9678268680459725</v>
+        <v>1.013338333496214</v>
       </c>
       <c r="D4">
-        <v>1.008507717233318</v>
+        <v>0.9967441570949774</v>
       </c>
       <c r="E4">
-        <v>0.9678268680459725</v>
+        <v>1.013338333496214</v>
       </c>
       <c r="F4">
-        <v>1.007207301255327</v>
+        <v>0.9965236839955979</v>
       </c>
       <c r="G4">
-        <v>0.9820038248559663</v>
+        <v>1.007285059841564</v>
       </c>
       <c r="H4">
-        <v>1.022934940892523</v>
+        <v>0.9913597462499435</v>
       </c>
       <c r="I4">
-        <v>1.007207301255327</v>
+        <v>0.9965236839955979</v>
       </c>
       <c r="J4">
-        <v>1.008128589823047</v>
+        <v>0.9966798794314301</v>
       </c>
       <c r="K4">
-        <v>1.007207301255327</v>
+        <v>0.9965236839955979</v>
       </c>
       <c r="L4">
-        <v>1.008507717233318</v>
+        <v>0.9967441570949774</v>
       </c>
       <c r="M4">
-        <v>0.9881672926396452</v>
+        <v>1.005041245295596</v>
       </c>
       <c r="N4">
-        <v>0.9881672926396452</v>
+        <v>1.005041245295596</v>
       </c>
       <c r="O4">
-        <v>0.9861128033784189</v>
+        <v>1.005789183477585</v>
       </c>
       <c r="P4">
-        <v>0.9945139621782056</v>
+        <v>1.002202058195596</v>
       </c>
       <c r="Q4">
-        <v>0.9945139621782056</v>
+        <v>1.002202058195596</v>
       </c>
       <c r="R4">
-        <v>0.9976872969474859</v>
+        <v>1.000782464645597</v>
       </c>
       <c r="S4">
-        <v>0.9976872969474859</v>
+        <v>1.000782464645597</v>
       </c>
       <c r="T4">
-        <v>0.9994348736843587</v>
+        <v>1.000321810018288</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -768,58 +774,58 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>1.013830358753601</v>
+        <v>0.8983377732019843</v>
       </c>
       <c r="D5">
-        <v>0.9965784616426537</v>
+        <v>1.02383189597336</v>
       </c>
       <c r="E5">
-        <v>1.013830358753601</v>
+        <v>0.8983377732019843</v>
       </c>
       <c r="F5">
-        <v>0.9964775185878977</v>
+        <v>1.028266140371859</v>
       </c>
       <c r="G5">
-        <v>1.007583336685882</v>
+        <v>0.9451119904752066</v>
       </c>
       <c r="H5">
-        <v>0.9908951238184442</v>
+        <v>1.062707098774203</v>
       </c>
       <c r="I5">
-        <v>0.9964775185878977</v>
+        <v>1.028266140371859</v>
       </c>
       <c r="J5">
-        <v>0.9965490322190189</v>
+        <v>1.025124693117545</v>
       </c>
       <c r="K5">
-        <v>0.9964775185878977</v>
+        <v>1.028266140371859</v>
       </c>
       <c r="L5">
-        <v>0.9965784616426537</v>
+        <v>1.02383189597336</v>
       </c>
       <c r="M5">
-        <v>1.005204410198127</v>
+        <v>0.9610848345876721</v>
       </c>
       <c r="N5">
-        <v>1.005204410198127</v>
+        <v>0.9610848345876721</v>
       </c>
       <c r="O5">
-        <v>1.005997385694045</v>
+        <v>0.9557605532168503</v>
       </c>
       <c r="P5">
-        <v>1.002295446328051</v>
+        <v>0.9834786031824012</v>
       </c>
       <c r="Q5">
-        <v>1.002295446328051</v>
+        <v>0.9834786031824013</v>
       </c>
       <c r="R5">
-        <v>1.000840964393013</v>
+        <v>0.9946754874797659</v>
       </c>
       <c r="S5">
-        <v>1.000840964393013</v>
+        <v>0.9946754874797659</v>
       </c>
       <c r="T5">
-        <v>1.00031897195125</v>
+        <v>0.997229931985693</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -830,58 +836,58 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>1.051254836535188</v>
+        <v>0.9678268680459725</v>
       </c>
       <c r="D6">
-        <v>0.9874728754740056</v>
+        <v>1.008507717233318</v>
       </c>
       <c r="E6">
-        <v>1.051254836535188</v>
+        <v>0.9678268680459725</v>
       </c>
       <c r="F6">
-        <v>0.986670452657166</v>
+        <v>1.007207301255327</v>
       </c>
       <c r="G6">
-        <v>1.028004459646739</v>
+        <v>0.9820038248559663</v>
       </c>
       <c r="H6">
-        <v>0.966747172701952</v>
+        <v>1.022934940892523</v>
       </c>
       <c r="I6">
-        <v>0.986670452657166</v>
+        <v>1.007207301255327</v>
       </c>
       <c r="J6">
-        <v>0.9872389306106817</v>
+        <v>1.008128589823047</v>
       </c>
       <c r="K6">
-        <v>0.986670452657166</v>
+        <v>1.007207301255327</v>
       </c>
       <c r="L6">
-        <v>0.9874728754740056</v>
+        <v>1.008507717233318</v>
       </c>
       <c r="M6">
-        <v>1.019363856004597</v>
+        <v>0.9881672926396452</v>
       </c>
       <c r="N6">
-        <v>1.019363856004597</v>
+        <v>0.9881672926396452</v>
       </c>
       <c r="O6">
-        <v>1.022244057218644</v>
+        <v>0.9861128033784189</v>
       </c>
       <c r="P6">
-        <v>1.008466054888786</v>
+        <v>0.9945139621782056</v>
       </c>
       <c r="Q6">
-        <v>1.008466054888786</v>
+        <v>0.9945139621782056</v>
       </c>
       <c r="R6">
-        <v>1.003017154330881</v>
+        <v>0.9976872969474859</v>
       </c>
       <c r="S6">
-        <v>1.003017154330881</v>
+        <v>0.9976872969474859</v>
       </c>
       <c r="T6">
-        <v>1.001231454604289</v>
+        <v>0.9994348736843587</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -892,58 +898,58 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>1.001125612393981</v>
+        <v>1.013830358753601</v>
       </c>
       <c r="D7">
-        <v>0.9996942614253116</v>
+        <v>0.9965784616426537</v>
       </c>
       <c r="E7">
-        <v>1.001125612393981</v>
+        <v>1.013830358753601</v>
       </c>
       <c r="F7">
-        <v>0.999762400265704</v>
+        <v>0.9964775185878977</v>
       </c>
       <c r="G7">
-        <v>1.000634856916818</v>
+        <v>1.007583336685882</v>
       </c>
       <c r="H7">
-        <v>0.9991717164208076</v>
+        <v>0.9908951238184442</v>
       </c>
       <c r="I7">
-        <v>0.999762400265704</v>
+        <v>0.9964775185878977</v>
       </c>
       <c r="J7">
-        <v>0.999714127342574</v>
+        <v>0.9965490322190189</v>
       </c>
       <c r="K7">
-        <v>0.999762400265704</v>
+        <v>0.9964775185878977</v>
       </c>
       <c r="L7">
-        <v>0.9996942614253116</v>
+        <v>0.9965784616426537</v>
       </c>
       <c r="M7">
-        <v>1.000409936909646</v>
+        <v>1.005204410198127</v>
       </c>
       <c r="N7">
-        <v>1.000409936909646</v>
+        <v>1.005204410198127</v>
       </c>
       <c r="O7">
-        <v>1.00048491024537</v>
+        <v>1.005997385694045</v>
       </c>
       <c r="P7">
-        <v>1.000194091361665</v>
+        <v>1.002295446328051</v>
       </c>
       <c r="Q7">
-        <v>1.000194091361665</v>
+        <v>1.002295446328051</v>
       </c>
       <c r="R7">
-        <v>1.000086168587675</v>
+        <v>1.000840964393013</v>
       </c>
       <c r="S7">
-        <v>1.000086168587675</v>
+        <v>1.000840964393013</v>
       </c>
       <c r="T7">
-        <v>1.000017162460866</v>
+        <v>1.00031897195125</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -954,58 +960,58 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>1.000110383002925</v>
+        <v>1.051254836535188</v>
       </c>
       <c r="D8">
-        <v>0.9999598860991789</v>
+        <v>0.9874728754740056</v>
       </c>
       <c r="E8">
-        <v>1.000110383002925</v>
+        <v>1.051254836535188</v>
       </c>
       <c r="F8">
-        <v>0.9999949364040704</v>
+        <v>0.986670452657166</v>
       </c>
       <c r="G8">
-        <v>1.000068822874185</v>
+        <v>1.028004459646739</v>
       </c>
       <c r="H8">
-        <v>0.9998863527995148</v>
+        <v>0.966747172701952</v>
       </c>
       <c r="I8">
-        <v>0.9999949364040704</v>
+        <v>0.986670452657166</v>
       </c>
       <c r="J8">
-        <v>0.9999701053432549</v>
+        <v>0.9872389306106817</v>
       </c>
       <c r="K8">
-        <v>0.9999949364040704</v>
+        <v>0.986670452657166</v>
       </c>
       <c r="L8">
-        <v>0.9999598860991789</v>
+        <v>0.9874728754740056</v>
       </c>
       <c r="M8">
-        <v>1.000035134551052</v>
+        <v>1.019363856004597</v>
       </c>
       <c r="N8">
-        <v>1.000035134551052</v>
+        <v>1.019363856004597</v>
       </c>
       <c r="O8">
-        <v>1.000046363992096</v>
+        <v>1.022244057218644</v>
       </c>
       <c r="P8">
-        <v>1.000021735168725</v>
+        <v>1.008466054888786</v>
       </c>
       <c r="Q8">
-        <v>1.000021735168725</v>
+        <v>1.008466054888786</v>
       </c>
       <c r="R8">
-        <v>1.000015035477561</v>
+        <v>1.003017154330881</v>
       </c>
       <c r="S8">
-        <v>1.000015035477561</v>
+        <v>1.003017154330881</v>
       </c>
       <c r="T8">
-        <v>0.9999984144205216</v>
+        <v>1.001231454604289</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -1016,58 +1022,58 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>1.00277925569002</v>
+        <v>1.001125612393981</v>
       </c>
       <c r="D9">
-        <v>0.9992905048363873</v>
+        <v>0.9996942614253116</v>
       </c>
       <c r="E9">
-        <v>1.00277925569002</v>
+        <v>1.001125612393981</v>
       </c>
       <c r="F9">
-        <v>0.9993316097611866</v>
+        <v>0.999762400265704</v>
       </c>
       <c r="G9">
-        <v>1.001538103974116</v>
+        <v>1.000634856916818</v>
       </c>
       <c r="H9">
-        <v>0.9981001844087679</v>
+        <v>0.9991717164208076</v>
       </c>
       <c r="I9">
-        <v>0.9993316097611866</v>
+        <v>0.999762400265704</v>
       </c>
       <c r="J9">
-        <v>0.9993024888820127</v>
+        <v>0.999714127342574</v>
       </c>
       <c r="K9">
-        <v>0.9993316097611866</v>
+        <v>0.999762400265704</v>
       </c>
       <c r="L9">
-        <v>0.9992905048363873</v>
+        <v>0.9996942614253116</v>
       </c>
       <c r="M9">
-        <v>1.001034880263203</v>
+        <v>1.000409936909646</v>
       </c>
       <c r="N9">
-        <v>1.001034880263203</v>
+        <v>1.000409936909646</v>
       </c>
       <c r="O9">
-        <v>1.001202621500174</v>
+        <v>1.00048491024537</v>
       </c>
       <c r="P9">
-        <v>1.000467123429198</v>
+        <v>1.000194091361665</v>
       </c>
       <c r="Q9">
-        <v>1.000467123429198</v>
+        <v>1.000194091361665</v>
       </c>
       <c r="R9">
-        <v>1.000183245012195</v>
+        <v>1.000086168587675</v>
       </c>
       <c r="S9">
-        <v>1.000183245012195</v>
+        <v>1.000086168587675</v>
       </c>
       <c r="T9">
-        <v>1.000057024592082</v>
+        <v>1.000017162460866</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1078,58 +1084,58 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>1.052026388198939</v>
+        <v>1.000110383002925</v>
       </c>
       <c r="D10">
-        <v>0.9872889493575842</v>
+        <v>0.9999598860991789</v>
       </c>
       <c r="E10">
-        <v>1.052026388198939</v>
+        <v>1.000110383002925</v>
       </c>
       <c r="F10">
-        <v>0.986461433806001</v>
+        <v>0.9999949364040704</v>
       </c>
       <c r="G10">
-        <v>1.028423005821537</v>
+        <v>1.000068822874185</v>
       </c>
       <c r="H10">
-        <v>0.9662614826151651</v>
+        <v>0.9998863527995148</v>
       </c>
       <c r="I10">
-        <v>0.986461433806001</v>
+        <v>0.9999949364040704</v>
       </c>
       <c r="J10">
-        <v>0.9870476887653156</v>
+        <v>0.9999701053432549</v>
       </c>
       <c r="K10">
-        <v>0.986461433806001</v>
+        <v>0.9999949364040704</v>
       </c>
       <c r="L10">
-        <v>0.9872889493575842</v>
+        <v>0.9999598860991789</v>
       </c>
       <c r="M10">
-        <v>1.019657668778261</v>
+        <v>1.000035134551052</v>
       </c>
       <c r="N10">
-        <v>1.019657668778261</v>
+        <v>1.000035134551052</v>
       </c>
       <c r="O10">
-        <v>1.022579447792687</v>
+        <v>1.000046363992096</v>
       </c>
       <c r="P10">
-        <v>1.008592257120841</v>
+        <v>1.000021735168725</v>
       </c>
       <c r="Q10">
-        <v>1.008592257120841</v>
+        <v>1.000021735168725</v>
       </c>
       <c r="R10">
-        <v>1.003059551292131</v>
+        <v>1.000015035477561</v>
       </c>
       <c r="S10">
-        <v>1.003059551292131</v>
+        <v>1.000015035477561</v>
       </c>
       <c r="T10">
-        <v>1.001251491427424</v>
+        <v>0.9999984144205216</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1140,58 +1146,58 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>0.9743363209120774</v>
+        <v>1.00277925569002</v>
       </c>
       <c r="D11">
-        <v>1.006765087494148</v>
+        <v>0.9992905048363873</v>
       </c>
       <c r="E11">
-        <v>0.9743363209120774</v>
+        <v>1.00277925569002</v>
       </c>
       <c r="F11">
-        <v>1.00578741962373</v>
+        <v>0.9993316097611866</v>
       </c>
       <c r="G11">
-        <v>0.9856587170142364</v>
+        <v>1.001538103974116</v>
       </c>
       <c r="H11">
-        <v>1.018226452601121</v>
+        <v>0.9981001844087679</v>
       </c>
       <c r="I11">
-        <v>1.00578741962373</v>
+        <v>0.9993316097611866</v>
       </c>
       <c r="J11">
-        <v>1.00648005611671</v>
+        <v>0.9993024888820127</v>
       </c>
       <c r="K11">
-        <v>1.00578741962373</v>
+        <v>0.9993316097611866</v>
       </c>
       <c r="L11">
-        <v>1.006765087494148</v>
+        <v>0.9992905048363873</v>
       </c>
       <c r="M11">
-        <v>0.9905507042031128</v>
+        <v>1.001034880263203</v>
       </c>
       <c r="N11">
-        <v>0.9905507042031128</v>
+        <v>1.001034880263203</v>
       </c>
       <c r="O11">
-        <v>0.9889200418068206</v>
+        <v>1.001202621500174</v>
       </c>
       <c r="P11">
-        <v>0.9956296093433185</v>
+        <v>1.000467123429198</v>
       </c>
       <c r="Q11">
-        <v>0.9956296093433185</v>
+        <v>1.000467123429198</v>
       </c>
       <c r="R11">
-        <v>0.9981690619134214</v>
+        <v>1.000183245012195</v>
       </c>
       <c r="S11">
-        <v>0.9981690619134214</v>
+        <v>1.000183245012195</v>
       </c>
       <c r="T11">
-        <v>0.9995423422936702</v>
+        <v>1.000057024592082</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1202,58 +1208,58 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>1.014479911621051</v>
+        <v>1.052026388198939</v>
       </c>
       <c r="D12">
-        <v>0.9964536134736858</v>
+        <v>0.9872889493575842</v>
       </c>
       <c r="E12">
-        <v>1.014479911621051</v>
+        <v>1.052026388198939</v>
       </c>
       <c r="F12">
-        <v>0.9962475592210522</v>
+        <v>0.986461433806001</v>
       </c>
       <c r="G12">
-        <v>1.007916265800001</v>
+        <v>1.028423005821537</v>
       </c>
       <c r="H12">
-        <v>0.9905822149894725</v>
+        <v>0.9662614826151651</v>
       </c>
       <c r="I12">
-        <v>0.9962475592210522</v>
+        <v>0.986461433806001</v>
       </c>
       <c r="J12">
-        <v>0.9963935388631585</v>
+        <v>0.9870476887653156</v>
       </c>
       <c r="K12">
-        <v>0.9962475592210522</v>
+        <v>0.986461433806001</v>
       </c>
       <c r="L12">
-        <v>0.9964536134736858</v>
+        <v>0.9872889493575842</v>
       </c>
       <c r="M12">
-        <v>1.005466762547368</v>
+        <v>1.019657668778261</v>
       </c>
       <c r="N12">
-        <v>1.005466762547368</v>
+        <v>1.019657668778261</v>
       </c>
       <c r="O12">
-        <v>1.006283263631579</v>
+        <v>1.022579447792687</v>
       </c>
       <c r="P12">
-        <v>1.00239369477193</v>
+        <v>1.008592257120841</v>
       </c>
       <c r="Q12">
-        <v>1.00239369477193</v>
+        <v>1.008592257120841</v>
       </c>
       <c r="R12">
-        <v>1.00085716088421</v>
+        <v>1.003059551292131</v>
       </c>
       <c r="S12">
-        <v>1.00085716088421</v>
+        <v>1.003059551292131</v>
       </c>
       <c r="T12">
-        <v>1.00034551732807</v>
+        <v>1.001251491427424</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1264,58 +1270,58 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.9898505006392723</v>
+        <v>0.9743363209120774</v>
       </c>
       <c r="D13">
-        <v>1.002542442438144</v>
+        <v>1.006765087494148</v>
       </c>
       <c r="E13">
-        <v>0.9898505006392723</v>
+        <v>0.9743363209120774</v>
       </c>
       <c r="F13">
-        <v>1.002528252519415</v>
+        <v>1.00578741962373</v>
       </c>
       <c r="G13">
-        <v>0.9944144931968109</v>
+        <v>0.9856587170142364</v>
       </c>
       <c r="H13">
-        <v>1.006782547611529</v>
+        <v>1.018226452601121</v>
       </c>
       <c r="I13">
-        <v>1.002528252519415</v>
+        <v>1.00578741962373</v>
       </c>
       <c r="J13">
-        <v>1.002538304967924</v>
+        <v>1.00648005611671</v>
       </c>
       <c r="K13">
-        <v>1.002528252519415</v>
+        <v>1.00578741962373</v>
       </c>
       <c r="L13">
-        <v>1.002542442438144</v>
+        <v>1.006765087494148</v>
       </c>
       <c r="M13">
-        <v>0.9961964715387084</v>
+        <v>0.9905507042031128</v>
       </c>
       <c r="N13">
-        <v>0.9961964715387084</v>
+        <v>0.9905507042031128</v>
       </c>
       <c r="O13">
-        <v>0.9956024787580758</v>
+        <v>0.9889200418068206</v>
       </c>
       <c r="P13">
-        <v>0.998307065198944</v>
+        <v>0.9956296093433185</v>
       </c>
       <c r="Q13">
-        <v>0.998307065198944</v>
+        <v>0.9956296093433185</v>
       </c>
       <c r="R13">
-        <v>0.9993623620290617</v>
+        <v>0.9981690619134214</v>
       </c>
       <c r="S13">
-        <v>0.9993623620290617</v>
+        <v>0.9981690619134214</v>
       </c>
       <c r="T13">
-        <v>0.9997760902288494</v>
+        <v>0.9995423422936702</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1326,58 +1332,58 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>1.0899016</v>
+        <v>1.014479911621051</v>
       </c>
       <c r="D14">
-        <v>0.9780468100000005</v>
+        <v>0.9964536134736858</v>
       </c>
       <c r="E14">
-        <v>1.0899016</v>
+        <v>1.014479911621051</v>
       </c>
       <c r="F14">
-        <v>0.9765846500000002</v>
+        <v>0.9962475592210522</v>
       </c>
       <c r="G14">
-        <v>1.0491075</v>
+        <v>1.007916265800001</v>
       </c>
       <c r="H14">
-        <v>0.9417366599999986</v>
+        <v>0.9905822149894725</v>
       </c>
       <c r="I14">
-        <v>0.9765846500000002</v>
+        <v>0.9962475592210522</v>
       </c>
       <c r="J14">
-        <v>0.9776205200000008</v>
+        <v>0.9963935388631585</v>
       </c>
       <c r="K14">
-        <v>0.9765846500000002</v>
+        <v>0.9962475592210522</v>
       </c>
       <c r="L14">
-        <v>0.9780468100000005</v>
+        <v>0.9964536134736858</v>
       </c>
       <c r="M14">
-        <v>1.033974205</v>
+        <v>1.005466762547368</v>
       </c>
       <c r="N14">
-        <v>1.033974205</v>
+        <v>1.005466762547368</v>
       </c>
       <c r="O14">
-        <v>1.039018636666667</v>
+        <v>1.006283263631579</v>
       </c>
       <c r="P14">
-        <v>1.014844353333334</v>
+        <v>1.00239369477193</v>
       </c>
       <c r="Q14">
-        <v>1.014844353333334</v>
+        <v>1.00239369477193</v>
       </c>
       <c r="R14">
-        <v>1.0052794275</v>
+        <v>1.00085716088421</v>
       </c>
       <c r="S14">
-        <v>1.0052794275</v>
+        <v>1.00085716088421</v>
       </c>
       <c r="T14">
-        <v>1.00216629</v>
+        <v>1.00034551732807</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1388,58 +1394,58 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.88779747</v>
+        <v>0.9898505006392723</v>
       </c>
       <c r="D15">
-        <v>1.0216333</v>
+        <v>1.002542442438144</v>
       </c>
       <c r="E15">
-        <v>0.88779747</v>
+        <v>0.9898505006392723</v>
       </c>
       <c r="F15">
-        <v>1.0396018</v>
+        <v>1.002528252519415</v>
       </c>
       <c r="G15">
-        <v>0.94244704</v>
+        <v>0.9944144931968109</v>
       </c>
       <c r="H15">
-        <v>1.0542662</v>
+        <v>1.006782547611529</v>
       </c>
       <c r="I15">
-        <v>1.0396018</v>
+        <v>1.002528252519415</v>
       </c>
       <c r="J15">
-        <v>1.0268719</v>
+        <v>1.002538304967924</v>
       </c>
       <c r="K15">
-        <v>1.0396018</v>
+        <v>1.002528252519415</v>
       </c>
       <c r="L15">
-        <v>1.0216333</v>
+        <v>1.002542442438144</v>
       </c>
       <c r="M15">
-        <v>0.954715385</v>
+        <v>0.9961964715387084</v>
       </c>
       <c r="N15">
-        <v>0.954715385</v>
+        <v>0.9961964715387084</v>
       </c>
       <c r="O15">
-        <v>0.9506259366666666</v>
+        <v>0.9956024787580758</v>
       </c>
       <c r="P15">
-        <v>0.9830108566666667</v>
+        <v>0.998307065198944</v>
       </c>
       <c r="Q15">
-        <v>0.9830108566666667</v>
+        <v>0.998307065198944</v>
       </c>
       <c r="R15">
-        <v>0.9971585924999999</v>
+        <v>0.9993623620290617</v>
       </c>
       <c r="S15">
-        <v>0.9971585924999999</v>
+        <v>0.9993623620290617</v>
       </c>
       <c r="T15">
-        <v>0.9954362849999999</v>
+        <v>0.9997760902288494</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1450,58 +1456,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.76511908</v>
+        <v>1.0899016</v>
       </c>
       <c r="D16">
-        <v>1.0634404</v>
+        <v>0.9780468100000005</v>
       </c>
       <c r="E16">
-        <v>0.76511908</v>
+        <v>1.0899016</v>
       </c>
       <c r="F16">
-        <v>1.0502239</v>
+        <v>0.9765846500000002</v>
       </c>
       <c r="G16">
-        <v>0.86775682</v>
+        <v>1.0491075</v>
       </c>
       <c r="H16">
-        <v>1.1716919</v>
+        <v>0.9417366599999986</v>
       </c>
       <c r="I16">
-        <v>1.0502239</v>
+        <v>0.9765846500000002</v>
       </c>
       <c r="J16">
-        <v>1.0595872</v>
+        <v>0.9776205200000008</v>
       </c>
       <c r="K16">
-        <v>1.0502239</v>
+        <v>0.9765846500000002</v>
       </c>
       <c r="L16">
-        <v>1.0634404</v>
+        <v>0.9780468100000005</v>
       </c>
       <c r="M16">
-        <v>0.91427974</v>
+        <v>1.033974205</v>
       </c>
       <c r="N16">
-        <v>0.91427974</v>
+        <v>1.033974205</v>
       </c>
       <c r="O16">
-        <v>0.8987721</v>
+        <v>1.039018636666667</v>
       </c>
       <c r="P16">
-        <v>0.9595944599999999</v>
+        <v>1.014844353333334</v>
       </c>
       <c r="Q16">
-        <v>0.9595944599999999</v>
+        <v>1.014844353333334</v>
       </c>
       <c r="R16">
-        <v>0.9822518199999999</v>
+        <v>1.0052794275</v>
       </c>
       <c r="S16">
-        <v>0.9822518199999999</v>
+        <v>1.0052794275</v>
       </c>
       <c r="T16">
-        <v>0.9963032166666665</v>
+        <v>1.00216629</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1512,58 +1518,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.8944530000000001</v>
+        <v>0.88779747</v>
       </c>
       <c r="D17">
-        <v>1.0244392</v>
+        <v>1.0216333</v>
       </c>
       <c r="E17">
-        <v>0.8944530000000001</v>
+        <v>0.88779747</v>
       </c>
       <c r="F17">
-        <v>1.0298924</v>
+        <v>1.0396018</v>
       </c>
       <c r="G17">
-        <v>0.94321119</v>
+        <v>0.94244704</v>
       </c>
       <c r="H17">
-        <v>1.0641324</v>
+        <v>1.0542662</v>
       </c>
       <c r="I17">
-        <v>1.0298924</v>
+        <v>1.0396018</v>
       </c>
       <c r="J17">
-        <v>1.026029</v>
+        <v>1.0268719</v>
       </c>
       <c r="K17">
-        <v>1.0298924</v>
+        <v>1.0396018</v>
       </c>
       <c r="L17">
-        <v>1.0244392</v>
+        <v>1.0216333</v>
       </c>
       <c r="M17">
-        <v>0.9594461000000001</v>
+        <v>0.954715385</v>
       </c>
       <c r="N17">
-        <v>0.9594461000000001</v>
+        <v>0.954715385</v>
       </c>
       <c r="O17">
-        <v>0.9540344633333334</v>
+        <v>0.9506259366666666</v>
       </c>
       <c r="P17">
-        <v>0.9829282</v>
+        <v>0.9830108566666667</v>
       </c>
       <c r="Q17">
-        <v>0.9829281999999999</v>
+        <v>0.9830108566666667</v>
       </c>
       <c r="R17">
-        <v>0.9946692499999999</v>
+        <v>0.9971585924999999</v>
       </c>
       <c r="S17">
-        <v>0.9946692499999999</v>
+        <v>0.9971585924999999</v>
       </c>
       <c r="T17">
-        <v>0.9970261983333333</v>
+        <v>0.9954362849999999</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1574,58 +1580,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1.031250700958904</v>
+        <v>0.76511908</v>
       </c>
       <c r="D18">
-        <v>0.9919384654794521</v>
+        <v>1.0634404</v>
       </c>
       <c r="E18">
-        <v>1.031250700958904</v>
+        <v>0.76511908</v>
       </c>
       <c r="F18">
-        <v>0.9926352668493147</v>
+        <v>1.0502239</v>
       </c>
       <c r="G18">
-        <v>1.017349147945206</v>
+        <v>0.86775682</v>
       </c>
       <c r="H18">
-        <v>0.9783698504109586</v>
+        <v>1.1716919</v>
       </c>
       <c r="I18">
-        <v>0.9926352668493147</v>
+        <v>1.0502239</v>
       </c>
       <c r="J18">
-        <v>0.9921416117808219</v>
+        <v>1.0595872</v>
       </c>
       <c r="K18">
-        <v>0.9926352668493147</v>
+        <v>1.0502239</v>
       </c>
       <c r="L18">
-        <v>0.9919384654794521</v>
+        <v>1.0634404</v>
       </c>
       <c r="M18">
-        <v>1.011594583219178</v>
+        <v>0.91427974</v>
       </c>
       <c r="N18">
-        <v>1.011594583219178</v>
+        <v>0.91427974</v>
       </c>
       <c r="O18">
-        <v>1.013512771461188</v>
+        <v>0.8987721</v>
       </c>
       <c r="P18">
-        <v>1.00527481109589</v>
+        <v>0.9595944599999999</v>
       </c>
       <c r="Q18">
-        <v>1.00527481109589</v>
+        <v>0.9595944599999999</v>
       </c>
       <c r="R18">
-        <v>1.002114925034246</v>
+        <v>0.9822518199999999</v>
       </c>
       <c r="S18">
-        <v>1.002114925034246</v>
+        <v>0.9822518199999999</v>
       </c>
       <c r="T18">
-        <v>1.000614173904109</v>
+        <v>0.9963032166666665</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1636,58 +1642,58 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>0.9617949389473682</v>
+        <v>0.8944530000000001</v>
       </c>
       <c r="D19">
-        <v>1.011589086842105</v>
+        <v>1.0244392</v>
       </c>
       <c r="E19">
-        <v>0.9617949389473682</v>
+        <v>0.8944530000000001</v>
       </c>
       <c r="F19">
-        <v>1.005883181052632</v>
+        <v>1.0298924</v>
       </c>
       <c r="G19">
-        <v>0.9776667047368423</v>
+        <v>0.94321119</v>
       </c>
       <c r="H19">
-        <v>1.031991082631579</v>
+        <v>1.0641324</v>
       </c>
       <c r="I19">
-        <v>1.005883181052632</v>
+        <v>1.0298924</v>
       </c>
       <c r="J19">
-        <v>1.009925559473684</v>
+        <v>1.026029</v>
       </c>
       <c r="K19">
-        <v>1.005883181052632</v>
+        <v>1.0298924</v>
       </c>
       <c r="L19">
-        <v>1.011589086842105</v>
+        <v>1.0244392</v>
       </c>
       <c r="M19">
-        <v>0.9866920128947367</v>
+        <v>0.9594461000000001</v>
       </c>
       <c r="N19">
-        <v>0.9866920128947367</v>
+        <v>0.9594461000000001</v>
       </c>
       <c r="O19">
-        <v>0.9836835768421053</v>
+        <v>0.9540344633333334</v>
       </c>
       <c r="P19">
-        <v>0.9930890689473685</v>
+        <v>0.9829282</v>
       </c>
       <c r="Q19">
-        <v>0.9930890689473685</v>
+        <v>0.9829281999999999</v>
       </c>
       <c r="R19">
-        <v>0.9962875969736843</v>
+        <v>0.9946692499999999</v>
       </c>
       <c r="S19">
-        <v>0.9962875969736843</v>
+        <v>0.9946692499999999</v>
       </c>
       <c r="T19">
-        <v>0.999808425614035</v>
+        <v>0.9970261983333333</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1698,58 +1704,58 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>0.911944017368421</v>
+        <v>1.031250700958904</v>
       </c>
       <c r="D20">
-        <v>1.020461439473684</v>
+        <v>0.9919384654794521</v>
       </c>
       <c r="E20">
-        <v>0.911944017368421</v>
+        <v>1.031250700958904</v>
       </c>
       <c r="F20">
-        <v>1.024808592105263</v>
+        <v>0.9926352668493147</v>
       </c>
       <c r="G20">
-        <v>0.9525752694736843</v>
+        <v>1.017349147945206</v>
       </c>
       <c r="H20">
-        <v>1.053735803157895</v>
+        <v>0.9783698504109586</v>
       </c>
       <c r="I20">
-        <v>1.024808592105263</v>
+        <v>0.9926352668493147</v>
       </c>
       <c r="J20">
-        <v>1.021728843157895</v>
+        <v>0.9921416117808219</v>
       </c>
       <c r="K20">
-        <v>1.024808592105263</v>
+        <v>0.9926352668493147</v>
       </c>
       <c r="L20">
-        <v>1.020461439473684</v>
+        <v>0.9919384654794521</v>
       </c>
       <c r="M20">
-        <v>0.9662027284210526</v>
+        <v>1.011594583219178</v>
       </c>
       <c r="N20">
-        <v>0.9662027284210526</v>
+        <v>1.011594583219178</v>
       </c>
       <c r="O20">
-        <v>0.9616602421052631</v>
+        <v>1.013512771461188</v>
       </c>
       <c r="P20">
-        <v>0.9857380163157895</v>
+        <v>1.00527481109589</v>
       </c>
       <c r="Q20">
-        <v>0.9857380163157895</v>
+        <v>1.00527481109589</v>
       </c>
       <c r="R20">
-        <v>0.9955056602631579</v>
+        <v>1.002114925034246</v>
       </c>
       <c r="S20">
-        <v>0.9955056602631579</v>
+        <v>1.002114925034246</v>
       </c>
       <c r="T20">
-        <v>0.9975423274561402</v>
+        <v>1.000614173904109</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1760,58 +1766,58 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>1.039289294417931</v>
+        <v>0.9617949389473682</v>
       </c>
       <c r="D21">
-        <v>0.992793219491683</v>
+        <v>1.011589086842105</v>
       </c>
       <c r="E21">
-        <v>1.039289294417931</v>
+        <v>0.9617949389473682</v>
       </c>
       <c r="F21">
-        <v>0.9854696913620739</v>
+        <v>1.005883181052632</v>
       </c>
       <c r="G21">
-        <v>1.019914237773837</v>
+        <v>0.9776667047368423</v>
       </c>
       <c r="H21">
-        <v>0.9821768793969508</v>
+        <v>1.031991082631579</v>
       </c>
       <c r="I21">
-        <v>0.9854696913620739</v>
+        <v>1.005883181052632</v>
       </c>
       <c r="J21">
-        <v>0.9906580803834244</v>
+        <v>1.009925559473684</v>
       </c>
       <c r="K21">
-        <v>0.9854696913620739</v>
+        <v>1.005883181052632</v>
       </c>
       <c r="L21">
-        <v>0.992793219491683</v>
+        <v>1.011589086842105</v>
       </c>
       <c r="M21">
-        <v>1.016041256954807</v>
+        <v>0.9866920128947367</v>
       </c>
       <c r="N21">
-        <v>1.016041256954807</v>
+        <v>0.9866920128947367</v>
       </c>
       <c r="O21">
-        <v>1.01733225056115</v>
+        <v>0.9836835768421053</v>
       </c>
       <c r="P21">
-        <v>1.005850735090563</v>
+        <v>0.9930890689473685</v>
       </c>
       <c r="Q21">
-        <v>1.005850735090563</v>
+        <v>0.9930890689473685</v>
       </c>
       <c r="R21">
-        <v>1.00075547415844</v>
+        <v>0.9962875969736843</v>
       </c>
       <c r="S21">
-        <v>1.00075547415844</v>
+        <v>0.9962875969736843</v>
       </c>
       <c r="T21">
-        <v>1.001716900470983</v>
+        <v>0.999808425614035</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1822,58 +1828,58 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>1.008413665126355</v>
+        <v>0.911944017368421</v>
       </c>
       <c r="D22">
-        <v>0.9968230549124885</v>
+        <v>1.020461439473684</v>
       </c>
       <c r="E22">
-        <v>1.008413665126355</v>
+        <v>0.911944017368421</v>
       </c>
       <c r="F22">
-        <v>0.9998289261027201</v>
+        <v>1.024808592105263</v>
       </c>
       <c r="G22">
-        <v>1.00532315552624</v>
+        <v>0.9525752694736843</v>
       </c>
       <c r="H22">
-        <v>0.990955599828272</v>
+        <v>1.053735803157895</v>
       </c>
       <c r="I22">
-        <v>0.9998289261027201</v>
+        <v>1.024808592105263</v>
       </c>
       <c r="J22">
-        <v>0.9976994048583242</v>
+        <v>1.021728843157895</v>
       </c>
       <c r="K22">
-        <v>0.9998289261027201</v>
+        <v>1.024808592105263</v>
       </c>
       <c r="L22">
-        <v>0.9968230549124885</v>
+        <v>1.020461439473684</v>
       </c>
       <c r="M22">
-        <v>1.002618360019422</v>
+        <v>0.9662027284210526</v>
       </c>
       <c r="N22">
-        <v>1.002618360019422</v>
+        <v>0.9662027284210526</v>
       </c>
       <c r="O22">
-        <v>1.003519958521694</v>
+        <v>0.9616602421052631</v>
       </c>
       <c r="P22">
-        <v>1.001688548713854</v>
+        <v>0.9857380163157895</v>
       </c>
       <c r="Q22">
-        <v>1.001688548713854</v>
+        <v>0.9857380163157895</v>
       </c>
       <c r="R22">
-        <v>1.001223643061071</v>
+        <v>0.9955056602631579</v>
       </c>
       <c r="S22">
-        <v>1.001223643061071</v>
+        <v>0.9955056602631579</v>
       </c>
       <c r="T22">
-        <v>0.9998406343923999</v>
+        <v>0.9975423274561402</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1884,58 +1890,58 @@
         <v>21</v>
       </c>
       <c r="C23">
-        <v>1.0052562732314</v>
+        <v>1.039289294417931</v>
       </c>
       <c r="D23">
-        <v>0.9982963136392016</v>
+        <v>0.992793219491683</v>
       </c>
       <c r="E23">
-        <v>1.0052562732314</v>
+        <v>1.039289294417931</v>
       </c>
       <c r="F23">
-        <v>0.9993872490284592</v>
+        <v>0.9854696913620739</v>
       </c>
       <c r="G23">
-        <v>1.003143426185144</v>
+        <v>1.019914237773837</v>
       </c>
       <c r="H23">
-        <v>0.99524903541193</v>
+        <v>0.9821768793969508</v>
       </c>
       <c r="I23">
-        <v>0.9993872490284592</v>
+        <v>0.9854696913620739</v>
       </c>
       <c r="J23">
-        <v>0.998614362427763</v>
+        <v>0.9906580803834244</v>
       </c>
       <c r="K23">
-        <v>0.9993872490284592</v>
+        <v>0.9854696913620739</v>
       </c>
       <c r="L23">
-        <v>0.9982963136392016</v>
+        <v>0.992793219491683</v>
       </c>
       <c r="M23">
-        <v>1.001776293435301</v>
+        <v>1.016041256954807</v>
       </c>
       <c r="N23">
-        <v>1.001776293435301</v>
+        <v>1.016041256954807</v>
       </c>
       <c r="O23">
-        <v>1.002232004351915</v>
+        <v>1.01733225056115</v>
       </c>
       <c r="P23">
-        <v>1.000979945299687</v>
+        <v>1.005850735090563</v>
       </c>
       <c r="Q23">
-        <v>1.000979945299687</v>
+        <v>1.005850735090563</v>
       </c>
       <c r="R23">
-        <v>1.00058177123188</v>
+        <v>1.00075547415844</v>
       </c>
       <c r="S23">
-        <v>1.00058177123188</v>
+        <v>1.00075547415844</v>
       </c>
       <c r="T23">
-        <v>0.9999911099873163</v>
+        <v>1.001716900470983</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1946,58 +1952,58 @@
         <v>22</v>
       </c>
       <c r="C24">
-        <v>1.001743561289196</v>
+        <v>1.008413665126355</v>
       </c>
       <c r="D24">
-        <v>0.9997280433451545</v>
+        <v>0.9968230549124885</v>
       </c>
       <c r="E24">
-        <v>1.001743561289196</v>
+        <v>1.008413665126355</v>
       </c>
       <c r="F24">
-        <v>0.9992690280480536</v>
+        <v>0.9998289261027201</v>
       </c>
       <c r="G24">
-        <v>1.000852732511416</v>
+        <v>1.00532315552624</v>
       </c>
       <c r="H24">
-        <v>0.999362208658366</v>
+        <v>0.990955599828272</v>
       </c>
       <c r="I24">
-        <v>0.9992690280480536</v>
+        <v>0.9998289261027201</v>
       </c>
       <c r="J24">
-        <v>0.9995942215377136</v>
+        <v>0.9976994048583242</v>
       </c>
       <c r="K24">
-        <v>0.9992690280480536</v>
+        <v>0.9998289261027201</v>
       </c>
       <c r="L24">
-        <v>0.9997280433451545</v>
+        <v>0.9968230549124885</v>
       </c>
       <c r="M24">
-        <v>1.000735802317175</v>
+        <v>1.002618360019422</v>
       </c>
       <c r="N24">
-        <v>1.000735802317175</v>
+        <v>1.002618360019422</v>
       </c>
       <c r="O24">
-        <v>1.000774779048589</v>
+        <v>1.003519958521694</v>
       </c>
       <c r="P24">
-        <v>1.000246877560801</v>
+        <v>1.001688548713854</v>
       </c>
       <c r="Q24">
-        <v>1.000246877560801</v>
+        <v>1.001688548713854</v>
       </c>
       <c r="R24">
-        <v>1.000002415182614</v>
+        <v>1.001223643061071</v>
       </c>
       <c r="S24">
-        <v>1.000002415182614</v>
+        <v>1.001223643061071</v>
       </c>
       <c r="T24">
-        <v>1.000091632564983</v>
+        <v>0.9998406343923999</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -2008,58 +2014,58 @@
         <v>23</v>
       </c>
       <c r="C25">
-        <v>0.902800191232748</v>
+        <v>1.0052562732314</v>
       </c>
       <c r="D25">
-        <v>1.021981818722695</v>
+        <v>0.9982963136392016</v>
       </c>
       <c r="E25">
-        <v>0.902800191232748</v>
+        <v>1.0052562732314</v>
       </c>
       <c r="F25">
-        <v>1.028472587266019</v>
+        <v>0.9993872490284592</v>
       </c>
       <c r="G25">
-        <v>0.948042254967064</v>
+        <v>1.003143426185144</v>
       </c>
       <c r="H25">
-        <v>1.05738184969474</v>
+        <v>0.99524903541193</v>
       </c>
       <c r="I25">
-        <v>1.028472587266019</v>
+        <v>0.9993872490284592</v>
       </c>
       <c r="J25">
-        <v>1.023874178930763</v>
+        <v>0.998614362427763</v>
       </c>
       <c r="K25">
-        <v>1.028472587266019</v>
+        <v>0.9993872490284592</v>
       </c>
       <c r="L25">
-        <v>1.021981818722695</v>
+        <v>0.9982963136392016</v>
       </c>
       <c r="M25">
-        <v>0.9623910049777216</v>
+        <v>1.001776293435301</v>
       </c>
       <c r="N25">
-        <v>0.9623910049777216</v>
+        <v>1.001776293435301</v>
       </c>
       <c r="O25">
-        <v>0.9576080883075023</v>
+        <v>1.002232004351915</v>
       </c>
       <c r="P25">
-        <v>0.9844181990738208</v>
+        <v>1.000979945299687</v>
       </c>
       <c r="Q25">
-        <v>0.9844181990738208</v>
+        <v>1.000979945299687</v>
       </c>
       <c r="R25">
-        <v>0.9954317961218704</v>
+        <v>1.00058177123188</v>
       </c>
       <c r="S25">
-        <v>0.9954317961218704</v>
+        <v>1.00058177123188</v>
       </c>
       <c r="T25">
-        <v>0.9970921468023385</v>
+        <v>0.9999911099873163</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2070,58 +2076,58 @@
         <v>24</v>
       </c>
       <c r="C26">
-        <v>0.9762938184594367</v>
+        <v>1.001743561289196</v>
       </c>
       <c r="D26">
-        <v>1.006877960221159</v>
+        <v>0.9997280433451545</v>
       </c>
       <c r="E26">
-        <v>0.9762938184594367</v>
+        <v>1.001743561289196</v>
       </c>
       <c r="F26">
-        <v>1.004214012425665</v>
+        <v>0.9992690280480536</v>
       </c>
       <c r="G26">
-        <v>0.9863450898815773</v>
+        <v>1.000852732511416</v>
       </c>
       <c r="H26">
-        <v>1.01884861084529</v>
+        <v>0.999362208658366</v>
       </c>
       <c r="I26">
-        <v>1.004214012425665</v>
+        <v>0.9992690280480536</v>
       </c>
       <c r="J26">
-        <v>1.006101290492295</v>
+        <v>0.9995942215377136</v>
       </c>
       <c r="K26">
-        <v>1.004214012425665</v>
+        <v>0.9992690280480536</v>
       </c>
       <c r="L26">
-        <v>1.006877960221159</v>
+        <v>0.9997280433451545</v>
       </c>
       <c r="M26">
-        <v>0.9915858893402979</v>
+        <v>1.000735802317175</v>
       </c>
       <c r="N26">
-        <v>0.9915858893402979</v>
+        <v>1.000735802317175</v>
       </c>
       <c r="O26">
-        <v>0.9898389561873909</v>
+        <v>1.000774779048589</v>
       </c>
       <c r="P26">
-        <v>0.9957952637020869</v>
+        <v>1.000246877560801</v>
       </c>
       <c r="Q26">
-        <v>0.9957952637020869</v>
+        <v>1.000246877560801</v>
       </c>
       <c r="R26">
-        <v>0.9978999508829813</v>
+        <v>1.000002415182614</v>
       </c>
       <c r="S26">
-        <v>0.9978999508829813</v>
+        <v>1.000002415182614</v>
       </c>
       <c r="T26">
-        <v>0.9997801303875705</v>
+        <v>1.000091632564983</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2132,58 +2138,58 @@
         <v>25</v>
       </c>
       <c r="C27">
-        <v>1.005301821828063</v>
+        <v>0.902800191232748</v>
       </c>
       <c r="D27">
-        <v>0.9986626425446766</v>
+        <v>1.021981818722695</v>
       </c>
       <c r="E27">
-        <v>1.005301821828063</v>
+        <v>0.902800191232748</v>
       </c>
       <c r="F27">
-        <v>0.998695960545821</v>
+        <v>1.028472587266019</v>
       </c>
       <c r="G27">
-        <v>1.002923710417932</v>
+        <v>0.948042254967064</v>
       </c>
       <c r="H27">
-        <v>0.9964273764467469</v>
+        <v>1.05738184969474</v>
       </c>
       <c r="I27">
-        <v>0.998695960545821</v>
+        <v>1.028472587266019</v>
       </c>
       <c r="J27">
-        <v>0.9986723670496989</v>
+        <v>1.023874178930763</v>
       </c>
       <c r="K27">
-        <v>0.998695960545821</v>
+        <v>1.028472587266019</v>
       </c>
       <c r="L27">
-        <v>0.9986626425446766</v>
+        <v>1.021981818722695</v>
       </c>
       <c r="M27">
-        <v>1.00198223218637</v>
+        <v>0.9623910049777216</v>
       </c>
       <c r="N27">
-        <v>1.00198223218637</v>
+        <v>0.9623910049777216</v>
       </c>
       <c r="O27">
-        <v>1.002296058263558</v>
+        <v>0.9576080883075023</v>
       </c>
       <c r="P27">
-        <v>1.000886808306187</v>
+        <v>0.9844181990738208</v>
       </c>
       <c r="Q27">
-        <v>1.000886808306187</v>
+        <v>0.9844181990738208</v>
       </c>
       <c r="R27">
-        <v>1.000339096366095</v>
+        <v>0.9954317961218704</v>
       </c>
       <c r="S27">
-        <v>1.000339096366095</v>
+        <v>0.9954317961218704</v>
       </c>
       <c r="T27">
-        <v>1.00011397980549</v>
+        <v>0.9970921468023385</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2194,58 +2200,58 @@
         <v>26</v>
       </c>
       <c r="C28">
-        <v>0.9843169883790203</v>
+        <v>0.9762938184594367</v>
       </c>
       <c r="D28">
-        <v>1.003904332087002</v>
+        <v>1.006877960221159</v>
       </c>
       <c r="E28">
-        <v>0.9843169883790203</v>
+        <v>0.9762938184594367</v>
       </c>
       <c r="F28">
-        <v>1.003950314884864</v>
+        <v>1.004214012425665</v>
       </c>
       <c r="G28">
-        <v>0.9913849832119821</v>
+        <v>0.9863450898815773</v>
       </c>
       <c r="H28">
-        <v>1.010402791400715</v>
+        <v>1.01884861084529</v>
       </c>
       <c r="I28">
-        <v>1.003950314884864</v>
+        <v>1.004214012425665</v>
       </c>
       <c r="J28">
-        <v>1.003917746441096</v>
+        <v>1.006101290492295</v>
       </c>
       <c r="K28">
-        <v>1.003950314884864</v>
+        <v>1.004214012425665</v>
       </c>
       <c r="L28">
-        <v>1.003904332087002</v>
+        <v>1.006877960221159</v>
       </c>
       <c r="M28">
-        <v>0.9941106602330112</v>
+        <v>0.9915858893402979</v>
       </c>
       <c r="N28">
-        <v>0.9941106602330112</v>
+        <v>0.9915858893402979</v>
       </c>
       <c r="O28">
-        <v>0.9932021012260015</v>
+        <v>0.9898389561873909</v>
       </c>
       <c r="P28">
-        <v>0.9973905451169621</v>
+        <v>0.9957952637020869</v>
       </c>
       <c r="Q28">
-        <v>0.9973905451169623</v>
+        <v>0.9957952637020869</v>
       </c>
       <c r="R28">
-        <v>0.9990304875589378</v>
+        <v>0.9978999508829813</v>
       </c>
       <c r="S28">
-        <v>0.9990304875589378</v>
+        <v>0.9978999508829813</v>
       </c>
       <c r="T28">
-        <v>0.9996461927341133</v>
+        <v>0.9997801303875705</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2256,57 +2262,181 @@
         <v>27</v>
       </c>
       <c r="C29">
+        <v>1.005301821828063</v>
+      </c>
+      <c r="D29">
+        <v>0.9986626425446766</v>
+      </c>
+      <c r="E29">
+        <v>1.005301821828063</v>
+      </c>
+      <c r="F29">
+        <v>0.998695960545821</v>
+      </c>
+      <c r="G29">
+        <v>1.002923710417932</v>
+      </c>
+      <c r="H29">
+        <v>0.9964273764467469</v>
+      </c>
+      <c r="I29">
+        <v>0.998695960545821</v>
+      </c>
+      <c r="J29">
+        <v>0.9986723670496989</v>
+      </c>
+      <c r="K29">
+        <v>0.998695960545821</v>
+      </c>
+      <c r="L29">
+        <v>0.9986626425446766</v>
+      </c>
+      <c r="M29">
+        <v>1.00198223218637</v>
+      </c>
+      <c r="N29">
+        <v>1.00198223218637</v>
+      </c>
+      <c r="O29">
+        <v>1.002296058263558</v>
+      </c>
+      <c r="P29">
+        <v>1.000886808306187</v>
+      </c>
+      <c r="Q29">
+        <v>1.000886808306187</v>
+      </c>
+      <c r="R29">
+        <v>1.000339096366095</v>
+      </c>
+      <c r="S29">
+        <v>1.000339096366095</v>
+      </c>
+      <c r="T29">
+        <v>1.00011397980549</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30">
+        <v>0.9843169883790203</v>
+      </c>
+      <c r="D30">
+        <v>1.003904332087002</v>
+      </c>
+      <c r="E30">
+        <v>0.9843169883790203</v>
+      </c>
+      <c r="F30">
+        <v>1.003950314884864</v>
+      </c>
+      <c r="G30">
+        <v>0.9913849832119821</v>
+      </c>
+      <c r="H30">
+        <v>1.010402791400715</v>
+      </c>
+      <c r="I30">
+        <v>1.003950314884864</v>
+      </c>
+      <c r="J30">
+        <v>1.003917746441096</v>
+      </c>
+      <c r="K30">
+        <v>1.003950314884864</v>
+      </c>
+      <c r="L30">
+        <v>1.003904332087002</v>
+      </c>
+      <c r="M30">
+        <v>0.9941106602330112</v>
+      </c>
+      <c r="N30">
+        <v>0.9941106602330112</v>
+      </c>
+      <c r="O30">
+        <v>0.9932021012260015</v>
+      </c>
+      <c r="P30">
+        <v>0.9973905451169621</v>
+      </c>
+      <c r="Q30">
+        <v>0.9973905451169623</v>
+      </c>
+      <c r="R30">
+        <v>0.9990304875589378</v>
+      </c>
+      <c r="S30">
+        <v>0.9990304875589378</v>
+      </c>
+      <c r="T30">
+        <v>0.9996461927341133</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31">
         <v>0.9680701104107865</v>
       </c>
-      <c r="D29">
+      <c r="D31">
         <v>1.007369589176563</v>
       </c>
-      <c r="E29">
+      <c r="E31">
         <v>0.9680701104107865</v>
       </c>
-      <c r="F29">
+      <c r="F31">
         <v>1.009085670263854</v>
       </c>
-      <c r="G29">
+      <c r="G31">
         <v>0.9828357096743074</v>
       </c>
-      <c r="H29">
+      <c r="H31">
         <v>1.019325367069342</v>
       </c>
-      <c r="I29">
+      <c r="I31">
         <v>1.009085670263854</v>
       </c>
-      <c r="J29">
+      <c r="J31">
         <v>1.007869917390843</v>
       </c>
-      <c r="K29">
+      <c r="K31">
         <v>1.009085670263854</v>
       </c>
-      <c r="L29">
+      <c r="L31">
         <v>1.007369589176563</v>
       </c>
-      <c r="M29">
+      <c r="M31">
         <v>0.9877198497936748</v>
       </c>
-      <c r="N29">
+      <c r="N31">
         <v>0.9877198497936748</v>
       </c>
-      <c r="O29">
+      <c r="O31">
         <v>0.986091803087219</v>
       </c>
-      <c r="P29">
+      <c r="P31">
         <v>0.9948417899504012</v>
       </c>
-      <c r="Q29">
+      <c r="Q31">
         <v>0.9948417899504012</v>
       </c>
-      <c r="R29">
+      <c r="R31">
         <v>0.9984027600287644</v>
       </c>
-      <c r="S29">
+      <c r="S31">
         <v>0.9984027600287644</v>
       </c>
-      <c r="T29">
+      <c r="T31">
         <v>0.9990927273309493</v>
       </c>
     </row>
